--- a/Data.xlsx
+++ b/Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UCSD\课程\CSE260\Assignment 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UCSD\课程\CSE260\Assignment 2\Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A493CE62-42B7-4720-8A03-0B2BFAC1D84A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEE2870D-9470-4507-95E8-459824648A9E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17490" windowHeight="7890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -167,7 +167,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -180,8 +180,14 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -189,11 +195,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -218,15 +239,18 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -547,23 +571,23 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:26">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>22</v>
       </c>
       <c r="H1" s="2"/>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="11"/>
+      <c r="J1" s="10"/>
       <c r="P1" s="2"/>
-      <c r="Q1" s="11" t="s">
+      <c r="Q1" s="10" t="s">
         <v>21</v>
       </c>
       <c r="T1" s="2"/>
@@ -890,7 +914,7 @@
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="5"/>
-      <c r="Q8" s="13" t="s">
+      <c r="Q8" s="12" t="s">
         <v>20</v>
       </c>
       <c r="R8" s="1"/>
@@ -1530,7 +1554,7 @@
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
-      <c r="I24" s="11" t="s">
+      <c r="I24" s="10" t="s">
         <v>17</v>
       </c>
       <c r="N24" s="2"/>
@@ -1711,7 +1735,7 @@
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
-      <c r="I31" s="12" t="s">
+      <c r="I31" s="11" t="s">
         <v>18</v>
       </c>
       <c r="J31" s="1"/>
@@ -1719,11 +1743,11 @@
       <c r="L31" s="1"/>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
-      <c r="Q31" s="11" t="s">
+      <c r="Q31" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:19">
+    <row r="32" spans="1:19" ht="15" thickBot="1">
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
@@ -1749,20 +1773,20 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="3:21">
+    <row r="33" spans="3:21" ht="13.5" thickBot="1">
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
-      <c r="I33" s="3">
+      <c r="I33" s="13">
         <v>0</v>
       </c>
-      <c r="J33" s="3">
+      <c r="J33" s="13">
         <v>0</v>
       </c>
-      <c r="K33" s="3">
+      <c r="K33" s="13">
         <v>0</v>
       </c>
       <c r="L33" s="1"/>
@@ -1775,20 +1799,20 @@
         <v>6796.1158732876711</v>
       </c>
     </row>
-    <row r="34" spans="3:21">
+    <row r="34" spans="3:21" ht="13.5" thickBot="1">
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
-      <c r="I34" s="3">
-        <v>16.6188</v>
-      </c>
-      <c r="J34" s="10">
+      <c r="I34" s="13">
+        <v>8.32</v>
+      </c>
+      <c r="J34" s="14">
         <v>499.29411499999998</v>
       </c>
-      <c r="K34" s="3">
+      <c r="K34" s="13">
         <v>320.40179999999998</v>
       </c>
       <c r="L34" s="1"/>
@@ -1801,21 +1825,21 @@
         <v>2617.825321839081</v>
       </c>
     </row>
-    <row r="35" spans="3:21">
+    <row r="35" spans="3:21" ht="13.5" thickBot="1">
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
-      <c r="I35" s="3">
-        <v>45.6</v>
-      </c>
-      <c r="J35" s="3">
-        <v>1370</v>
-      </c>
-      <c r="K35" s="3">
-        <v>879.14</v>
+      <c r="I35" s="13">
+        <v>12.97</v>
+      </c>
+      <c r="J35" s="13">
+        <v>778.35</v>
+      </c>
+      <c r="K35" s="14">
+        <v>499.29411499999998</v>
       </c>
       <c r="L35" s="1"/>
       <c r="N35" s="2"/>
@@ -1827,21 +1851,21 @@
         <v>940.4943995584988</v>
       </c>
     </row>
-    <row r="36" spans="3:21">
+    <row r="36" spans="3:21" ht="13.5" thickBot="1">
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
-      <c r="I36" s="3">
-        <v>71.06</v>
-      </c>
-      <c r="J36" s="3">
+      <c r="I36" s="13">
+        <v>22.84</v>
+      </c>
+      <c r="J36" s="13">
         <v>1370</v>
       </c>
-      <c r="K36" s="3">
-        <v>1370</v>
+      <c r="K36" s="13">
+        <v>879.14</v>
       </c>
       <c r="L36" s="1"/>
       <c r="N36" s="2"/>
@@ -1853,20 +1877,20 @@
         <v>573.19541112618731</v>
       </c>
     </row>
-    <row r="37" spans="3:21">
+    <row r="37" spans="3:21" ht="13.5" thickBot="1">
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
-      <c r="I37" s="3">
-        <v>125</v>
-      </c>
-      <c r="J37" s="3">
+      <c r="I37" s="13">
+        <v>35.590000000000003</v>
+      </c>
+      <c r="J37" s="13">
         <v>1370</v>
       </c>
-      <c r="K37" s="3">
+      <c r="K37" s="13">
         <v>1370</v>
       </c>
       <c r="L37" s="1"/>
@@ -1879,16 +1903,22 @@
         <v>578.38874320652178</v>
       </c>
     </row>
-    <row r="38" spans="3:21">
+    <row r="38" spans="3:21" ht="13.5" thickBot="1">
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
+      <c r="I38" s="13">
+        <v>50</v>
+      </c>
+      <c r="J38" s="13">
+        <v>1370</v>
+      </c>
+      <c r="K38" s="13">
+        <v>1370</v>
+      </c>
       <c r="L38" s="1"/>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -1899,7 +1929,7 @@
         <v>518.05857142857144</v>
       </c>
     </row>
-    <row r="39" spans="3:21">
+    <row r="39" spans="3:21" ht="12.75">
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
@@ -2142,7 +2172,7 @@
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
     </row>
-    <row r="57" spans="3:15">
+    <row r="57" spans="3:15" ht="12.75">
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
@@ -2155,7 +2185,7 @@
       <c r="L57" s="2"/>
       <c r="M57" s="2"/>
     </row>
-    <row r="58" spans="3:15">
+    <row r="58" spans="3:15" ht="12.75">
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
@@ -2170,7 +2200,7 @@
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
     </row>
-    <row r="59" spans="3:15">
+    <row r="59" spans="3:15" ht="12.75">
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
@@ -2182,7 +2212,7 @@
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
     </row>
-    <row r="60" spans="3:15">
+    <row r="60" spans="3:15" ht="12.75">
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
@@ -2194,7 +2224,7 @@
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
     </row>
-    <row r="61" spans="3:15">
+    <row r="61" spans="3:15" ht="12.75">
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
@@ -2206,7 +2236,7 @@
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
     </row>
-    <row r="62" spans="3:15">
+    <row r="62" spans="3:15" ht="12.75">
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
@@ -2218,7 +2248,7 @@
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
     </row>
-    <row r="63" spans="3:15">
+    <row r="63" spans="3:15" ht="12.75">
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
@@ -2230,7 +2260,7 @@
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
     </row>
-    <row r="64" spans="3:15">
+    <row r="64" spans="3:15" ht="12.75">
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
@@ -2242,7 +2272,7 @@
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
     </row>
-    <row r="65" spans="3:15">
+    <row r="65" spans="3:15" ht="12.75">
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
@@ -2257,7 +2287,7 @@
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
     </row>
-    <row r="66" spans="3:15">
+    <row r="66" spans="3:15" ht="12.75">
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
@@ -2272,7 +2302,7 @@
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
     </row>
-    <row r="67" spans="3:15">
+    <row r="67" spans="3:15" ht="12.75">
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
@@ -2287,7 +2317,7 @@
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
     </row>
-    <row r="68" spans="3:15">
+    <row r="68" spans="3:15" ht="12.75">
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
@@ -2302,7 +2332,7 @@
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
     </row>
-    <row r="69" spans="3:15">
+    <row r="69" spans="3:15" ht="12.75">
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
@@ -2317,7 +2347,7 @@
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
     </row>
-    <row r="70" spans="3:15">
+    <row r="70" spans="3:15" ht="12.75">
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
@@ -2332,7 +2362,7 @@
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
     </row>
-    <row r="71" spans="3:15">
+    <row r="71" spans="3:15" ht="12.75">
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
@@ -2347,7 +2377,7 @@
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
     </row>
-    <row r="72" spans="3:15">
+    <row r="72" spans="3:15" ht="12.75">
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
@@ -2362,7 +2392,7 @@
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
     </row>
-    <row r="73" spans="3:15">
+    <row r="73" spans="3:15" ht="12.75">
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
@@ -2377,7 +2407,7 @@
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
     </row>
-    <row r="74" spans="3:15">
+    <row r="74" spans="3:15" ht="12.75">
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
@@ -2392,7 +2422,7 @@
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
     </row>
-    <row r="75" spans="3:15">
+    <row r="75" spans="3:15" ht="12.75">
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
@@ -2407,7 +2437,7 @@
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
     </row>
-    <row r="76" spans="3:15">
+    <row r="76" spans="3:15" ht="12.75">
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
@@ -2422,7 +2452,7 @@
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
     </row>
-    <row r="77" spans="3:15">
+    <row r="77" spans="3:15" ht="12.75">
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
@@ -2437,7 +2467,7 @@
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
     </row>
-    <row r="78" spans="3:15">
+    <row r="78" spans="3:15" ht="12.75">
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
@@ -2452,7 +2482,7 @@
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
     </row>
-    <row r="79" spans="3:15">
+    <row r="79" spans="3:15" ht="12.75">
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
@@ -2467,7 +2497,7 @@
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
     </row>
-    <row r="80" spans="3:15">
+    <row r="80" spans="3:15" ht="12.75">
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
@@ -2482,7 +2512,7 @@
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
     </row>
-    <row r="81" spans="3:15">
+    <row r="81" spans="3:15" ht="12.75">
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
@@ -2497,7 +2527,7 @@
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
     </row>
-    <row r="82" spans="3:15">
+    <row r="82" spans="3:15" ht="12.75">
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
@@ -2512,7 +2542,7 @@
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
     </row>
-    <row r="83" spans="3:15">
+    <row r="83" spans="3:15" ht="12.75">
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
@@ -2527,7 +2557,7 @@
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
     </row>
-    <row r="84" spans="3:15">
+    <row r="84" spans="3:15" ht="12.75">
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
@@ -2542,7 +2572,7 @@
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
     </row>
-    <row r="85" spans="3:15">
+    <row r="85" spans="3:15" ht="12.75">
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
@@ -2557,7 +2587,7 @@
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
     </row>
-    <row r="86" spans="3:15">
+    <row r="86" spans="3:15" ht="12.75">
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
@@ -2572,7 +2602,7 @@
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
     </row>
-    <row r="87" spans="3:15">
+    <row r="87" spans="3:15" ht="12.75">
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
@@ -2587,7 +2617,7 @@
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
     </row>
-    <row r="88" spans="3:15">
+    <row r="88" spans="3:15" ht="12.75">
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
@@ -2602,7 +2632,7 @@
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
     </row>
-    <row r="89" spans="3:15">
+    <row r="89" spans="3:15" ht="12.75">
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
@@ -2617,7 +2647,7 @@
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
     </row>
-    <row r="90" spans="3:15">
+    <row r="90" spans="3:15" ht="12.75">
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
@@ -2632,7 +2662,7 @@
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
     </row>
-    <row r="91" spans="3:15">
+    <row r="91" spans="3:15" ht="12.75">
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
@@ -2647,7 +2677,7 @@
       <c r="N91" s="2"/>
       <c r="O91" s="2"/>
     </row>
-    <row r="92" spans="3:15">
+    <row r="92" spans="3:15" ht="12.75">
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
@@ -2662,7 +2692,7 @@
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
     </row>
-    <row r="93" spans="3:15">
+    <row r="93" spans="3:15" ht="12.75">
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
@@ -2677,7 +2707,7 @@
       <c r="N93" s="2"/>
       <c r="O93" s="2"/>
     </row>
-    <row r="94" spans="3:15">
+    <row r="94" spans="3:15" ht="12.75">
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
@@ -2692,7 +2722,7 @@
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
     </row>
-    <row r="95" spans="3:15">
+    <row r="95" spans="3:15" ht="12.75">
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
@@ -2707,7 +2737,7 @@
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
     </row>
-    <row r="96" spans="3:15">
+    <row r="96" spans="3:15" ht="12.75">
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
@@ -2722,7 +2752,7 @@
       <c r="N96" s="2"/>
       <c r="O96" s="2"/>
     </row>
-    <row r="97" spans="3:15">
+    <row r="97" spans="3:15" ht="12.75">
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
@@ -2737,7 +2767,7 @@
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
     </row>
-    <row r="98" spans="3:15">
+    <row r="98" spans="3:15" ht="12.75">
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
@@ -2752,7 +2782,7 @@
       <c r="N98" s="2"/>
       <c r="O98" s="2"/>
     </row>
-    <row r="99" spans="3:15">
+    <row r="99" spans="3:15" ht="12.75">
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
@@ -2767,7 +2797,7 @@
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
     </row>
-    <row r="100" spans="3:15">
+    <row r="100" spans="3:15" ht="12.75">
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
@@ -2782,7 +2812,7 @@
       <c r="N100" s="2"/>
       <c r="O100" s="2"/>
     </row>
-    <row r="101" spans="3:15">
+    <row r="101" spans="3:15" ht="12.75">
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
@@ -2797,7 +2827,7 @@
       <c r="N101" s="2"/>
       <c r="O101" s="2"/>
     </row>
-    <row r="102" spans="3:15">
+    <row r="102" spans="3:15" ht="12.75">
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
       <c r="E102" s="2"/>
@@ -2812,7 +2842,7 @@
       <c r="N102" s="2"/>
       <c r="O102" s="2"/>
     </row>
-    <row r="103" spans="3:15">
+    <row r="103" spans="3:15" ht="12.75">
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
@@ -2827,7 +2857,7 @@
       <c r="N103" s="2"/>
       <c r="O103" s="2"/>
     </row>
-    <row r="104" spans="3:15">
+    <row r="104" spans="3:15" ht="12.75">
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
@@ -2842,7 +2872,7 @@
       <c r="N104" s="2"/>
       <c r="O104" s="2"/>
     </row>
-    <row r="105" spans="3:15">
+    <row r="105" spans="3:15" ht="12.75">
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
@@ -2857,7 +2887,7 @@
       <c r="N105" s="2"/>
       <c r="O105" s="2"/>
     </row>
-    <row r="106" spans="3:15">
+    <row r="106" spans="3:15" ht="12.75">
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
@@ -2872,7 +2902,7 @@
       <c r="N106" s="2"/>
       <c r="O106" s="2"/>
     </row>
-    <row r="107" spans="3:15">
+    <row r="107" spans="3:15" ht="12.75">
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
@@ -2887,7 +2917,7 @@
       <c r="N107" s="2"/>
       <c r="O107" s="2"/>
     </row>
-    <row r="108" spans="3:15">
+    <row r="108" spans="3:15" ht="12.75">
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
@@ -2902,7 +2932,7 @@
       <c r="N108" s="2"/>
       <c r="O108" s="2"/>
     </row>
-    <row r="109" spans="3:15">
+    <row r="109" spans="3:15" ht="12.75">
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
@@ -2917,7 +2947,7 @@
       <c r="N109" s="2"/>
       <c r="O109" s="2"/>
     </row>
-    <row r="110" spans="3:15">
+    <row r="110" spans="3:15" ht="12.75">
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
@@ -2932,7 +2962,7 @@
       <c r="N110" s="2"/>
       <c r="O110" s="2"/>
     </row>
-    <row r="111" spans="3:15">
+    <row r="111" spans="3:15" ht="12.75">
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
@@ -2947,7 +2977,7 @@
       <c r="N111" s="2"/>
       <c r="O111" s="2"/>
     </row>
-    <row r="112" spans="3:15">
+    <row r="112" spans="3:15" ht="12.75">
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
@@ -2962,7 +2992,7 @@
       <c r="N112" s="2"/>
       <c r="O112" s="2"/>
     </row>
-    <row r="113" spans="3:15">
+    <row r="113" spans="3:15" ht="12.75">
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
@@ -2977,7 +3007,7 @@
       <c r="N113" s="2"/>
       <c r="O113" s="2"/>
     </row>
-    <row r="114" spans="3:15">
+    <row r="114" spans="3:15" ht="12.75">
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
@@ -2992,7 +3022,7 @@
       <c r="N114" s="2"/>
       <c r="O114" s="2"/>
     </row>
-    <row r="115" spans="3:15">
+    <row r="115" spans="3:15" ht="12.75">
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
@@ -3007,7 +3037,7 @@
       <c r="N115" s="2"/>
       <c r="O115" s="2"/>
     </row>
-    <row r="116" spans="3:15">
+    <row r="116" spans="3:15" ht="12.75">
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
       <c r="E116" s="2"/>
@@ -3022,7 +3052,7 @@
       <c r="N116" s="2"/>
       <c r="O116" s="2"/>
     </row>
-    <row r="117" spans="3:15">
+    <row r="117" spans="3:15" ht="12.75">
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
@@ -3037,7 +3067,7 @@
       <c r="N117" s="2"/>
       <c r="O117" s="2"/>
     </row>
-    <row r="118" spans="3:15">
+    <row r="118" spans="3:15" ht="12.75">
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
@@ -3052,7 +3082,7 @@
       <c r="N118" s="2"/>
       <c r="O118" s="2"/>
     </row>
-    <row r="119" spans="3:15">
+    <row r="119" spans="3:15" ht="12.75">
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
@@ -3067,7 +3097,7 @@
       <c r="N119" s="2"/>
       <c r="O119" s="2"/>
     </row>
-    <row r="120" spans="3:15">
+    <row r="120" spans="3:15" ht="12.75">
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
       <c r="E120" s="2"/>
@@ -3082,7 +3112,7 @@
       <c r="N120" s="2"/>
       <c r="O120" s="2"/>
     </row>
-    <row r="121" spans="3:15">
+    <row r="121" spans="3:15" ht="12.75">
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
       <c r="E121" s="2"/>
@@ -3097,7 +3127,7 @@
       <c r="N121" s="2"/>
       <c r="O121" s="2"/>
     </row>
-    <row r="122" spans="3:15">
+    <row r="122" spans="3:15" ht="12.75">
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
@@ -3112,7 +3142,7 @@
       <c r="N122" s="2"/>
       <c r="O122" s="2"/>
     </row>
-    <row r="123" spans="3:15">
+    <row r="123" spans="3:15" ht="12.75">
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
@@ -3127,7 +3157,7 @@
       <c r="N123" s="2"/>
       <c r="O123" s="2"/>
     </row>
-    <row r="124" spans="3:15">
+    <row r="124" spans="3:15" ht="12.75">
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
@@ -3142,7 +3172,7 @@
       <c r="N124" s="2"/>
       <c r="O124" s="2"/>
     </row>
-    <row r="125" spans="3:15">
+    <row r="125" spans="3:15" ht="12.75">
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
@@ -3157,7 +3187,7 @@
       <c r="N125" s="2"/>
       <c r="O125" s="2"/>
     </row>
-    <row r="126" spans="3:15">
+    <row r="126" spans="3:15" ht="12.75">
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
@@ -3172,7 +3202,7 @@
       <c r="N126" s="2"/>
       <c r="O126" s="2"/>
     </row>
-    <row r="127" spans="3:15">
+    <row r="127" spans="3:15" ht="12.75">
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
@@ -3187,7 +3217,7 @@
       <c r="N127" s="2"/>
       <c r="O127" s="2"/>
     </row>
-    <row r="128" spans="3:15">
+    <row r="128" spans="3:15" ht="12.75">
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
@@ -3202,7 +3232,7 @@
       <c r="N128" s="2"/>
       <c r="O128" s="2"/>
     </row>
-    <row r="129" spans="3:15">
+    <row r="129" spans="3:15" ht="12.75">
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
@@ -3217,7 +3247,7 @@
       <c r="N129" s="2"/>
       <c r="O129" s="2"/>
     </row>
-    <row r="130" spans="3:15">
+    <row r="130" spans="3:15" ht="12.75">
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
@@ -3232,7 +3262,7 @@
       <c r="N130" s="2"/>
       <c r="O130" s="2"/>
     </row>
-    <row r="131" spans="3:15">
+    <row r="131" spans="3:15" ht="12.75">
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
@@ -3247,7 +3277,7 @@
       <c r="N131" s="2"/>
       <c r="O131" s="2"/>
     </row>
-    <row r="132" spans="3:15">
+    <row r="132" spans="3:15" ht="12.75">
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
       <c r="E132" s="2"/>
@@ -3262,7 +3292,7 @@
       <c r="N132" s="2"/>
       <c r="O132" s="2"/>
     </row>
-    <row r="133" spans="3:15">
+    <row r="133" spans="3:15" ht="12.75">
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
       <c r="E133" s="2"/>
@@ -3277,7 +3307,7 @@
       <c r="N133" s="2"/>
       <c r="O133" s="2"/>
     </row>
-    <row r="134" spans="3:15">
+    <row r="134" spans="3:15" ht="12.75">
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
@@ -3292,7 +3322,7 @@
       <c r="N134" s="2"/>
       <c r="O134" s="2"/>
     </row>
-    <row r="135" spans="3:15">
+    <row r="135" spans="3:15" ht="12.75">
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
       <c r="E135" s="2"/>
@@ -3307,7 +3337,7 @@
       <c r="N135" s="2"/>
       <c r="O135" s="2"/>
     </row>
-    <row r="136" spans="3:15">
+    <row r="136" spans="3:15" ht="12.75">
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
       <c r="E136" s="2"/>
@@ -3322,7 +3352,7 @@
       <c r="N136" s="2"/>
       <c r="O136" s="2"/>
     </row>
-    <row r="137" spans="3:15">
+    <row r="137" spans="3:15" ht="12.75">
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
       <c r="E137" s="2"/>
@@ -3337,7 +3367,7 @@
       <c r="N137" s="2"/>
       <c r="O137" s="2"/>
     </row>
-    <row r="138" spans="3:15">
+    <row r="138" spans="3:15" ht="12.75">
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
       <c r="E138" s="2"/>
@@ -3352,7 +3382,7 @@
       <c r="N138" s="2"/>
       <c r="O138" s="2"/>
     </row>
-    <row r="139" spans="3:15">
+    <row r="139" spans="3:15" ht="12.75">
       <c r="C139" s="2"/>
       <c r="D139" s="2"/>
       <c r="E139" s="2"/>
@@ -3367,7 +3397,7 @@
       <c r="N139" s="2"/>
       <c r="O139" s="2"/>
     </row>
-    <row r="140" spans="3:15">
+    <row r="140" spans="3:15" ht="12.75">
       <c r="C140" s="2"/>
       <c r="D140" s="2"/>
       <c r="E140" s="2"/>
@@ -3382,7 +3412,7 @@
       <c r="N140" s="2"/>
       <c r="O140" s="2"/>
     </row>
-    <row r="141" spans="3:15">
+    <row r="141" spans="3:15" ht="12.75">
       <c r="C141" s="2"/>
       <c r="D141" s="2"/>
       <c r="E141" s="2"/>
@@ -3397,7 +3427,7 @@
       <c r="N141" s="2"/>
       <c r="O141" s="2"/>
     </row>
-    <row r="142" spans="3:15">
+    <row r="142" spans="3:15" ht="12.75">
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
       <c r="E142" s="2"/>
@@ -3412,7 +3442,7 @@
       <c r="N142" s="2"/>
       <c r="O142" s="2"/>
     </row>
-    <row r="143" spans="3:15">
+    <row r="143" spans="3:15" ht="12.75">
       <c r="C143" s="2"/>
       <c r="D143" s="2"/>
       <c r="E143" s="2"/>
@@ -3427,7 +3457,7 @@
       <c r="N143" s="2"/>
       <c r="O143" s="2"/>
     </row>
-    <row r="144" spans="3:15">
+    <row r="144" spans="3:15" ht="12.75">
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>
       <c r="E144" s="2"/>
@@ -3442,7 +3472,7 @@
       <c r="N144" s="2"/>
       <c r="O144" s="2"/>
     </row>
-    <row r="145" spans="3:15">
+    <row r="145" spans="3:15" ht="12.75">
       <c r="C145" s="2"/>
       <c r="D145" s="2"/>
       <c r="E145" s="2"/>
@@ -3457,7 +3487,7 @@
       <c r="N145" s="2"/>
       <c r="O145" s="2"/>
     </row>
-    <row r="146" spans="3:15">
+    <row r="146" spans="3:15" ht="12.75">
       <c r="C146" s="2"/>
       <c r="D146" s="2"/>
       <c r="E146" s="2"/>
@@ -3472,7 +3502,7 @@
       <c r="N146" s="2"/>
       <c r="O146" s="2"/>
     </row>
-    <row r="147" spans="3:15">
+    <row r="147" spans="3:15" ht="12.75">
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
       <c r="E147" s="2"/>
@@ -3487,7 +3517,7 @@
       <c r="N147" s="2"/>
       <c r="O147" s="2"/>
     </row>
-    <row r="148" spans="3:15">
+    <row r="148" spans="3:15" ht="12.75">
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
       <c r="E148" s="2"/>
@@ -3502,7 +3532,7 @@
       <c r="N148" s="2"/>
       <c r="O148" s="2"/>
     </row>
-    <row r="149" spans="3:15">
+    <row r="149" spans="3:15" ht="12.75">
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
       <c r="E149" s="2"/>
@@ -3517,7 +3547,7 @@
       <c r="N149" s="2"/>
       <c r="O149" s="2"/>
     </row>
-    <row r="150" spans="3:15">
+    <row r="150" spans="3:15" ht="12.75">
       <c r="C150" s="2"/>
       <c r="D150" s="2"/>
       <c r="E150" s="2"/>
@@ -3532,7 +3562,7 @@
       <c r="N150" s="2"/>
       <c r="O150" s="2"/>
     </row>
-    <row r="151" spans="3:15">
+    <row r="151" spans="3:15" ht="12.75">
       <c r="C151" s="2"/>
       <c r="D151" s="2"/>
       <c r="E151" s="2"/>
@@ -3547,7 +3577,7 @@
       <c r="N151" s="2"/>
       <c r="O151" s="2"/>
     </row>
-    <row r="152" spans="3:15">
+    <row r="152" spans="3:15" ht="12.75">
       <c r="C152" s="2"/>
       <c r="D152" s="2"/>
       <c r="E152" s="2"/>
@@ -3562,7 +3592,7 @@
       <c r="N152" s="2"/>
       <c r="O152" s="2"/>
     </row>
-    <row r="153" spans="3:15">
+    <row r="153" spans="3:15" ht="12.75">
       <c r="C153" s="2"/>
       <c r="D153" s="2"/>
       <c r="E153" s="2"/>
@@ -3577,7 +3607,7 @@
       <c r="N153" s="2"/>
       <c r="O153" s="2"/>
     </row>
-    <row r="154" spans="3:15">
+    <row r="154" spans="3:15" ht="12.75">
       <c r="C154" s="2"/>
       <c r="D154" s="2"/>
       <c r="E154" s="2"/>
@@ -3592,7 +3622,7 @@
       <c r="N154" s="2"/>
       <c r="O154" s="2"/>
     </row>
-    <row r="155" spans="3:15">
+    <row r="155" spans="3:15" ht="12.75">
       <c r="C155" s="2"/>
       <c r="D155" s="2"/>
       <c r="E155" s="2"/>
@@ -3607,7 +3637,7 @@
       <c r="N155" s="2"/>
       <c r="O155" s="2"/>
     </row>
-    <row r="156" spans="3:15">
+    <row r="156" spans="3:15" ht="12.75">
       <c r="C156" s="2"/>
       <c r="D156" s="2"/>
       <c r="E156" s="2"/>
@@ -3622,7 +3652,7 @@
       <c r="N156" s="2"/>
       <c r="O156" s="2"/>
     </row>
-    <row r="157" spans="3:15">
+    <row r="157" spans="3:15" ht="12.75">
       <c r="C157" s="2"/>
       <c r="D157" s="2"/>
       <c r="E157" s="2"/>
@@ -3637,7 +3667,7 @@
       <c r="N157" s="2"/>
       <c r="O157" s="2"/>
     </row>
-    <row r="158" spans="3:15">
+    <row r="158" spans="3:15" ht="12.75">
       <c r="C158" s="2"/>
       <c r="D158" s="2"/>
       <c r="E158" s="2"/>
@@ -3652,7 +3682,7 @@
       <c r="N158" s="2"/>
       <c r="O158" s="2"/>
     </row>
-    <row r="159" spans="3:15">
+    <row r="159" spans="3:15" ht="12.75">
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
       <c r="E159" s="2"/>
@@ -3667,7 +3697,7 @@
       <c r="N159" s="2"/>
       <c r="O159" s="2"/>
     </row>
-    <row r="160" spans="3:15">
+    <row r="160" spans="3:15" ht="12.75">
       <c r="C160" s="2"/>
       <c r="D160" s="2"/>
       <c r="E160" s="2"/>
@@ -3682,7 +3712,7 @@
       <c r="N160" s="2"/>
       <c r="O160" s="2"/>
     </row>
-    <row r="161" spans="3:15">
+    <row r="161" spans="3:15" ht="12.75">
       <c r="C161" s="2"/>
       <c r="D161" s="2"/>
       <c r="E161" s="2"/>
@@ -3697,7 +3727,7 @@
       <c r="N161" s="2"/>
       <c r="O161" s="2"/>
     </row>
-    <row r="162" spans="3:15">
+    <row r="162" spans="3:15" ht="12.75">
       <c r="C162" s="2"/>
       <c r="D162" s="2"/>
       <c r="E162" s="2"/>
@@ -3712,7 +3742,7 @@
       <c r="N162" s="2"/>
       <c r="O162" s="2"/>
     </row>
-    <row r="163" spans="3:15">
+    <row r="163" spans="3:15" ht="12.75">
       <c r="C163" s="2"/>
       <c r="D163" s="2"/>
       <c r="E163" s="2"/>
@@ -3727,7 +3757,7 @@
       <c r="N163" s="2"/>
       <c r="O163" s="2"/>
     </row>
-    <row r="164" spans="3:15">
+    <row r="164" spans="3:15" ht="12.75">
       <c r="C164" s="2"/>
       <c r="D164" s="2"/>
       <c r="E164" s="2"/>
@@ -3742,7 +3772,7 @@
       <c r="N164" s="2"/>
       <c r="O164" s="2"/>
     </row>
-    <row r="165" spans="3:15">
+    <row r="165" spans="3:15" ht="12.75">
       <c r="C165" s="2"/>
       <c r="D165" s="2"/>
       <c r="E165" s="2"/>
@@ -3757,7 +3787,7 @@
       <c r="N165" s="2"/>
       <c r="O165" s="2"/>
     </row>
-    <row r="166" spans="3:15">
+    <row r="166" spans="3:15" ht="12.75">
       <c r="C166" s="2"/>
       <c r="D166" s="2"/>
       <c r="E166" s="2"/>
@@ -3772,7 +3802,7 @@
       <c r="N166" s="2"/>
       <c r="O166" s="2"/>
     </row>
-    <row r="167" spans="3:15">
+    <row r="167" spans="3:15" ht="12.75">
       <c r="C167" s="2"/>
       <c r="D167" s="2"/>
       <c r="E167" s="2"/>
@@ -3787,7 +3817,7 @@
       <c r="N167" s="2"/>
       <c r="O167" s="2"/>
     </row>
-    <row r="168" spans="3:15">
+    <row r="168" spans="3:15" ht="12.75">
       <c r="C168" s="2"/>
       <c r="D168" s="2"/>
       <c r="E168" s="2"/>
@@ -3802,7 +3832,7 @@
       <c r="N168" s="2"/>
       <c r="O168" s="2"/>
     </row>
-    <row r="169" spans="3:15">
+    <row r="169" spans="3:15" ht="12.75">
       <c r="C169" s="2"/>
       <c r="D169" s="2"/>
       <c r="E169" s="2"/>
@@ -3817,7 +3847,7 @@
       <c r="N169" s="2"/>
       <c r="O169" s="2"/>
     </row>
-    <row r="170" spans="3:15">
+    <row r="170" spans="3:15" ht="12.75">
       <c r="C170" s="2"/>
       <c r="D170" s="2"/>
       <c r="E170" s="2"/>
@@ -3832,7 +3862,7 @@
       <c r="N170" s="2"/>
       <c r="O170" s="2"/>
     </row>
-    <row r="171" spans="3:15">
+    <row r="171" spans="3:15" ht="12.75">
       <c r="C171" s="2"/>
       <c r="D171" s="2"/>
       <c r="E171" s="2"/>
@@ -3847,7 +3877,7 @@
       <c r="N171" s="2"/>
       <c r="O171" s="2"/>
     </row>
-    <row r="172" spans="3:15">
+    <row r="172" spans="3:15" ht="12.75">
       <c r="C172" s="2"/>
       <c r="D172" s="2"/>
       <c r="E172" s="2"/>
@@ -3862,7 +3892,7 @@
       <c r="N172" s="2"/>
       <c r="O172" s="2"/>
     </row>
-    <row r="173" spans="3:15">
+    <row r="173" spans="3:15" ht="12.75">
       <c r="C173" s="2"/>
       <c r="D173" s="2"/>
       <c r="E173" s="2"/>
@@ -3877,7 +3907,7 @@
       <c r="N173" s="2"/>
       <c r="O173" s="2"/>
     </row>
-    <row r="174" spans="3:15">
+    <row r="174" spans="3:15" ht="12.75">
       <c r="C174" s="2"/>
       <c r="D174" s="2"/>
       <c r="E174" s="2"/>
@@ -3892,7 +3922,7 @@
       <c r="N174" s="2"/>
       <c r="O174" s="2"/>
     </row>
-    <row r="175" spans="3:15">
+    <row r="175" spans="3:15" ht="12.75">
       <c r="C175" s="2"/>
       <c r="D175" s="2"/>
       <c r="E175" s="2"/>
@@ -3907,7 +3937,7 @@
       <c r="N175" s="2"/>
       <c r="O175" s="2"/>
     </row>
-    <row r="176" spans="3:15">
+    <row r="176" spans="3:15" ht="12.75">
       <c r="C176" s="2"/>
       <c r="D176" s="2"/>
       <c r="E176" s="2"/>
@@ -3922,7 +3952,7 @@
       <c r="N176" s="2"/>
       <c r="O176" s="2"/>
     </row>
-    <row r="177" spans="3:15">
+    <row r="177" spans="3:15" ht="12.75">
       <c r="C177" s="2"/>
       <c r="D177" s="2"/>
       <c r="E177" s="2"/>
@@ -3937,7 +3967,7 @@
       <c r="N177" s="2"/>
       <c r="O177" s="2"/>
     </row>
-    <row r="178" spans="3:15">
+    <row r="178" spans="3:15" ht="12.75">
       <c r="C178" s="2"/>
       <c r="D178" s="2"/>
       <c r="E178" s="2"/>
@@ -3952,7 +3982,7 @@
       <c r="N178" s="2"/>
       <c r="O178" s="2"/>
     </row>
-    <row r="179" spans="3:15">
+    <row r="179" spans="3:15" ht="12.75">
       <c r="C179" s="2"/>
       <c r="D179" s="2"/>
       <c r="E179" s="2"/>
@@ -3967,7 +3997,7 @@
       <c r="N179" s="2"/>
       <c r="O179" s="2"/>
     </row>
-    <row r="180" spans="3:15">
+    <row r="180" spans="3:15" ht="12.75">
       <c r="C180" s="2"/>
       <c r="D180" s="2"/>
       <c r="E180" s="2"/>
@@ -3982,7 +4012,7 @@
       <c r="N180" s="2"/>
       <c r="O180" s="2"/>
     </row>
-    <row r="181" spans="3:15">
+    <row r="181" spans="3:15" ht="12.75">
       <c r="C181" s="2"/>
       <c r="D181" s="2"/>
       <c r="E181" s="2"/>
@@ -3997,7 +4027,7 @@
       <c r="N181" s="2"/>
       <c r="O181" s="2"/>
     </row>
-    <row r="182" spans="3:15">
+    <row r="182" spans="3:15" ht="12.75">
       <c r="C182" s="2"/>
       <c r="D182" s="2"/>
       <c r="E182" s="2"/>
@@ -4012,7 +4042,7 @@
       <c r="N182" s="2"/>
       <c r="O182" s="2"/>
     </row>
-    <row r="183" spans="3:15">
+    <row r="183" spans="3:15" ht="12.75">
       <c r="C183" s="2"/>
       <c r="D183" s="2"/>
       <c r="E183" s="2"/>
@@ -4027,7 +4057,7 @@
       <c r="N183" s="2"/>
       <c r="O183" s="2"/>
     </row>
-    <row r="184" spans="3:15">
+    <row r="184" spans="3:15" ht="12.75">
       <c r="C184" s="2"/>
       <c r="D184" s="2"/>
       <c r="E184" s="2"/>
@@ -4042,7 +4072,7 @@
       <c r="N184" s="2"/>
       <c r="O184" s="2"/>
     </row>
-    <row r="185" spans="3:15">
+    <row r="185" spans="3:15" ht="12.75">
       <c r="C185" s="2"/>
       <c r="D185" s="2"/>
       <c r="E185" s="2"/>
@@ -4057,7 +4087,7 @@
       <c r="N185" s="2"/>
       <c r="O185" s="2"/>
     </row>
-    <row r="186" spans="3:15">
+    <row r="186" spans="3:15" ht="12.75">
       <c r="C186" s="2"/>
       <c r="D186" s="2"/>
       <c r="E186" s="2"/>
@@ -4072,7 +4102,7 @@
       <c r="N186" s="2"/>
       <c r="O186" s="2"/>
     </row>
-    <row r="187" spans="3:15">
+    <row r="187" spans="3:15" ht="12.75">
       <c r="C187" s="2"/>
       <c r="D187" s="2"/>
       <c r="E187" s="2"/>
@@ -4087,7 +4117,7 @@
       <c r="N187" s="2"/>
       <c r="O187" s="2"/>
     </row>
-    <row r="188" spans="3:15">
+    <row r="188" spans="3:15" ht="12.75">
       <c r="C188" s="2"/>
       <c r="D188" s="2"/>
       <c r="E188" s="2"/>
@@ -4102,7 +4132,7 @@
       <c r="N188" s="2"/>
       <c r="O188" s="2"/>
     </row>
-    <row r="189" spans="3:15">
+    <row r="189" spans="3:15" ht="12.75">
       <c r="C189" s="2"/>
       <c r="D189" s="2"/>
       <c r="E189" s="2"/>
@@ -4117,7 +4147,7 @@
       <c r="N189" s="2"/>
       <c r="O189" s="2"/>
     </row>
-    <row r="190" spans="3:15">
+    <row r="190" spans="3:15" ht="12.75">
       <c r="C190" s="2"/>
       <c r="D190" s="2"/>
       <c r="E190" s="2"/>
@@ -4132,7 +4162,7 @@
       <c r="N190" s="2"/>
       <c r="O190" s="2"/>
     </row>
-    <row r="191" spans="3:15">
+    <row r="191" spans="3:15" ht="12.75">
       <c r="C191" s="2"/>
       <c r="D191" s="2"/>
       <c r="E191" s="2"/>
@@ -4147,7 +4177,7 @@
       <c r="N191" s="2"/>
       <c r="O191" s="2"/>
     </row>
-    <row r="192" spans="3:15">
+    <row r="192" spans="3:15" ht="12.75">
       <c r="C192" s="2"/>
       <c r="D192" s="2"/>
       <c r="E192" s="2"/>
@@ -4162,7 +4192,7 @@
       <c r="N192" s="2"/>
       <c r="O192" s="2"/>
     </row>
-    <row r="193" spans="3:15">
+    <row r="193" spans="3:15" ht="12.75">
       <c r="C193" s="2"/>
       <c r="D193" s="2"/>
       <c r="E193" s="2"/>
@@ -4177,7 +4207,7 @@
       <c r="N193" s="2"/>
       <c r="O193" s="2"/>
     </row>
-    <row r="194" spans="3:15">
+    <row r="194" spans="3:15" ht="12.75">
       <c r="C194" s="2"/>
       <c r="D194" s="2"/>
       <c r="E194" s="2"/>
@@ -4192,7 +4222,7 @@
       <c r="N194" s="2"/>
       <c r="O194" s="2"/>
     </row>
-    <row r="195" spans="3:15">
+    <row r="195" spans="3:15" ht="12.75">
       <c r="C195" s="2"/>
       <c r="D195" s="2"/>
       <c r="E195" s="2"/>
@@ -4207,7 +4237,7 @@
       <c r="N195" s="2"/>
       <c r="O195" s="2"/>
     </row>
-    <row r="196" spans="3:15">
+    <row r="196" spans="3:15" ht="12.75">
       <c r="C196" s="2"/>
       <c r="D196" s="2"/>
       <c r="E196" s="2"/>
@@ -4222,7 +4252,7 @@
       <c r="N196" s="2"/>
       <c r="O196" s="2"/>
     </row>
-    <row r="197" spans="3:15">
+    <row r="197" spans="3:15" ht="12.75">
       <c r="C197" s="2"/>
       <c r="D197" s="2"/>
       <c r="E197" s="2"/>
@@ -4237,7 +4267,7 @@
       <c r="N197" s="2"/>
       <c r="O197" s="2"/>
     </row>
-    <row r="198" spans="3:15">
+    <row r="198" spans="3:15" ht="12.75">
       <c r="C198" s="2"/>
       <c r="D198" s="2"/>
       <c r="E198" s="2"/>
@@ -4252,7 +4282,7 @@
       <c r="N198" s="2"/>
       <c r="O198" s="2"/>
     </row>
-    <row r="199" spans="3:15">
+    <row r="199" spans="3:15" ht="12.75">
       <c r="C199" s="2"/>
       <c r="D199" s="2"/>
       <c r="E199" s="2"/>
@@ -4267,7 +4297,7 @@
       <c r="N199" s="2"/>
       <c r="O199" s="2"/>
     </row>
-    <row r="200" spans="3:15">
+    <row r="200" spans="3:15" ht="12.75">
       <c r="C200" s="2"/>
       <c r="D200" s="2"/>
       <c r="E200" s="2"/>
@@ -4282,7 +4312,7 @@
       <c r="N200" s="2"/>
       <c r="O200" s="2"/>
     </row>
-    <row r="201" spans="3:15">
+    <row r="201" spans="3:15" ht="12.75">
       <c r="C201" s="2"/>
       <c r="D201" s="2"/>
       <c r="E201" s="2"/>
@@ -4297,7 +4327,7 @@
       <c r="N201" s="2"/>
       <c r="O201" s="2"/>
     </row>
-    <row r="202" spans="3:15">
+    <row r="202" spans="3:15" ht="12.75">
       <c r="C202" s="2"/>
       <c r="D202" s="2"/>
       <c r="E202" s="2"/>
@@ -4312,7 +4342,7 @@
       <c r="N202" s="2"/>
       <c r="O202" s="2"/>
     </row>
-    <row r="203" spans="3:15">
+    <row r="203" spans="3:15" ht="12.75">
       <c r="C203" s="2"/>
       <c r="D203" s="2"/>
       <c r="E203" s="2"/>
@@ -4327,7 +4357,7 @@
       <c r="N203" s="2"/>
       <c r="O203" s="2"/>
     </row>
-    <row r="204" spans="3:15">
+    <row r="204" spans="3:15" ht="12.75">
       <c r="C204" s="2"/>
       <c r="D204" s="2"/>
       <c r="E204" s="2"/>
@@ -4342,7 +4372,7 @@
       <c r="N204" s="2"/>
       <c r="O204" s="2"/>
     </row>
-    <row r="205" spans="3:15">
+    <row r="205" spans="3:15" ht="12.75">
       <c r="C205" s="2"/>
       <c r="D205" s="2"/>
       <c r="E205" s="2"/>
@@ -4357,7 +4387,7 @@
       <c r="N205" s="2"/>
       <c r="O205" s="2"/>
     </row>
-    <row r="206" spans="3:15">
+    <row r="206" spans="3:15" ht="12.75">
       <c r="C206" s="2"/>
       <c r="D206" s="2"/>
       <c r="E206" s="2"/>
@@ -4372,7 +4402,7 @@
       <c r="N206" s="2"/>
       <c r="O206" s="2"/>
     </row>
-    <row r="207" spans="3:15">
+    <row r="207" spans="3:15" ht="12.75">
       <c r="C207" s="2"/>
       <c r="D207" s="2"/>
       <c r="E207" s="2"/>
@@ -4387,7 +4417,7 @@
       <c r="N207" s="2"/>
       <c r="O207" s="2"/>
     </row>
-    <row r="208" spans="3:15">
+    <row r="208" spans="3:15" ht="12.75">
       <c r="C208" s="2"/>
       <c r="D208" s="2"/>
       <c r="E208" s="2"/>
@@ -4402,7 +4432,7 @@
       <c r="N208" s="2"/>
       <c r="O208" s="2"/>
     </row>
-    <row r="209" spans="3:15">
+    <row r="209" spans="3:15" ht="12.75">
       <c r="C209" s="2"/>
       <c r="D209" s="2"/>
       <c r="E209" s="2"/>
@@ -4417,7 +4447,7 @@
       <c r="N209" s="2"/>
       <c r="O209" s="2"/>
     </row>
-    <row r="210" spans="3:15">
+    <row r="210" spans="3:15" ht="12.75">
       <c r="C210" s="2"/>
       <c r="D210" s="2"/>
       <c r="E210" s="2"/>
@@ -4432,7 +4462,7 @@
       <c r="N210" s="2"/>
       <c r="O210" s="2"/>
     </row>
-    <row r="211" spans="3:15">
+    <row r="211" spans="3:15" ht="12.75">
       <c r="C211" s="2"/>
       <c r="D211" s="2"/>
       <c r="E211" s="2"/>
@@ -4447,7 +4477,7 @@
       <c r="N211" s="2"/>
       <c r="O211" s="2"/>
     </row>
-    <row r="212" spans="3:15">
+    <row r="212" spans="3:15" ht="12.75">
       <c r="C212" s="2"/>
       <c r="D212" s="2"/>
       <c r="E212" s="2"/>
@@ -4462,7 +4492,7 @@
       <c r="N212" s="2"/>
       <c r="O212" s="2"/>
     </row>
-    <row r="213" spans="3:15">
+    <row r="213" spans="3:15" ht="12.75">
       <c r="C213" s="2"/>
       <c r="D213" s="2"/>
       <c r="E213" s="2"/>
@@ -4477,7 +4507,7 @@
       <c r="N213" s="2"/>
       <c r="O213" s="2"/>
     </row>
-    <row r="214" spans="3:15">
+    <row r="214" spans="3:15" ht="12.75">
       <c r="C214" s="2"/>
       <c r="D214" s="2"/>
       <c r="E214" s="2"/>
@@ -4492,7 +4522,7 @@
       <c r="N214" s="2"/>
       <c r="O214" s="2"/>
     </row>
-    <row r="215" spans="3:15">
+    <row r="215" spans="3:15" ht="12.75">
       <c r="C215" s="2"/>
       <c r="D215" s="2"/>
       <c r="E215" s="2"/>
@@ -4507,7 +4537,7 @@
       <c r="N215" s="2"/>
       <c r="O215" s="2"/>
     </row>
-    <row r="216" spans="3:15">
+    <row r="216" spans="3:15" ht="12.75">
       <c r="C216" s="2"/>
       <c r="D216" s="2"/>
       <c r="E216" s="2"/>
@@ -4522,7 +4552,7 @@
       <c r="N216" s="2"/>
       <c r="O216" s="2"/>
     </row>
-    <row r="217" spans="3:15">
+    <row r="217" spans="3:15" ht="12.75">
       <c r="C217" s="2"/>
       <c r="D217" s="2"/>
       <c r="E217" s="2"/>
@@ -4537,7 +4567,7 @@
       <c r="N217" s="2"/>
       <c r="O217" s="2"/>
     </row>
-    <row r="218" spans="3:15">
+    <row r="218" spans="3:15" ht="12.75">
       <c r="C218" s="2"/>
       <c r="D218" s="2"/>
       <c r="E218" s="2"/>
@@ -4552,7 +4582,7 @@
       <c r="N218" s="2"/>
       <c r="O218" s="2"/>
     </row>
-    <row r="219" spans="3:15">
+    <row r="219" spans="3:15" ht="12.75">
       <c r="C219" s="2"/>
       <c r="D219" s="2"/>
       <c r="E219" s="2"/>
@@ -4567,7 +4597,7 @@
       <c r="N219" s="2"/>
       <c r="O219" s="2"/>
     </row>
-    <row r="220" spans="3:15">
+    <row r="220" spans="3:15" ht="12.75">
       <c r="C220" s="2"/>
       <c r="D220" s="2"/>
       <c r="E220" s="2"/>
@@ -4582,7 +4612,7 @@
       <c r="N220" s="2"/>
       <c r="O220" s="2"/>
     </row>
-    <row r="221" spans="3:15">
+    <row r="221" spans="3:15" ht="12.75">
       <c r="C221" s="2"/>
       <c r="D221" s="2"/>
       <c r="E221" s="2"/>
@@ -4597,7 +4627,7 @@
       <c r="N221" s="2"/>
       <c r="O221" s="2"/>
     </row>
-    <row r="222" spans="3:15">
+    <row r="222" spans="3:15" ht="12.75">
       <c r="C222" s="2"/>
       <c r="D222" s="2"/>
       <c r="E222" s="2"/>
@@ -4612,7 +4642,7 @@
       <c r="N222" s="2"/>
       <c r="O222" s="2"/>
     </row>
-    <row r="223" spans="3:15">
+    <row r="223" spans="3:15" ht="12.75">
       <c r="C223" s="2"/>
       <c r="D223" s="2"/>
       <c r="E223" s="2"/>
@@ -4627,7 +4657,7 @@
       <c r="N223" s="2"/>
       <c r="O223" s="2"/>
     </row>
-    <row r="224" spans="3:15">
+    <row r="224" spans="3:15" ht="12.75">
       <c r="C224" s="2"/>
       <c r="D224" s="2"/>
       <c r="E224" s="2"/>
@@ -4642,7 +4672,7 @@
       <c r="N224" s="2"/>
       <c r="O224" s="2"/>
     </row>
-    <row r="225" spans="3:15">
+    <row r="225" spans="3:15" ht="12.75">
       <c r="C225" s="2"/>
       <c r="D225" s="2"/>
       <c r="E225" s="2"/>
@@ -4657,7 +4687,7 @@
       <c r="N225" s="2"/>
       <c r="O225" s="2"/>
     </row>
-    <row r="226" spans="3:15">
+    <row r="226" spans="3:15" ht="12.75">
       <c r="C226" s="2"/>
       <c r="D226" s="2"/>
       <c r="E226" s="2"/>
@@ -4672,7 +4702,7 @@
       <c r="N226" s="2"/>
       <c r="O226" s="2"/>
     </row>
-    <row r="227" spans="3:15">
+    <row r="227" spans="3:15" ht="12.75">
       <c r="C227" s="2"/>
       <c r="D227" s="2"/>
       <c r="E227" s="2"/>
@@ -4687,7 +4717,7 @@
       <c r="N227" s="2"/>
       <c r="O227" s="2"/>
     </row>
-    <row r="228" spans="3:15">
+    <row r="228" spans="3:15" ht="12.75">
       <c r="C228" s="2"/>
       <c r="D228" s="2"/>
       <c r="E228" s="2"/>
@@ -4702,7 +4732,7 @@
       <c r="N228" s="2"/>
       <c r="O228" s="2"/>
     </row>
-    <row r="229" spans="3:15">
+    <row r="229" spans="3:15" ht="12.75">
       <c r="C229" s="2"/>
       <c r="D229" s="2"/>
       <c r="E229" s="2"/>
@@ -4717,7 +4747,7 @@
       <c r="N229" s="2"/>
       <c r="O229" s="2"/>
     </row>
-    <row r="230" spans="3:15">
+    <row r="230" spans="3:15" ht="12.75">
       <c r="C230" s="2"/>
       <c r="D230" s="2"/>
       <c r="E230" s="2"/>
@@ -4732,7 +4762,7 @@
       <c r="N230" s="2"/>
       <c r="O230" s="2"/>
     </row>
-    <row r="231" spans="3:15">
+    <row r="231" spans="3:15" ht="12.75">
       <c r="C231" s="2"/>
       <c r="D231" s="2"/>
       <c r="E231" s="2"/>
@@ -4747,7 +4777,7 @@
       <c r="N231" s="2"/>
       <c r="O231" s="2"/>
     </row>
-    <row r="232" spans="3:15">
+    <row r="232" spans="3:15" ht="12.75">
       <c r="C232" s="2"/>
       <c r="D232" s="2"/>
       <c r="E232" s="2"/>
@@ -4762,7 +4792,7 @@
       <c r="N232" s="2"/>
       <c r="O232" s="2"/>
     </row>
-    <row r="233" spans="3:15">
+    <row r="233" spans="3:15" ht="12.75">
       <c r="C233" s="2"/>
       <c r="D233" s="2"/>
       <c r="E233" s="2"/>
@@ -4777,7 +4807,7 @@
       <c r="N233" s="2"/>
       <c r="O233" s="2"/>
     </row>
-    <row r="234" spans="3:15">
+    <row r="234" spans="3:15" ht="12.75">
       <c r="C234" s="2"/>
       <c r="D234" s="2"/>
       <c r="E234" s="2"/>
@@ -4792,7 +4822,7 @@
       <c r="N234" s="2"/>
       <c r="O234" s="2"/>
     </row>
-    <row r="235" spans="3:15">
+    <row r="235" spans="3:15" ht="12.75">
       <c r="C235" s="2"/>
       <c r="D235" s="2"/>
       <c r="E235" s="2"/>
@@ -4807,7 +4837,7 @@
       <c r="N235" s="2"/>
       <c r="O235" s="2"/>
     </row>
-    <row r="236" spans="3:15">
+    <row r="236" spans="3:15" ht="12.75">
       <c r="C236" s="2"/>
       <c r="D236" s="2"/>
       <c r="E236" s="2"/>
@@ -4822,7 +4852,7 @@
       <c r="N236" s="2"/>
       <c r="O236" s="2"/>
     </row>
-    <row r="237" spans="3:15">
+    <row r="237" spans="3:15" ht="12.75">
       <c r="C237" s="2"/>
       <c r="D237" s="2"/>
       <c r="E237" s="2"/>
@@ -4837,7 +4867,7 @@
       <c r="N237" s="2"/>
       <c r="O237" s="2"/>
     </row>
-    <row r="238" spans="3:15">
+    <row r="238" spans="3:15" ht="12.75">
       <c r="C238" s="2"/>
       <c r="D238" s="2"/>
       <c r="E238" s="2"/>
@@ -4852,7 +4882,7 @@
       <c r="N238" s="2"/>
       <c r="O238" s="2"/>
     </row>
-    <row r="239" spans="3:15">
+    <row r="239" spans="3:15" ht="12.75">
       <c r="C239" s="2"/>
       <c r="D239" s="2"/>
       <c r="E239" s="2"/>
@@ -4867,7 +4897,7 @@
       <c r="N239" s="2"/>
       <c r="O239" s="2"/>
     </row>
-    <row r="240" spans="3:15">
+    <row r="240" spans="3:15" ht="12.75">
       <c r="C240" s="2"/>
       <c r="D240" s="2"/>
       <c r="E240" s="2"/>
@@ -4882,7 +4912,7 @@
       <c r="N240" s="2"/>
       <c r="O240" s="2"/>
     </row>
-    <row r="241" spans="3:15">
+    <row r="241" spans="3:15" ht="12.75">
       <c r="C241" s="2"/>
       <c r="D241" s="2"/>
       <c r="E241" s="2"/>
@@ -4897,7 +4927,7 @@
       <c r="N241" s="2"/>
       <c r="O241" s="2"/>
     </row>
-    <row r="242" spans="3:15">
+    <row r="242" spans="3:15" ht="12.75">
       <c r="C242" s="2"/>
       <c r="D242" s="2"/>
       <c r="E242" s="2"/>
@@ -4912,7 +4942,7 @@
       <c r="N242" s="2"/>
       <c r="O242" s="2"/>
     </row>
-    <row r="243" spans="3:15">
+    <row r="243" spans="3:15" ht="12.75">
       <c r="C243" s="2"/>
       <c r="D243" s="2"/>
       <c r="E243" s="2"/>
@@ -4927,7 +4957,7 @@
       <c r="N243" s="2"/>
       <c r="O243" s="2"/>
     </row>
-    <row r="244" spans="3:15">
+    <row r="244" spans="3:15" ht="12.75">
       <c r="C244" s="2"/>
       <c r="D244" s="2"/>
       <c r="E244" s="2"/>
@@ -4942,7 +4972,7 @@
       <c r="N244" s="2"/>
       <c r="O244" s="2"/>
     </row>
-    <row r="245" spans="3:15">
+    <row r="245" spans="3:15" ht="12.75">
       <c r="C245" s="2"/>
       <c r="D245" s="2"/>
       <c r="E245" s="2"/>
@@ -4957,7 +4987,7 @@
       <c r="N245" s="2"/>
       <c r="O245" s="2"/>
     </row>
-    <row r="246" spans="3:15">
+    <row r="246" spans="3:15" ht="12.75">
       <c r="C246" s="2"/>
       <c r="D246" s="2"/>
       <c r="E246" s="2"/>
@@ -4972,7 +5002,7 @@
       <c r="N246" s="2"/>
       <c r="O246" s="2"/>
     </row>
-    <row r="247" spans="3:15">
+    <row r="247" spans="3:15" ht="12.75">
       <c r="C247" s="2"/>
       <c r="D247" s="2"/>
       <c r="E247" s="2"/>
@@ -4987,7 +5017,7 @@
       <c r="N247" s="2"/>
       <c r="O247" s="2"/>
     </row>
-    <row r="248" spans="3:15">
+    <row r="248" spans="3:15" ht="12.75">
       <c r="C248" s="2"/>
       <c r="D248" s="2"/>
       <c r="E248" s="2"/>
@@ -5002,7 +5032,7 @@
       <c r="N248" s="2"/>
       <c r="O248" s="2"/>
     </row>
-    <row r="249" spans="3:15">
+    <row r="249" spans="3:15" ht="12.75">
       <c r="C249" s="2"/>
       <c r="D249" s="2"/>
       <c r="E249" s="2"/>
@@ -5017,7 +5047,7 @@
       <c r="N249" s="2"/>
       <c r="O249" s="2"/>
     </row>
-    <row r="250" spans="3:15">
+    <row r="250" spans="3:15" ht="12.75">
       <c r="C250" s="2"/>
       <c r="D250" s="2"/>
       <c r="E250" s="2"/>
@@ -5032,7 +5062,7 @@
       <c r="N250" s="2"/>
       <c r="O250" s="2"/>
     </row>
-    <row r="251" spans="3:15">
+    <row r="251" spans="3:15" ht="12.75">
       <c r="C251" s="2"/>
       <c r="D251" s="2"/>
       <c r="E251" s="2"/>
@@ -5047,7 +5077,7 @@
       <c r="N251" s="2"/>
       <c r="O251" s="2"/>
     </row>
-    <row r="252" spans="3:15">
+    <row r="252" spans="3:15" ht="12.75">
       <c r="C252" s="2"/>
       <c r="D252" s="2"/>
       <c r="E252" s="2"/>
@@ -5062,7 +5092,7 @@
       <c r="N252" s="2"/>
       <c r="O252" s="2"/>
     </row>
-    <row r="253" spans="3:15">
+    <row r="253" spans="3:15" ht="12.75">
       <c r="C253" s="2"/>
       <c r="D253" s="2"/>
       <c r="E253" s="2"/>
@@ -5077,7 +5107,7 @@
       <c r="N253" s="2"/>
       <c r="O253" s="2"/>
     </row>
-    <row r="254" spans="3:15">
+    <row r="254" spans="3:15" ht="12.75">
       <c r="C254" s="2"/>
       <c r="D254" s="2"/>
       <c r="E254" s="2"/>
@@ -5092,7 +5122,7 @@
       <c r="N254" s="2"/>
       <c r="O254" s="2"/>
     </row>
-    <row r="255" spans="3:15">
+    <row r="255" spans="3:15" ht="12.75">
       <c r="C255" s="2"/>
       <c r="D255" s="2"/>
       <c r="E255" s="2"/>
@@ -5107,7 +5137,7 @@
       <c r="N255" s="2"/>
       <c r="O255" s="2"/>
     </row>
-    <row r="256" spans="3:15">
+    <row r="256" spans="3:15" ht="12.75">
       <c r="C256" s="2"/>
       <c r="D256" s="2"/>
       <c r="E256" s="2"/>
@@ -5122,7 +5152,7 @@
       <c r="N256" s="2"/>
       <c r="O256" s="2"/>
     </row>
-    <row r="257" spans="3:15">
+    <row r="257" spans="3:15" ht="12.75">
       <c r="C257" s="2"/>
       <c r="D257" s="2"/>
       <c r="E257" s="2"/>
@@ -5137,7 +5167,7 @@
       <c r="N257" s="2"/>
       <c r="O257" s="2"/>
     </row>
-    <row r="258" spans="3:15">
+    <row r="258" spans="3:15" ht="12.75">
       <c r="C258" s="2"/>
       <c r="D258" s="2"/>
       <c r="E258" s="2"/>
@@ -5152,7 +5182,7 @@
       <c r="N258" s="2"/>
       <c r="O258" s="2"/>
     </row>
-    <row r="259" spans="3:15">
+    <row r="259" spans="3:15" ht="12.75">
       <c r="C259" s="2"/>
       <c r="D259" s="2"/>
       <c r="E259" s="2"/>
@@ -5167,7 +5197,7 @@
       <c r="N259" s="2"/>
       <c r="O259" s="2"/>
     </row>
-    <row r="260" spans="3:15">
+    <row r="260" spans="3:15" ht="12.75">
       <c r="C260" s="2"/>
       <c r="D260" s="2"/>
       <c r="E260" s="2"/>
@@ -5182,7 +5212,7 @@
       <c r="N260" s="2"/>
       <c r="O260" s="2"/>
     </row>
-    <row r="261" spans="3:15">
+    <row r="261" spans="3:15" ht="12.75">
       <c r="C261" s="2"/>
       <c r="D261" s="2"/>
       <c r="E261" s="2"/>
@@ -5197,7 +5227,7 @@
       <c r="N261" s="2"/>
       <c r="O261" s="2"/>
     </row>
-    <row r="262" spans="3:15">
+    <row r="262" spans="3:15" ht="12.75">
       <c r="C262" s="2"/>
       <c r="D262" s="2"/>
       <c r="E262" s="2"/>
@@ -5212,7 +5242,7 @@
       <c r="N262" s="2"/>
       <c r="O262" s="2"/>
     </row>
-    <row r="263" spans="3:15">
+    <row r="263" spans="3:15" ht="12.75">
       <c r="C263" s="2"/>
       <c r="D263" s="2"/>
       <c r="E263" s="2"/>
@@ -5227,7 +5257,7 @@
       <c r="N263" s="2"/>
       <c r="O263" s="2"/>
     </row>
-    <row r="264" spans="3:15">
+    <row r="264" spans="3:15" ht="12.75">
       <c r="C264" s="2"/>
       <c r="D264" s="2"/>
       <c r="E264" s="2"/>
@@ -5242,7 +5272,7 @@
       <c r="N264" s="2"/>
       <c r="O264" s="2"/>
     </row>
-    <row r="265" spans="3:15">
+    <row r="265" spans="3:15" ht="12.75">
       <c r="C265" s="2"/>
       <c r="D265" s="2"/>
       <c r="E265" s="2"/>
@@ -5257,7 +5287,7 @@
       <c r="N265" s="2"/>
       <c r="O265" s="2"/>
     </row>
-    <row r="266" spans="3:15">
+    <row r="266" spans="3:15" ht="12.75">
       <c r="C266" s="2"/>
       <c r="D266" s="2"/>
       <c r="E266" s="2"/>
@@ -5272,7 +5302,7 @@
       <c r="N266" s="2"/>
       <c r="O266" s="2"/>
     </row>
-    <row r="267" spans="3:15">
+    <row r="267" spans="3:15" ht="12.75">
       <c r="C267" s="2"/>
       <c r="D267" s="2"/>
       <c r="E267" s="2"/>
@@ -5287,7 +5317,7 @@
       <c r="N267" s="2"/>
       <c r="O267" s="2"/>
     </row>
-    <row r="268" spans="3:15">
+    <row r="268" spans="3:15" ht="12.75">
       <c r="C268" s="2"/>
       <c r="D268" s="2"/>
       <c r="E268" s="2"/>
@@ -5302,7 +5332,7 @@
       <c r="N268" s="2"/>
       <c r="O268" s="2"/>
     </row>
-    <row r="269" spans="3:15">
+    <row r="269" spans="3:15" ht="12.75">
       <c r="C269" s="2"/>
       <c r="D269" s="2"/>
       <c r="E269" s="2"/>
@@ -5317,7 +5347,7 @@
       <c r="N269" s="2"/>
       <c r="O269" s="2"/>
     </row>
-    <row r="270" spans="3:15">
+    <row r="270" spans="3:15" ht="12.75">
       <c r="C270" s="2"/>
       <c r="D270" s="2"/>
       <c r="E270" s="2"/>
@@ -5332,7 +5362,7 @@
       <c r="N270" s="2"/>
       <c r="O270" s="2"/>
     </row>
-    <row r="271" spans="3:15">
+    <row r="271" spans="3:15" ht="12.75">
       <c r="C271" s="2"/>
       <c r="D271" s="2"/>
       <c r="E271" s="2"/>
@@ -5347,7 +5377,7 @@
       <c r="N271" s="2"/>
       <c r="O271" s="2"/>
     </row>
-    <row r="272" spans="3:15">
+    <row r="272" spans="3:15" ht="12.75">
       <c r="C272" s="2"/>
       <c r="D272" s="2"/>
       <c r="E272" s="2"/>
@@ -5362,7 +5392,7 @@
       <c r="N272" s="2"/>
       <c r="O272" s="2"/>
     </row>
-    <row r="273" spans="3:15">
+    <row r="273" spans="3:15" ht="12.75">
       <c r="C273" s="2"/>
       <c r="D273" s="2"/>
       <c r="E273" s="2"/>
@@ -5377,7 +5407,7 @@
       <c r="N273" s="2"/>
       <c r="O273" s="2"/>
     </row>
-    <row r="274" spans="3:15">
+    <row r="274" spans="3:15" ht="12.75">
       <c r="C274" s="2"/>
       <c r="D274" s="2"/>
       <c r="E274" s="2"/>
@@ -5392,7 +5422,7 @@
       <c r="N274" s="2"/>
       <c r="O274" s="2"/>
     </row>
-    <row r="275" spans="3:15">
+    <row r="275" spans="3:15" ht="12.75">
       <c r="C275" s="2"/>
       <c r="D275" s="2"/>
       <c r="E275" s="2"/>
@@ -5407,7 +5437,7 @@
       <c r="N275" s="2"/>
       <c r="O275" s="2"/>
     </row>
-    <row r="276" spans="3:15">
+    <row r="276" spans="3:15" ht="12.75">
       <c r="C276" s="2"/>
       <c r="D276" s="2"/>
       <c r="E276" s="2"/>
@@ -5422,7 +5452,7 @@
       <c r="N276" s="2"/>
       <c r="O276" s="2"/>
     </row>
-    <row r="277" spans="3:15">
+    <row r="277" spans="3:15" ht="12.75">
       <c r="C277" s="2"/>
       <c r="D277" s="2"/>
       <c r="E277" s="2"/>
@@ -5437,7 +5467,7 @@
       <c r="N277" s="2"/>
       <c r="O277" s="2"/>
     </row>
-    <row r="278" spans="3:15">
+    <row r="278" spans="3:15" ht="12.75">
       <c r="C278" s="2"/>
       <c r="D278" s="2"/>
       <c r="E278" s="2"/>
@@ -5452,7 +5482,7 @@
       <c r="N278" s="2"/>
       <c r="O278" s="2"/>
     </row>
-    <row r="279" spans="3:15">
+    <row r="279" spans="3:15" ht="12.75">
       <c r="C279" s="2"/>
       <c r="D279" s="2"/>
       <c r="E279" s="2"/>
@@ -5467,7 +5497,7 @@
       <c r="N279" s="2"/>
       <c r="O279" s="2"/>
     </row>
-    <row r="280" spans="3:15">
+    <row r="280" spans="3:15" ht="12.75">
       <c r="C280" s="2"/>
       <c r="D280" s="2"/>
       <c r="E280" s="2"/>
@@ -5482,7 +5512,7 @@
       <c r="N280" s="2"/>
       <c r="O280" s="2"/>
     </row>
-    <row r="281" spans="3:15">
+    <row r="281" spans="3:15" ht="12.75">
       <c r="C281" s="2"/>
       <c r="D281" s="2"/>
       <c r="E281" s="2"/>
@@ -5497,7 +5527,7 @@
       <c r="N281" s="2"/>
       <c r="O281" s="2"/>
     </row>
-    <row r="282" spans="3:15">
+    <row r="282" spans="3:15" ht="12.75">
       <c r="C282" s="2"/>
       <c r="D282" s="2"/>
       <c r="E282" s="2"/>
@@ -5512,7 +5542,7 @@
       <c r="N282" s="2"/>
       <c r="O282" s="2"/>
     </row>
-    <row r="283" spans="3:15">
+    <row r="283" spans="3:15" ht="12.75">
       <c r="C283" s="2"/>
       <c r="D283" s="2"/>
       <c r="E283" s="2"/>
@@ -5527,7 +5557,7 @@
       <c r="N283" s="2"/>
       <c r="O283" s="2"/>
     </row>
-    <row r="284" spans="3:15">
+    <row r="284" spans="3:15" ht="12.75">
       <c r="C284" s="2"/>
       <c r="D284" s="2"/>
       <c r="E284" s="2"/>
@@ -5542,7 +5572,7 @@
       <c r="N284" s="2"/>
       <c r="O284" s="2"/>
     </row>
-    <row r="285" spans="3:15">
+    <row r="285" spans="3:15" ht="12.75">
       <c r="C285" s="2"/>
       <c r="D285" s="2"/>
       <c r="E285" s="2"/>
@@ -5557,7 +5587,7 @@
       <c r="N285" s="2"/>
       <c r="O285" s="2"/>
     </row>
-    <row r="286" spans="3:15">
+    <row r="286" spans="3:15" ht="12.75">
       <c r="C286" s="2"/>
       <c r="D286" s="2"/>
       <c r="E286" s="2"/>
@@ -5572,7 +5602,7 @@
       <c r="N286" s="2"/>
       <c r="O286" s="2"/>
     </row>
-    <row r="287" spans="3:15">
+    <row r="287" spans="3:15" ht="12.75">
       <c r="C287" s="2"/>
       <c r="D287" s="2"/>
       <c r="E287" s="2"/>
@@ -5587,7 +5617,7 @@
       <c r="N287" s="2"/>
       <c r="O287" s="2"/>
     </row>
-    <row r="288" spans="3:15">
+    <row r="288" spans="3:15" ht="12.75">
       <c r="C288" s="2"/>
       <c r="D288" s="2"/>
       <c r="E288" s="2"/>
@@ -5602,7 +5632,7 @@
       <c r="N288" s="2"/>
       <c r="O288" s="2"/>
     </row>
-    <row r="289" spans="3:15">
+    <row r="289" spans="3:15" ht="12.75">
       <c r="C289" s="2"/>
       <c r="D289" s="2"/>
       <c r="E289" s="2"/>
@@ -5617,7 +5647,7 @@
       <c r="N289" s="2"/>
       <c r="O289" s="2"/>
     </row>
-    <row r="290" spans="3:15">
+    <row r="290" spans="3:15" ht="12.75">
       <c r="C290" s="2"/>
       <c r="D290" s="2"/>
       <c r="E290" s="2"/>
@@ -5632,7 +5662,7 @@
       <c r="N290" s="2"/>
       <c r="O290" s="2"/>
     </row>
-    <row r="291" spans="3:15">
+    <row r="291" spans="3:15" ht="12.75">
       <c r="C291" s="2"/>
       <c r="D291" s="2"/>
       <c r="E291" s="2"/>
@@ -5647,7 +5677,7 @@
       <c r="N291" s="2"/>
       <c r="O291" s="2"/>
     </row>
-    <row r="292" spans="3:15">
+    <row r="292" spans="3:15" ht="12.75">
       <c r="C292" s="2"/>
       <c r="D292" s="2"/>
       <c r="E292" s="2"/>
@@ -5662,7 +5692,7 @@
       <c r="N292" s="2"/>
       <c r="O292" s="2"/>
     </row>
-    <row r="293" spans="3:15">
+    <row r="293" spans="3:15" ht="12.75">
       <c r="C293" s="2"/>
       <c r="D293" s="2"/>
       <c r="E293" s="2"/>
@@ -5677,7 +5707,7 @@
       <c r="N293" s="2"/>
       <c r="O293" s="2"/>
     </row>
-    <row r="294" spans="3:15">
+    <row r="294" spans="3:15" ht="12.75">
       <c r="C294" s="2"/>
       <c r="D294" s="2"/>
       <c r="E294" s="2"/>
@@ -5692,7 +5722,7 @@
       <c r="N294" s="2"/>
       <c r="O294" s="2"/>
     </row>
-    <row r="295" spans="3:15">
+    <row r="295" spans="3:15" ht="12.75">
       <c r="C295" s="2"/>
       <c r="D295" s="2"/>
       <c r="E295" s="2"/>
@@ -5707,7 +5737,7 @@
       <c r="N295" s="2"/>
       <c r="O295" s="2"/>
     </row>
-    <row r="296" spans="3:15">
+    <row r="296" spans="3:15" ht="12.75">
       <c r="C296" s="2"/>
       <c r="D296" s="2"/>
       <c r="E296" s="2"/>
@@ -5722,7 +5752,7 @@
       <c r="N296" s="2"/>
       <c r="O296" s="2"/>
     </row>
-    <row r="297" spans="3:15">
+    <row r="297" spans="3:15" ht="12.75">
       <c r="C297" s="2"/>
       <c r="D297" s="2"/>
       <c r="E297" s="2"/>
@@ -5737,7 +5767,7 @@
       <c r="N297" s="2"/>
       <c r="O297" s="2"/>
     </row>
-    <row r="298" spans="3:15">
+    <row r="298" spans="3:15" ht="12.75">
       <c r="C298" s="2"/>
       <c r="D298" s="2"/>
       <c r="E298" s="2"/>
@@ -5752,7 +5782,7 @@
       <c r="N298" s="2"/>
       <c r="O298" s="2"/>
     </row>
-    <row r="299" spans="3:15">
+    <row r="299" spans="3:15" ht="12.75">
       <c r="C299" s="2"/>
       <c r="D299" s="2"/>
       <c r="E299" s="2"/>
@@ -5767,7 +5797,7 @@
       <c r="N299" s="2"/>
       <c r="O299" s="2"/>
     </row>
-    <row r="300" spans="3:15">
+    <row r="300" spans="3:15" ht="12.75">
       <c r="C300" s="2"/>
       <c r="D300" s="2"/>
       <c r="E300" s="2"/>
@@ -5782,7 +5812,7 @@
       <c r="N300" s="2"/>
       <c r="O300" s="2"/>
     </row>
-    <row r="301" spans="3:15">
+    <row r="301" spans="3:15" ht="12.75">
       <c r="C301" s="2"/>
       <c r="D301" s="2"/>
       <c r="E301" s="2"/>
@@ -5797,7 +5827,7 @@
       <c r="N301" s="2"/>
       <c r="O301" s="2"/>
     </row>
-    <row r="302" spans="3:15">
+    <row r="302" spans="3:15" ht="12.75">
       <c r="C302" s="2"/>
       <c r="D302" s="2"/>
       <c r="E302" s="2"/>
@@ -5812,7 +5842,7 @@
       <c r="N302" s="2"/>
       <c r="O302" s="2"/>
     </row>
-    <row r="303" spans="3:15">
+    <row r="303" spans="3:15" ht="12.75">
       <c r="C303" s="2"/>
       <c r="D303" s="2"/>
       <c r="E303" s="2"/>
@@ -5827,7 +5857,7 @@
       <c r="N303" s="2"/>
       <c r="O303" s="2"/>
     </row>
-    <row r="304" spans="3:15">
+    <row r="304" spans="3:15" ht="12.75">
       <c r="C304" s="2"/>
       <c r="D304" s="2"/>
       <c r="E304" s="2"/>
@@ -5842,7 +5872,7 @@
       <c r="N304" s="2"/>
       <c r="O304" s="2"/>
     </row>
-    <row r="305" spans="3:15">
+    <row r="305" spans="3:15" ht="12.75">
       <c r="C305" s="2"/>
       <c r="D305" s="2"/>
       <c r="E305" s="2"/>
@@ -5857,7 +5887,7 @@
       <c r="N305" s="2"/>
       <c r="O305" s="2"/>
     </row>
-    <row r="306" spans="3:15">
+    <row r="306" spans="3:15" ht="12.75">
       <c r="C306" s="2"/>
       <c r="D306" s="2"/>
       <c r="E306" s="2"/>
@@ -5872,7 +5902,7 @@
       <c r="N306" s="2"/>
       <c r="O306" s="2"/>
     </row>
-    <row r="307" spans="3:15">
+    <row r="307" spans="3:15" ht="12.75">
       <c r="C307" s="2"/>
       <c r="D307" s="2"/>
       <c r="E307" s="2"/>
@@ -5887,7 +5917,7 @@
       <c r="N307" s="2"/>
       <c r="O307" s="2"/>
     </row>
-    <row r="308" spans="3:15">
+    <row r="308" spans="3:15" ht="12.75">
       <c r="C308" s="2"/>
       <c r="D308" s="2"/>
       <c r="E308" s="2"/>
@@ -5902,7 +5932,7 @@
       <c r="N308" s="2"/>
       <c r="O308" s="2"/>
     </row>
-    <row r="309" spans="3:15">
+    <row r="309" spans="3:15" ht="12.75">
       <c r="C309" s="2"/>
       <c r="D309" s="2"/>
       <c r="E309" s="2"/>
@@ -5917,7 +5947,7 @@
       <c r="N309" s="2"/>
       <c r="O309" s="2"/>
     </row>
-    <row r="310" spans="3:15">
+    <row r="310" spans="3:15" ht="12.75">
       <c r="C310" s="2"/>
       <c r="D310" s="2"/>
       <c r="E310" s="2"/>
@@ -5932,7 +5962,7 @@
       <c r="N310" s="2"/>
       <c r="O310" s="2"/>
     </row>
-    <row r="311" spans="3:15">
+    <row r="311" spans="3:15" ht="12.75">
       <c r="C311" s="2"/>
       <c r="D311" s="2"/>
       <c r="E311" s="2"/>
@@ -5947,7 +5977,7 @@
       <c r="N311" s="2"/>
       <c r="O311" s="2"/>
     </row>
-    <row r="312" spans="3:15">
+    <row r="312" spans="3:15" ht="12.75">
       <c r="C312" s="2"/>
       <c r="D312" s="2"/>
       <c r="E312" s="2"/>
@@ -5962,7 +5992,7 @@
       <c r="N312" s="2"/>
       <c r="O312" s="2"/>
     </row>
-    <row r="313" spans="3:15">
+    <row r="313" spans="3:15" ht="12.75">
       <c r="C313" s="2"/>
       <c r="D313" s="2"/>
       <c r="E313" s="2"/>
@@ -5977,7 +6007,7 @@
       <c r="N313" s="2"/>
       <c r="O313" s="2"/>
     </row>
-    <row r="314" spans="3:15">
+    <row r="314" spans="3:15" ht="12.75">
       <c r="C314" s="2"/>
       <c r="D314" s="2"/>
       <c r="E314" s="2"/>
@@ -5992,7 +6022,7 @@
       <c r="N314" s="2"/>
       <c r="O314" s="2"/>
     </row>
-    <row r="315" spans="3:15">
+    <row r="315" spans="3:15" ht="12.75">
       <c r="C315" s="2"/>
       <c r="D315" s="2"/>
       <c r="E315" s="2"/>
@@ -6007,7 +6037,7 @@
       <c r="N315" s="2"/>
       <c r="O315" s="2"/>
     </row>
-    <row r="316" spans="3:15">
+    <row r="316" spans="3:15" ht="12.75">
       <c r="C316" s="2"/>
       <c r="D316" s="2"/>
       <c r="E316" s="2"/>
@@ -6022,7 +6052,7 @@
       <c r="N316" s="2"/>
       <c r="O316" s="2"/>
     </row>
-    <row r="317" spans="3:15">
+    <row r="317" spans="3:15" ht="12.75">
       <c r="C317" s="2"/>
       <c r="D317" s="2"/>
       <c r="E317" s="2"/>
@@ -6037,7 +6067,7 @@
       <c r="N317" s="2"/>
       <c r="O317" s="2"/>
     </row>
-    <row r="318" spans="3:15">
+    <row r="318" spans="3:15" ht="12.75">
       <c r="C318" s="2"/>
       <c r="D318" s="2"/>
       <c r="E318" s="2"/>
@@ -6052,7 +6082,7 @@
       <c r="N318" s="2"/>
       <c r="O318" s="2"/>
     </row>
-    <row r="319" spans="3:15">
+    <row r="319" spans="3:15" ht="12.75">
       <c r="C319" s="2"/>
       <c r="D319" s="2"/>
       <c r="E319" s="2"/>
@@ -6067,7 +6097,7 @@
       <c r="N319" s="2"/>
       <c r="O319" s="2"/>
     </row>
-    <row r="320" spans="3:15">
+    <row r="320" spans="3:15" ht="12.75">
       <c r="C320" s="2"/>
       <c r="D320" s="2"/>
       <c r="E320" s="2"/>
@@ -6082,7 +6112,7 @@
       <c r="N320" s="2"/>
       <c r="O320" s="2"/>
     </row>
-    <row r="321" spans="3:15">
+    <row r="321" spans="3:15" ht="12.75">
       <c r="C321" s="2"/>
       <c r="D321" s="2"/>
       <c r="E321" s="2"/>
@@ -6097,7 +6127,7 @@
       <c r="N321" s="2"/>
       <c r="O321" s="2"/>
     </row>
-    <row r="322" spans="3:15">
+    <row r="322" spans="3:15" ht="12.75">
       <c r="C322" s="2"/>
       <c r="D322" s="2"/>
       <c r="E322" s="2"/>
@@ -6112,7 +6142,7 @@
       <c r="N322" s="2"/>
       <c r="O322" s="2"/>
     </row>
-    <row r="323" spans="3:15">
+    <row r="323" spans="3:15" ht="12.75">
       <c r="C323" s="2"/>
       <c r="D323" s="2"/>
       <c r="E323" s="2"/>
@@ -6127,7 +6157,7 @@
       <c r="N323" s="2"/>
       <c r="O323" s="2"/>
     </row>
-    <row r="324" spans="3:15">
+    <row r="324" spans="3:15" ht="12.75">
       <c r="C324" s="2"/>
       <c r="D324" s="2"/>
       <c r="E324" s="2"/>
@@ -6142,7 +6172,7 @@
       <c r="N324" s="2"/>
       <c r="O324" s="2"/>
     </row>
-    <row r="325" spans="3:15">
+    <row r="325" spans="3:15" ht="12.75">
       <c r="C325" s="2"/>
       <c r="D325" s="2"/>
       <c r="E325" s="2"/>
@@ -6157,7 +6187,7 @@
       <c r="N325" s="2"/>
       <c r="O325" s="2"/>
     </row>
-    <row r="326" spans="3:15">
+    <row r="326" spans="3:15" ht="12.75">
       <c r="C326" s="2"/>
       <c r="D326" s="2"/>
       <c r="E326" s="2"/>
@@ -6172,7 +6202,7 @@
       <c r="N326" s="2"/>
       <c r="O326" s="2"/>
     </row>
-    <row r="327" spans="3:15">
+    <row r="327" spans="3:15" ht="12.75">
       <c r="C327" s="2"/>
       <c r="D327" s="2"/>
       <c r="E327" s="2"/>
@@ -6187,7 +6217,7 @@
       <c r="N327" s="2"/>
       <c r="O327" s="2"/>
     </row>
-    <row r="328" spans="3:15">
+    <row r="328" spans="3:15" ht="12.75">
       <c r="C328" s="2"/>
       <c r="D328" s="2"/>
       <c r="E328" s="2"/>
@@ -6202,7 +6232,7 @@
       <c r="N328" s="2"/>
       <c r="O328" s="2"/>
     </row>
-    <row r="329" spans="3:15">
+    <row r="329" spans="3:15" ht="12.75">
       <c r="C329" s="2"/>
       <c r="D329" s="2"/>
       <c r="E329" s="2"/>
@@ -6217,7 +6247,7 @@
       <c r="N329" s="2"/>
       <c r="O329" s="2"/>
     </row>
-    <row r="330" spans="3:15">
+    <row r="330" spans="3:15" ht="12.75">
       <c r="C330" s="2"/>
       <c r="D330" s="2"/>
       <c r="E330" s="2"/>
@@ -6232,7 +6262,7 @@
       <c r="N330" s="2"/>
       <c r="O330" s="2"/>
     </row>
-    <row r="331" spans="3:15">
+    <row r="331" spans="3:15" ht="12.75">
       <c r="C331" s="2"/>
       <c r="D331" s="2"/>
       <c r="E331" s="2"/>
@@ -6247,7 +6277,7 @@
       <c r="N331" s="2"/>
       <c r="O331" s="2"/>
     </row>
-    <row r="332" spans="3:15">
+    <row r="332" spans="3:15" ht="12.75">
       <c r="C332" s="2"/>
       <c r="D332" s="2"/>
       <c r="E332" s="2"/>
@@ -6262,7 +6292,7 @@
       <c r="N332" s="2"/>
       <c r="O332" s="2"/>
     </row>
-    <row r="333" spans="3:15">
+    <row r="333" spans="3:15" ht="12.75">
       <c r="C333" s="2"/>
       <c r="D333" s="2"/>
       <c r="E333" s="2"/>
@@ -6277,7 +6307,7 @@
       <c r="N333" s="2"/>
       <c r="O333" s="2"/>
     </row>
-    <row r="334" spans="3:15">
+    <row r="334" spans="3:15" ht="12.75">
       <c r="C334" s="2"/>
       <c r="D334" s="2"/>
       <c r="E334" s="2"/>
@@ -6292,7 +6322,7 @@
       <c r="N334" s="2"/>
       <c r="O334" s="2"/>
     </row>
-    <row r="335" spans="3:15">
+    <row r="335" spans="3:15" ht="12.75">
       <c r="C335" s="2"/>
       <c r="D335" s="2"/>
       <c r="E335" s="2"/>
@@ -6307,7 +6337,7 @@
       <c r="N335" s="2"/>
       <c r="O335" s="2"/>
     </row>
-    <row r="336" spans="3:15">
+    <row r="336" spans="3:15" ht="12.75">
       <c r="C336" s="2"/>
       <c r="D336" s="2"/>
       <c r="E336" s="2"/>
@@ -6322,7 +6352,7 @@
       <c r="N336" s="2"/>
       <c r="O336" s="2"/>
     </row>
-    <row r="337" spans="3:15">
+    <row r="337" spans="3:15" ht="12.75">
       <c r="C337" s="2"/>
       <c r="D337" s="2"/>
       <c r="E337" s="2"/>
@@ -6337,7 +6367,7 @@
       <c r="N337" s="2"/>
       <c r="O337" s="2"/>
     </row>
-    <row r="338" spans="3:15">
+    <row r="338" spans="3:15" ht="12.75">
       <c r="C338" s="2"/>
       <c r="D338" s="2"/>
       <c r="E338" s="2"/>
@@ -6352,7 +6382,7 @@
       <c r="N338" s="2"/>
       <c r="O338" s="2"/>
     </row>
-    <row r="339" spans="3:15">
+    <row r="339" spans="3:15" ht="12.75">
       <c r="C339" s="2"/>
       <c r="D339" s="2"/>
       <c r="E339" s="2"/>
@@ -6367,7 +6397,7 @@
       <c r="N339" s="2"/>
       <c r="O339" s="2"/>
     </row>
-    <row r="340" spans="3:15">
+    <row r="340" spans="3:15" ht="12.75">
       <c r="C340" s="2"/>
       <c r="D340" s="2"/>
       <c r="E340" s="2"/>
@@ -6382,7 +6412,7 @@
       <c r="N340" s="2"/>
       <c r="O340" s="2"/>
     </row>
-    <row r="341" spans="3:15">
+    <row r="341" spans="3:15" ht="12.75">
       <c r="C341" s="2"/>
       <c r="D341" s="2"/>
       <c r="E341" s="2"/>
@@ -6397,7 +6427,7 @@
       <c r="N341" s="2"/>
       <c r="O341" s="2"/>
     </row>
-    <row r="342" spans="3:15">
+    <row r="342" spans="3:15" ht="12.75">
       <c r="C342" s="2"/>
       <c r="D342" s="2"/>
       <c r="E342" s="2"/>
@@ -6412,7 +6442,7 @@
       <c r="N342" s="2"/>
       <c r="O342" s="2"/>
     </row>
-    <row r="343" spans="3:15">
+    <row r="343" spans="3:15" ht="12.75">
       <c r="C343" s="2"/>
       <c r="D343" s="2"/>
       <c r="E343" s="2"/>
@@ -6427,7 +6457,7 @@
       <c r="N343" s="2"/>
       <c r="O343" s="2"/>
     </row>
-    <row r="344" spans="3:15">
+    <row r="344" spans="3:15" ht="12.75">
       <c r="C344" s="2"/>
       <c r="D344" s="2"/>
       <c r="E344" s="2"/>
@@ -6442,7 +6472,7 @@
       <c r="N344" s="2"/>
       <c r="O344" s="2"/>
     </row>
-    <row r="345" spans="3:15">
+    <row r="345" spans="3:15" ht="12.75">
       <c r="C345" s="2"/>
       <c r="D345" s="2"/>
       <c r="E345" s="2"/>
@@ -6457,7 +6487,7 @@
       <c r="N345" s="2"/>
       <c r="O345" s="2"/>
     </row>
-    <row r="346" spans="3:15">
+    <row r="346" spans="3:15" ht="12.75">
       <c r="C346" s="2"/>
       <c r="D346" s="2"/>
       <c r="E346" s="2"/>
@@ -6472,7 +6502,7 @@
       <c r="N346" s="2"/>
       <c r="O346" s="2"/>
     </row>
-    <row r="347" spans="3:15">
+    <row r="347" spans="3:15" ht="12.75">
       <c r="C347" s="2"/>
       <c r="D347" s="2"/>
       <c r="E347" s="2"/>
@@ -6487,7 +6517,7 @@
       <c r="N347" s="2"/>
       <c r="O347" s="2"/>
     </row>
-    <row r="348" spans="3:15">
+    <row r="348" spans="3:15" ht="12.75">
       <c r="C348" s="2"/>
       <c r="D348" s="2"/>
       <c r="E348" s="2"/>
@@ -6502,7 +6532,7 @@
       <c r="N348" s="2"/>
       <c r="O348" s="2"/>
     </row>
-    <row r="349" spans="3:15">
+    <row r="349" spans="3:15" ht="12.75">
       <c r="C349" s="2"/>
       <c r="D349" s="2"/>
       <c r="E349" s="2"/>
@@ -6517,7 +6547,7 @@
       <c r="N349" s="2"/>
       <c r="O349" s="2"/>
     </row>
-    <row r="350" spans="3:15">
+    <row r="350" spans="3:15" ht="12.75">
       <c r="C350" s="2"/>
       <c r="D350" s="2"/>
       <c r="E350" s="2"/>
@@ -6532,7 +6562,7 @@
       <c r="N350" s="2"/>
       <c r="O350" s="2"/>
     </row>
-    <row r="351" spans="3:15">
+    <row r="351" spans="3:15" ht="12.75">
       <c r="C351" s="2"/>
       <c r="D351" s="2"/>
       <c r="E351" s="2"/>
@@ -6547,7 +6577,7 @@
       <c r="N351" s="2"/>
       <c r="O351" s="2"/>
     </row>
-    <row r="352" spans="3:15">
+    <row r="352" spans="3:15" ht="12.75">
       <c r="C352" s="2"/>
       <c r="D352" s="2"/>
       <c r="E352" s="2"/>
@@ -6562,7 +6592,7 @@
       <c r="N352" s="2"/>
       <c r="O352" s="2"/>
     </row>
-    <row r="353" spans="3:15">
+    <row r="353" spans="3:15" ht="12.75">
       <c r="C353" s="2"/>
       <c r="D353" s="2"/>
       <c r="E353" s="2"/>
@@ -6577,7 +6607,7 @@
       <c r="N353" s="2"/>
       <c r="O353" s="2"/>
     </row>
-    <row r="354" spans="3:15">
+    <row r="354" spans="3:15" ht="12.75">
       <c r="C354" s="2"/>
       <c r="D354" s="2"/>
       <c r="E354" s="2"/>
@@ -6592,7 +6622,7 @@
       <c r="N354" s="2"/>
       <c r="O354" s="2"/>
     </row>
-    <row r="355" spans="3:15">
+    <row r="355" spans="3:15" ht="12.75">
       <c r="C355" s="2"/>
       <c r="D355" s="2"/>
       <c r="E355" s="2"/>
@@ -6607,7 +6637,7 @@
       <c r="N355" s="2"/>
       <c r="O355" s="2"/>
     </row>
-    <row r="356" spans="3:15">
+    <row r="356" spans="3:15" ht="12.75">
       <c r="C356" s="2"/>
       <c r="D356" s="2"/>
       <c r="E356" s="2"/>
@@ -6622,7 +6652,7 @@
       <c r="N356" s="2"/>
       <c r="O356" s="2"/>
     </row>
-    <row r="357" spans="3:15">
+    <row r="357" spans="3:15" ht="12.75">
       <c r="C357" s="2"/>
       <c r="D357" s="2"/>
       <c r="E357" s="2"/>
@@ -6637,7 +6667,7 @@
       <c r="N357" s="2"/>
       <c r="O357" s="2"/>
     </row>
-    <row r="358" spans="3:15">
+    <row r="358" spans="3:15" ht="12.75">
       <c r="C358" s="2"/>
       <c r="D358" s="2"/>
       <c r="E358" s="2"/>
@@ -6652,7 +6682,7 @@
       <c r="N358" s="2"/>
       <c r="O358" s="2"/>
     </row>
-    <row r="359" spans="3:15">
+    <row r="359" spans="3:15" ht="12.75">
       <c r="C359" s="2"/>
       <c r="D359" s="2"/>
       <c r="E359" s="2"/>
@@ -6667,7 +6697,7 @@
       <c r="N359" s="2"/>
       <c r="O359" s="2"/>
     </row>
-    <row r="360" spans="3:15">
+    <row r="360" spans="3:15" ht="12.75">
       <c r="C360" s="2"/>
       <c r="D360" s="2"/>
       <c r="E360" s="2"/>
@@ -6682,7 +6712,7 @@
       <c r="N360" s="2"/>
       <c r="O360" s="2"/>
     </row>
-    <row r="361" spans="3:15">
+    <row r="361" spans="3:15" ht="12.75">
       <c r="C361" s="2"/>
       <c r="D361" s="2"/>
       <c r="E361" s="2"/>
@@ -6697,7 +6727,7 @@
       <c r="N361" s="2"/>
       <c r="O361" s="2"/>
     </row>
-    <row r="362" spans="3:15">
+    <row r="362" spans="3:15" ht="12.75">
       <c r="C362" s="2"/>
       <c r="D362" s="2"/>
       <c r="E362" s="2"/>
@@ -6712,7 +6742,7 @@
       <c r="N362" s="2"/>
       <c r="O362" s="2"/>
     </row>
-    <row r="363" spans="3:15">
+    <row r="363" spans="3:15" ht="12.75">
       <c r="C363" s="2"/>
       <c r="D363" s="2"/>
       <c r="E363" s="2"/>
@@ -6727,7 +6757,7 @@
       <c r="N363" s="2"/>
       <c r="O363" s="2"/>
     </row>
-    <row r="364" spans="3:15">
+    <row r="364" spans="3:15" ht="12.75">
       <c r="C364" s="2"/>
       <c r="D364" s="2"/>
       <c r="E364" s="2"/>
@@ -6742,7 +6772,7 @@
       <c r="N364" s="2"/>
       <c r="O364" s="2"/>
     </row>
-    <row r="365" spans="3:15">
+    <row r="365" spans="3:15" ht="12.75">
       <c r="C365" s="2"/>
       <c r="D365" s="2"/>
       <c r="E365" s="2"/>
@@ -6757,7 +6787,7 @@
       <c r="N365" s="2"/>
       <c r="O365" s="2"/>
     </row>
-    <row r="366" spans="3:15">
+    <row r="366" spans="3:15" ht="12.75">
       <c r="C366" s="2"/>
       <c r="D366" s="2"/>
       <c r="E366" s="2"/>
@@ -6772,7 +6802,7 @@
       <c r="N366" s="2"/>
       <c r="O366" s="2"/>
     </row>
-    <row r="367" spans="3:15">
+    <row r="367" spans="3:15" ht="12.75">
       <c r="C367" s="2"/>
       <c r="D367" s="2"/>
       <c r="E367" s="2"/>
@@ -6787,7 +6817,7 @@
       <c r="N367" s="2"/>
       <c r="O367" s="2"/>
     </row>
-    <row r="368" spans="3:15">
+    <row r="368" spans="3:15" ht="12.75">
       <c r="C368" s="2"/>
       <c r="D368" s="2"/>
       <c r="E368" s="2"/>
@@ -6802,7 +6832,7 @@
       <c r="N368" s="2"/>
       <c r="O368" s="2"/>
     </row>
-    <row r="369" spans="3:15">
+    <row r="369" spans="3:15" ht="12.75">
       <c r="C369" s="2"/>
       <c r="D369" s="2"/>
       <c r="E369" s="2"/>
@@ -6817,7 +6847,7 @@
       <c r="N369" s="2"/>
       <c r="O369" s="2"/>
     </row>
-    <row r="370" spans="3:15">
+    <row r="370" spans="3:15" ht="12.75">
       <c r="C370" s="2"/>
       <c r="D370" s="2"/>
       <c r="E370" s="2"/>
@@ -6832,7 +6862,7 @@
       <c r="N370" s="2"/>
       <c r="O370" s="2"/>
     </row>
-    <row r="371" spans="3:15">
+    <row r="371" spans="3:15" ht="12.75">
       <c r="C371" s="2"/>
       <c r="D371" s="2"/>
       <c r="E371" s="2"/>
@@ -6847,7 +6877,7 @@
       <c r="N371" s="2"/>
       <c r="O371" s="2"/>
     </row>
-    <row r="372" spans="3:15">
+    <row r="372" spans="3:15" ht="12.75">
       <c r="C372" s="2"/>
       <c r="D372" s="2"/>
       <c r="E372" s="2"/>
@@ -6862,7 +6892,7 @@
       <c r="N372" s="2"/>
       <c r="O372" s="2"/>
     </row>
-    <row r="373" spans="3:15">
+    <row r="373" spans="3:15" ht="12.75">
       <c r="C373" s="2"/>
       <c r="D373" s="2"/>
       <c r="E373" s="2"/>
@@ -6877,7 +6907,7 @@
       <c r="N373" s="2"/>
       <c r="O373" s="2"/>
     </row>
-    <row r="374" spans="3:15">
+    <row r="374" spans="3:15" ht="12.75">
       <c r="C374" s="2"/>
       <c r="D374" s="2"/>
       <c r="E374" s="2"/>
@@ -6892,7 +6922,7 @@
       <c r="N374" s="2"/>
       <c r="O374" s="2"/>
     </row>
-    <row r="375" spans="3:15">
+    <row r="375" spans="3:15" ht="12.75">
       <c r="C375" s="2"/>
       <c r="D375" s="2"/>
       <c r="E375" s="2"/>
@@ -6907,7 +6937,7 @@
       <c r="N375" s="2"/>
       <c r="O375" s="2"/>
     </row>
-    <row r="376" spans="3:15">
+    <row r="376" spans="3:15" ht="12.75">
       <c r="C376" s="2"/>
       <c r="D376" s="2"/>
       <c r="E376" s="2"/>
@@ -6922,7 +6952,7 @@
       <c r="N376" s="2"/>
       <c r="O376" s="2"/>
     </row>
-    <row r="377" spans="3:15">
+    <row r="377" spans="3:15" ht="12.75">
       <c r="C377" s="2"/>
       <c r="D377" s="2"/>
       <c r="E377" s="2"/>
@@ -6937,7 +6967,7 @@
       <c r="N377" s="2"/>
       <c r="O377" s="2"/>
     </row>
-    <row r="378" spans="3:15">
+    <row r="378" spans="3:15" ht="12.75">
       <c r="C378" s="2"/>
       <c r="D378" s="2"/>
       <c r="E378" s="2"/>
@@ -6952,7 +6982,7 @@
       <c r="N378" s="2"/>
       <c r="O378" s="2"/>
     </row>
-    <row r="379" spans="3:15">
+    <row r="379" spans="3:15" ht="12.75">
       <c r="C379" s="2"/>
       <c r="D379" s="2"/>
       <c r="E379" s="2"/>
@@ -6967,7 +6997,7 @@
       <c r="N379" s="2"/>
       <c r="O379" s="2"/>
     </row>
-    <row r="380" spans="3:15">
+    <row r="380" spans="3:15" ht="12.75">
       <c r="C380" s="2"/>
       <c r="D380" s="2"/>
       <c r="E380" s="2"/>
@@ -6982,7 +7012,7 @@
       <c r="N380" s="2"/>
       <c r="O380" s="2"/>
     </row>
-    <row r="381" spans="3:15">
+    <row r="381" spans="3:15" ht="12.75">
       <c r="C381" s="2"/>
       <c r="D381" s="2"/>
       <c r="E381" s="2"/>
@@ -6997,7 +7027,7 @@
       <c r="N381" s="2"/>
       <c r="O381" s="2"/>
     </row>
-    <row r="382" spans="3:15">
+    <row r="382" spans="3:15" ht="12.75">
       <c r="C382" s="2"/>
       <c r="D382" s="2"/>
       <c r="E382" s="2"/>
@@ -7012,7 +7042,7 @@
       <c r="N382" s="2"/>
       <c r="O382" s="2"/>
     </row>
-    <row r="383" spans="3:15">
+    <row r="383" spans="3:15" ht="12.75">
       <c r="C383" s="2"/>
       <c r="D383" s="2"/>
       <c r="E383" s="2"/>
@@ -7027,7 +7057,7 @@
       <c r="N383" s="2"/>
       <c r="O383" s="2"/>
     </row>
-    <row r="384" spans="3:15">
+    <row r="384" spans="3:15" ht="12.75">
       <c r="C384" s="2"/>
       <c r="D384" s="2"/>
       <c r="E384" s="2"/>
@@ -7042,7 +7072,7 @@
       <c r="N384" s="2"/>
       <c r="O384" s="2"/>
     </row>
-    <row r="385" spans="3:15">
+    <row r="385" spans="3:15" ht="12.75">
       <c r="C385" s="2"/>
       <c r="D385" s="2"/>
       <c r="E385" s="2"/>
@@ -7057,7 +7087,7 @@
       <c r="N385" s="2"/>
       <c r="O385" s="2"/>
     </row>
-    <row r="386" spans="3:15">
+    <row r="386" spans="3:15" ht="12.75">
       <c r="C386" s="2"/>
       <c r="D386" s="2"/>
       <c r="E386" s="2"/>
@@ -7072,7 +7102,7 @@
       <c r="N386" s="2"/>
       <c r="O386" s="2"/>
     </row>
-    <row r="387" spans="3:15">
+    <row r="387" spans="3:15" ht="12.75">
       <c r="C387" s="2"/>
       <c r="D387" s="2"/>
       <c r="E387" s="2"/>
@@ -7087,7 +7117,7 @@
       <c r="N387" s="2"/>
       <c r="O387" s="2"/>
     </row>
-    <row r="388" spans="3:15">
+    <row r="388" spans="3:15" ht="12.75">
       <c r="C388" s="2"/>
       <c r="D388" s="2"/>
       <c r="E388" s="2"/>
@@ -7102,7 +7132,7 @@
       <c r="N388" s="2"/>
       <c r="O388" s="2"/>
     </row>
-    <row r="389" spans="3:15">
+    <row r="389" spans="3:15" ht="12.75">
       <c r="C389" s="2"/>
       <c r="D389" s="2"/>
       <c r="E389" s="2"/>
@@ -7117,7 +7147,7 @@
       <c r="N389" s="2"/>
       <c r="O389" s="2"/>
     </row>
-    <row r="390" spans="3:15">
+    <row r="390" spans="3:15" ht="12.75">
       <c r="C390" s="2"/>
       <c r="D390" s="2"/>
       <c r="E390" s="2"/>
@@ -7132,7 +7162,7 @@
       <c r="N390" s="2"/>
       <c r="O390" s="2"/>
     </row>
-    <row r="391" spans="3:15">
+    <row r="391" spans="3:15" ht="12.75">
       <c r="C391" s="2"/>
       <c r="D391" s="2"/>
       <c r="E391" s="2"/>
@@ -7147,7 +7177,7 @@
       <c r="N391" s="2"/>
       <c r="O391" s="2"/>
     </row>
-    <row r="392" spans="3:15">
+    <row r="392" spans="3:15" ht="12.75">
       <c r="C392" s="2"/>
       <c r="D392" s="2"/>
       <c r="E392" s="2"/>
@@ -7162,7 +7192,7 @@
       <c r="N392" s="2"/>
       <c r="O392" s="2"/>
     </row>
-    <row r="393" spans="3:15">
+    <row r="393" spans="3:15" ht="12.75">
       <c r="C393" s="2"/>
       <c r="D393" s="2"/>
       <c r="E393" s="2"/>
@@ -7177,7 +7207,7 @@
       <c r="N393" s="2"/>
       <c r="O393" s="2"/>
     </row>
-    <row r="394" spans="3:15">
+    <row r="394" spans="3:15" ht="12.75">
       <c r="C394" s="2"/>
       <c r="D394" s="2"/>
       <c r="E394" s="2"/>
@@ -7192,7 +7222,7 @@
       <c r="N394" s="2"/>
       <c r="O394" s="2"/>
     </row>
-    <row r="395" spans="3:15">
+    <row r="395" spans="3:15" ht="12.75">
       <c r="C395" s="2"/>
       <c r="D395" s="2"/>
       <c r="E395" s="2"/>
@@ -7207,7 +7237,7 @@
       <c r="N395" s="2"/>
       <c r="O395" s="2"/>
     </row>
-    <row r="396" spans="3:15">
+    <row r="396" spans="3:15" ht="12.75">
       <c r="C396" s="2"/>
       <c r="D396" s="2"/>
       <c r="E396" s="2"/>
@@ -7222,7 +7252,7 @@
       <c r="N396" s="2"/>
       <c r="O396" s="2"/>
     </row>
-    <row r="397" spans="3:15">
+    <row r="397" spans="3:15" ht="12.75">
       <c r="C397" s="2"/>
       <c r="D397" s="2"/>
       <c r="E397" s="2"/>
@@ -7237,7 +7267,7 @@
       <c r="N397" s="2"/>
       <c r="O397" s="2"/>
     </row>
-    <row r="398" spans="3:15">
+    <row r="398" spans="3:15" ht="12.75">
       <c r="C398" s="2"/>
       <c r="D398" s="2"/>
       <c r="E398" s="2"/>
@@ -7252,7 +7282,7 @@
       <c r="N398" s="2"/>
       <c r="O398" s="2"/>
     </row>
-    <row r="399" spans="3:15">
+    <row r="399" spans="3:15" ht="12.75">
       <c r="C399" s="2"/>
       <c r="D399" s="2"/>
       <c r="E399" s="2"/>
@@ -7267,7 +7297,7 @@
       <c r="N399" s="2"/>
       <c r="O399" s="2"/>
     </row>
-    <row r="400" spans="3:15">
+    <row r="400" spans="3:15" ht="12.75">
       <c r="C400" s="2"/>
       <c r="D400" s="2"/>
       <c r="E400" s="2"/>
@@ -7282,7 +7312,7 @@
       <c r="N400" s="2"/>
       <c r="O400" s="2"/>
     </row>
-    <row r="401" spans="3:15">
+    <row r="401" spans="3:15" ht="12.75">
       <c r="C401" s="2"/>
       <c r="D401" s="2"/>
       <c r="E401" s="2"/>
@@ -7297,7 +7327,7 @@
       <c r="N401" s="2"/>
       <c r="O401" s="2"/>
     </row>
-    <row r="402" spans="3:15">
+    <row r="402" spans="3:15" ht="12.75">
       <c r="C402" s="2"/>
       <c r="D402" s="2"/>
       <c r="E402" s="2"/>
@@ -7312,7 +7342,7 @@
       <c r="N402" s="2"/>
       <c r="O402" s="2"/>
     </row>
-    <row r="403" spans="3:15">
+    <row r="403" spans="3:15" ht="12.75">
       <c r="C403" s="2"/>
       <c r="D403" s="2"/>
       <c r="E403" s="2"/>
@@ -7327,7 +7357,7 @@
       <c r="N403" s="2"/>
       <c r="O403" s="2"/>
     </row>
-    <row r="404" spans="3:15">
+    <row r="404" spans="3:15" ht="12.75">
       <c r="C404" s="2"/>
       <c r="D404" s="2"/>
       <c r="E404" s="2"/>
@@ -7342,7 +7372,7 @@
       <c r="N404" s="2"/>
       <c r="O404" s="2"/>
     </row>
-    <row r="405" spans="3:15">
+    <row r="405" spans="3:15" ht="12.75">
       <c r="C405" s="2"/>
       <c r="D405" s="2"/>
       <c r="E405" s="2"/>
@@ -7357,7 +7387,7 @@
       <c r="N405" s="2"/>
       <c r="O405" s="2"/>
     </row>
-    <row r="406" spans="3:15">
+    <row r="406" spans="3:15" ht="12.75">
       <c r="C406" s="2"/>
       <c r="D406" s="2"/>
       <c r="E406" s="2"/>
@@ -7372,7 +7402,7 @@
       <c r="N406" s="2"/>
       <c r="O406" s="2"/>
     </row>
-    <row r="407" spans="3:15">
+    <row r="407" spans="3:15" ht="12.75">
       <c r="C407" s="2"/>
       <c r="D407" s="2"/>
       <c r="E407" s="2"/>
@@ -7387,7 +7417,7 @@
       <c r="N407" s="2"/>
       <c r="O407" s="2"/>
     </row>
-    <row r="408" spans="3:15">
+    <row r="408" spans="3:15" ht="12.75">
       <c r="C408" s="2"/>
       <c r="D408" s="2"/>
       <c r="E408" s="2"/>
@@ -7402,7 +7432,7 @@
       <c r="N408" s="2"/>
       <c r="O408" s="2"/>
     </row>
-    <row r="409" spans="3:15">
+    <row r="409" spans="3:15" ht="12.75">
       <c r="C409" s="2"/>
       <c r="D409" s="2"/>
       <c r="E409" s="2"/>
@@ -7417,7 +7447,7 @@
       <c r="N409" s="2"/>
       <c r="O409" s="2"/>
     </row>
-    <row r="410" spans="3:15">
+    <row r="410" spans="3:15" ht="12.75">
       <c r="C410" s="2"/>
       <c r="D410" s="2"/>
       <c r="E410" s="2"/>
@@ -7432,7 +7462,7 @@
       <c r="N410" s="2"/>
       <c r="O410" s="2"/>
     </row>
-    <row r="411" spans="3:15">
+    <row r="411" spans="3:15" ht="12.75">
       <c r="C411" s="2"/>
       <c r="D411" s="2"/>
       <c r="E411" s="2"/>
@@ -7447,7 +7477,7 @@
       <c r="N411" s="2"/>
       <c r="O411" s="2"/>
     </row>
-    <row r="412" spans="3:15">
+    <row r="412" spans="3:15" ht="12.75">
       <c r="C412" s="2"/>
       <c r="D412" s="2"/>
       <c r="E412" s="2"/>
@@ -7462,7 +7492,7 @@
       <c r="N412" s="2"/>
       <c r="O412" s="2"/>
     </row>
-    <row r="413" spans="3:15">
+    <row r="413" spans="3:15" ht="12.75">
       <c r="C413" s="2"/>
       <c r="D413" s="2"/>
       <c r="E413" s="2"/>
@@ -7477,7 +7507,7 @@
       <c r="N413" s="2"/>
       <c r="O413" s="2"/>
     </row>
-    <row r="414" spans="3:15">
+    <row r="414" spans="3:15" ht="12.75">
       <c r="C414" s="2"/>
       <c r="D414" s="2"/>
       <c r="E414" s="2"/>
@@ -7492,7 +7522,7 @@
       <c r="N414" s="2"/>
       <c r="O414" s="2"/>
     </row>
-    <row r="415" spans="3:15">
+    <row r="415" spans="3:15" ht="12.75">
       <c r="C415" s="2"/>
       <c r="D415" s="2"/>
       <c r="E415" s="2"/>
@@ -7507,7 +7537,7 @@
       <c r="N415" s="2"/>
       <c r="O415" s="2"/>
     </row>
-    <row r="416" spans="3:15">
+    <row r="416" spans="3:15" ht="12.75">
       <c r="C416" s="2"/>
       <c r="D416" s="2"/>
       <c r="E416" s="2"/>
@@ -7522,7 +7552,7 @@
       <c r="N416" s="2"/>
       <c r="O416" s="2"/>
     </row>
-    <row r="417" spans="3:15">
+    <row r="417" spans="3:15" ht="12.75">
       <c r="C417" s="2"/>
       <c r="D417" s="2"/>
       <c r="E417" s="2"/>
@@ -7537,7 +7567,7 @@
       <c r="N417" s="2"/>
       <c r="O417" s="2"/>
     </row>
-    <row r="418" spans="3:15">
+    <row r="418" spans="3:15" ht="12.75">
       <c r="C418" s="2"/>
       <c r="D418" s="2"/>
       <c r="E418" s="2"/>
@@ -7552,7 +7582,7 @@
       <c r="N418" s="2"/>
       <c r="O418" s="2"/>
     </row>
-    <row r="419" spans="3:15">
+    <row r="419" spans="3:15" ht="12.75">
       <c r="C419" s="2"/>
       <c r="D419" s="2"/>
       <c r="E419" s="2"/>
@@ -7567,7 +7597,7 @@
       <c r="N419" s="2"/>
       <c r="O419" s="2"/>
     </row>
-    <row r="420" spans="3:15">
+    <row r="420" spans="3:15" ht="12.75">
       <c r="C420" s="2"/>
       <c r="D420" s="2"/>
       <c r="E420" s="2"/>
@@ -7582,7 +7612,7 @@
       <c r="N420" s="2"/>
       <c r="O420" s="2"/>
     </row>
-    <row r="421" spans="3:15">
+    <row r="421" spans="3:15" ht="12.75">
       <c r="C421" s="2"/>
       <c r="D421" s="2"/>
       <c r="E421" s="2"/>
@@ -7597,7 +7627,7 @@
       <c r="N421" s="2"/>
       <c r="O421" s="2"/>
     </row>
-    <row r="422" spans="3:15">
+    <row r="422" spans="3:15" ht="12.75">
       <c r="C422" s="2"/>
       <c r="D422" s="2"/>
       <c r="E422" s="2"/>
@@ -7612,7 +7642,7 @@
       <c r="N422" s="2"/>
       <c r="O422" s="2"/>
     </row>
-    <row r="423" spans="3:15">
+    <row r="423" spans="3:15" ht="12.75">
       <c r="C423" s="2"/>
       <c r="D423" s="2"/>
       <c r="E423" s="2"/>
@@ -7627,7 +7657,7 @@
       <c r="N423" s="2"/>
       <c r="O423" s="2"/>
     </row>
-    <row r="424" spans="3:15">
+    <row r="424" spans="3:15" ht="12.75">
       <c r="C424" s="2"/>
       <c r="D424" s="2"/>
       <c r="E424" s="2"/>
@@ -7642,7 +7672,7 @@
       <c r="N424" s="2"/>
       <c r="O424" s="2"/>
     </row>
-    <row r="425" spans="3:15">
+    <row r="425" spans="3:15" ht="12.75">
       <c r="C425" s="2"/>
       <c r="D425" s="2"/>
       <c r="E425" s="2"/>
@@ -7657,7 +7687,7 @@
       <c r="N425" s="2"/>
       <c r="O425" s="2"/>
     </row>
-    <row r="426" spans="3:15">
+    <row r="426" spans="3:15" ht="12.75">
       <c r="C426" s="2"/>
       <c r="D426" s="2"/>
       <c r="E426" s="2"/>
@@ -7672,7 +7702,7 @@
       <c r="N426" s="2"/>
       <c r="O426" s="2"/>
     </row>
-    <row r="427" spans="3:15">
+    <row r="427" spans="3:15" ht="12.75">
       <c r="C427" s="2"/>
       <c r="D427" s="2"/>
       <c r="E427" s="2"/>
@@ -7687,7 +7717,7 @@
       <c r="N427" s="2"/>
       <c r="O427" s="2"/>
     </row>
-    <row r="428" spans="3:15">
+    <row r="428" spans="3:15" ht="12.75">
       <c r="C428" s="2"/>
       <c r="D428" s="2"/>
       <c r="E428" s="2"/>
@@ -7702,7 +7732,7 @@
       <c r="N428" s="2"/>
       <c r="O428" s="2"/>
     </row>
-    <row r="429" spans="3:15">
+    <row r="429" spans="3:15" ht="12.75">
       <c r="C429" s="2"/>
       <c r="D429" s="2"/>
       <c r="E429" s="2"/>
@@ -7717,7 +7747,7 @@
       <c r="N429" s="2"/>
       <c r="O429" s="2"/>
     </row>
-    <row r="430" spans="3:15">
+    <row r="430" spans="3:15" ht="12.75">
       <c r="C430" s="2"/>
       <c r="D430" s="2"/>
       <c r="E430" s="2"/>
@@ -7732,7 +7762,7 @@
       <c r="N430" s="2"/>
       <c r="O430" s="2"/>
     </row>
-    <row r="431" spans="3:15">
+    <row r="431" spans="3:15" ht="12.75">
       <c r="C431" s="2"/>
       <c r="D431" s="2"/>
       <c r="E431" s="2"/>
@@ -7747,7 +7777,7 @@
       <c r="N431" s="2"/>
       <c r="O431" s="2"/>
     </row>
-    <row r="432" spans="3:15">
+    <row r="432" spans="3:15" ht="12.75">
       <c r="C432" s="2"/>
       <c r="D432" s="2"/>
       <c r="E432" s="2"/>
@@ -7762,7 +7792,7 @@
       <c r="N432" s="2"/>
       <c r="O432" s="2"/>
     </row>
-    <row r="433" spans="3:15">
+    <row r="433" spans="3:15" ht="12.75">
       <c r="C433" s="2"/>
       <c r="D433" s="2"/>
       <c r="E433" s="2"/>
@@ -7777,7 +7807,7 @@
       <c r="N433" s="2"/>
       <c r="O433" s="2"/>
     </row>
-    <row r="434" spans="3:15">
+    <row r="434" spans="3:15" ht="12.75">
       <c r="C434" s="2"/>
       <c r="D434" s="2"/>
       <c r="E434" s="2"/>
@@ -7792,7 +7822,7 @@
       <c r="N434" s="2"/>
       <c r="O434" s="2"/>
     </row>
-    <row r="435" spans="3:15">
+    <row r="435" spans="3:15" ht="12.75">
       <c r="C435" s="2"/>
       <c r="D435" s="2"/>
       <c r="E435" s="2"/>
@@ -7807,7 +7837,7 @@
       <c r="N435" s="2"/>
       <c r="O435" s="2"/>
     </row>
-    <row r="436" spans="3:15">
+    <row r="436" spans="3:15" ht="12.75">
       <c r="C436" s="2"/>
       <c r="D436" s="2"/>
       <c r="E436" s="2"/>
@@ -7822,7 +7852,7 @@
       <c r="N436" s="2"/>
       <c r="O436" s="2"/>
     </row>
-    <row r="437" spans="3:15">
+    <row r="437" spans="3:15" ht="12.75">
       <c r="C437" s="2"/>
       <c r="D437" s="2"/>
       <c r="E437" s="2"/>
@@ -7837,7 +7867,7 @@
       <c r="N437" s="2"/>
       <c r="O437" s="2"/>
     </row>
-    <row r="438" spans="3:15">
+    <row r="438" spans="3:15" ht="12.75">
       <c r="C438" s="2"/>
       <c r="D438" s="2"/>
       <c r="E438" s="2"/>
@@ -7852,7 +7882,7 @@
       <c r="N438" s="2"/>
       <c r="O438" s="2"/>
     </row>
-    <row r="439" spans="3:15">
+    <row r="439" spans="3:15" ht="12.75">
       <c r="C439" s="2"/>
       <c r="D439" s="2"/>
       <c r="E439" s="2"/>
@@ -7867,7 +7897,7 @@
       <c r="N439" s="2"/>
       <c r="O439" s="2"/>
     </row>
-    <row r="440" spans="3:15">
+    <row r="440" spans="3:15" ht="12.75">
       <c r="C440" s="2"/>
       <c r="D440" s="2"/>
       <c r="E440" s="2"/>
@@ -7882,7 +7912,7 @@
       <c r="N440" s="2"/>
       <c r="O440" s="2"/>
     </row>
-    <row r="441" spans="3:15">
+    <row r="441" spans="3:15" ht="12.75">
       <c r="C441" s="2"/>
       <c r="D441" s="2"/>
       <c r="E441" s="2"/>
@@ -7897,7 +7927,7 @@
       <c r="N441" s="2"/>
       <c r="O441" s="2"/>
     </row>
-    <row r="442" spans="3:15">
+    <row r="442" spans="3:15" ht="12.75">
       <c r="C442" s="2"/>
       <c r="D442" s="2"/>
       <c r="E442" s="2"/>
@@ -7912,7 +7942,7 @@
       <c r="N442" s="2"/>
       <c r="O442" s="2"/>
     </row>
-    <row r="443" spans="3:15">
+    <row r="443" spans="3:15" ht="12.75">
       <c r="C443" s="2"/>
       <c r="D443" s="2"/>
       <c r="E443" s="2"/>
@@ -7927,7 +7957,7 @@
       <c r="N443" s="2"/>
       <c r="O443" s="2"/>
     </row>
-    <row r="444" spans="3:15">
+    <row r="444" spans="3:15" ht="12.75">
       <c r="C444" s="2"/>
       <c r="D444" s="2"/>
       <c r="E444" s="2"/>
@@ -7942,7 +7972,7 @@
       <c r="N444" s="2"/>
       <c r="O444" s="2"/>
     </row>
-    <row r="445" spans="3:15">
+    <row r="445" spans="3:15" ht="12.75">
       <c r="C445" s="2"/>
       <c r="D445" s="2"/>
       <c r="E445" s="2"/>
@@ -7957,7 +7987,7 @@
       <c r="N445" s="2"/>
       <c r="O445" s="2"/>
     </row>
-    <row r="446" spans="3:15">
+    <row r="446" spans="3:15" ht="12.75">
       <c r="C446" s="2"/>
       <c r="D446" s="2"/>
       <c r="E446" s="2"/>
@@ -7972,7 +8002,7 @@
       <c r="N446" s="2"/>
       <c r="O446" s="2"/>
     </row>
-    <row r="447" spans="3:15">
+    <row r="447" spans="3:15" ht="12.75">
       <c r="C447" s="2"/>
       <c r="D447" s="2"/>
       <c r="E447" s="2"/>
@@ -7987,7 +8017,7 @@
       <c r="N447" s="2"/>
       <c r="O447" s="2"/>
     </row>
-    <row r="448" spans="3:15">
+    <row r="448" spans="3:15" ht="12.75">
       <c r="C448" s="2"/>
       <c r="D448" s="2"/>
       <c r="E448" s="2"/>
@@ -8002,7 +8032,7 @@
       <c r="N448" s="2"/>
       <c r="O448" s="2"/>
     </row>
-    <row r="449" spans="3:15">
+    <row r="449" spans="3:15" ht="12.75">
       <c r="C449" s="2"/>
       <c r="D449" s="2"/>
       <c r="E449" s="2"/>
@@ -8017,7 +8047,7 @@
       <c r="N449" s="2"/>
       <c r="O449" s="2"/>
     </row>
-    <row r="450" spans="3:15">
+    <row r="450" spans="3:15" ht="12.75">
       <c r="C450" s="2"/>
       <c r="D450" s="2"/>
       <c r="E450" s="2"/>
@@ -8032,7 +8062,7 @@
       <c r="N450" s="2"/>
       <c r="O450" s="2"/>
     </row>
-    <row r="451" spans="3:15">
+    <row r="451" spans="3:15" ht="12.75">
       <c r="C451" s="2"/>
       <c r="D451" s="2"/>
       <c r="E451" s="2"/>
@@ -8047,7 +8077,7 @@
       <c r="N451" s="2"/>
       <c r="O451" s="2"/>
     </row>
-    <row r="452" spans="3:15">
+    <row r="452" spans="3:15" ht="12.75">
       <c r="C452" s="2"/>
       <c r="D452" s="2"/>
       <c r="E452" s="2"/>
@@ -8062,7 +8092,7 @@
       <c r="N452" s="2"/>
       <c r="O452" s="2"/>
     </row>
-    <row r="453" spans="3:15">
+    <row r="453" spans="3:15" ht="12.75">
       <c r="C453" s="2"/>
       <c r="D453" s="2"/>
       <c r="E453" s="2"/>
@@ -8077,7 +8107,7 @@
       <c r="N453" s="2"/>
       <c r="O453" s="2"/>
     </row>
-    <row r="454" spans="3:15">
+    <row r="454" spans="3:15" ht="12.75">
       <c r="C454" s="2"/>
       <c r="D454" s="2"/>
       <c r="E454" s="2"/>
@@ -8092,7 +8122,7 @@
       <c r="N454" s="2"/>
       <c r="O454" s="2"/>
     </row>
-    <row r="455" spans="3:15">
+    <row r="455" spans="3:15" ht="12.75">
       <c r="C455" s="2"/>
       <c r="D455" s="2"/>
       <c r="E455" s="2"/>
@@ -8107,7 +8137,7 @@
       <c r="N455" s="2"/>
       <c r="O455" s="2"/>
     </row>
-    <row r="456" spans="3:15">
+    <row r="456" spans="3:15" ht="12.75">
       <c r="C456" s="2"/>
       <c r="D456" s="2"/>
       <c r="E456" s="2"/>
@@ -8122,7 +8152,7 @@
       <c r="N456" s="2"/>
       <c r="O456" s="2"/>
     </row>
-    <row r="457" spans="3:15">
+    <row r="457" spans="3:15" ht="12.75">
       <c r="C457" s="2"/>
       <c r="D457" s="2"/>
       <c r="E457" s="2"/>
@@ -8137,7 +8167,7 @@
       <c r="N457" s="2"/>
       <c r="O457" s="2"/>
     </row>
-    <row r="458" spans="3:15">
+    <row r="458" spans="3:15" ht="12.75">
       <c r="C458" s="2"/>
       <c r="D458" s="2"/>
       <c r="E458" s="2"/>
@@ -8152,7 +8182,7 @@
       <c r="N458" s="2"/>
       <c r="O458" s="2"/>
     </row>
-    <row r="459" spans="3:15">
+    <row r="459" spans="3:15" ht="12.75">
       <c r="C459" s="2"/>
       <c r="D459" s="2"/>
       <c r="E459" s="2"/>
@@ -8167,7 +8197,7 @@
       <c r="N459" s="2"/>
       <c r="O459" s="2"/>
     </row>
-    <row r="460" spans="3:15">
+    <row r="460" spans="3:15" ht="12.75">
       <c r="C460" s="2"/>
       <c r="D460" s="2"/>
       <c r="E460" s="2"/>
@@ -8182,7 +8212,7 @@
       <c r="N460" s="2"/>
       <c r="O460" s="2"/>
     </row>
-    <row r="461" spans="3:15">
+    <row r="461" spans="3:15" ht="12.75">
       <c r="C461" s="2"/>
       <c r="D461" s="2"/>
       <c r="E461" s="2"/>
@@ -8197,7 +8227,7 @@
       <c r="N461" s="2"/>
       <c r="O461" s="2"/>
     </row>
-    <row r="462" spans="3:15">
+    <row r="462" spans="3:15" ht="12.75">
       <c r="C462" s="2"/>
       <c r="D462" s="2"/>
       <c r="E462" s="2"/>
@@ -8212,7 +8242,7 @@
       <c r="N462" s="2"/>
       <c r="O462" s="2"/>
     </row>
-    <row r="463" spans="3:15">
+    <row r="463" spans="3:15" ht="12.75">
       <c r="C463" s="2"/>
       <c r="D463" s="2"/>
       <c r="E463" s="2"/>
@@ -8227,7 +8257,7 @@
       <c r="N463" s="2"/>
       <c r="O463" s="2"/>
     </row>
-    <row r="464" spans="3:15">
+    <row r="464" spans="3:15" ht="12.75">
       <c r="C464" s="2"/>
       <c r="D464" s="2"/>
       <c r="E464" s="2"/>
@@ -8242,7 +8272,7 @@
       <c r="N464" s="2"/>
       <c r="O464" s="2"/>
     </row>
-    <row r="465" spans="3:15">
+    <row r="465" spans="3:15" ht="12.75">
       <c r="C465" s="2"/>
       <c r="D465" s="2"/>
       <c r="E465" s="2"/>
@@ -8257,7 +8287,7 @@
       <c r="N465" s="2"/>
       <c r="O465" s="2"/>
     </row>
-    <row r="466" spans="3:15">
+    <row r="466" spans="3:15" ht="12.75">
       <c r="C466" s="2"/>
       <c r="D466" s="2"/>
       <c r="E466" s="2"/>
@@ -8272,7 +8302,7 @@
       <c r="N466" s="2"/>
       <c r="O466" s="2"/>
     </row>
-    <row r="467" spans="3:15">
+    <row r="467" spans="3:15" ht="12.75">
       <c r="C467" s="2"/>
       <c r="D467" s="2"/>
       <c r="E467" s="2"/>
@@ -8287,7 +8317,7 @@
       <c r="N467" s="2"/>
       <c r="O467" s="2"/>
     </row>
-    <row r="468" spans="3:15">
+    <row r="468" spans="3:15" ht="12.75">
       <c r="C468" s="2"/>
       <c r="D468" s="2"/>
       <c r="E468" s="2"/>
@@ -8302,7 +8332,7 @@
       <c r="N468" s="2"/>
       <c r="O468" s="2"/>
     </row>
-    <row r="469" spans="3:15">
+    <row r="469" spans="3:15" ht="12.75">
       <c r="C469" s="2"/>
       <c r="D469" s="2"/>
       <c r="E469" s="2"/>
@@ -8317,7 +8347,7 @@
       <c r="N469" s="2"/>
       <c r="O469" s="2"/>
     </row>
-    <row r="470" spans="3:15">
+    <row r="470" spans="3:15" ht="12.75">
       <c r="C470" s="2"/>
       <c r="D470" s="2"/>
       <c r="E470" s="2"/>
@@ -8332,7 +8362,7 @@
       <c r="N470" s="2"/>
       <c r="O470" s="2"/>
     </row>
-    <row r="471" spans="3:15">
+    <row r="471" spans="3:15" ht="12.75">
       <c r="C471" s="2"/>
       <c r="D471" s="2"/>
       <c r="E471" s="2"/>
@@ -8347,7 +8377,7 @@
       <c r="N471" s="2"/>
       <c r="O471" s="2"/>
     </row>
-    <row r="472" spans="3:15">
+    <row r="472" spans="3:15" ht="12.75">
       <c r="C472" s="2"/>
       <c r="D472" s="2"/>
       <c r="E472" s="2"/>
@@ -8362,7 +8392,7 @@
       <c r="N472" s="2"/>
       <c r="O472" s="2"/>
     </row>
-    <row r="473" spans="3:15">
+    <row r="473" spans="3:15" ht="12.75">
       <c r="C473" s="2"/>
       <c r="D473" s="2"/>
       <c r="E473" s="2"/>
@@ -8377,7 +8407,7 @@
       <c r="N473" s="2"/>
       <c r="O473" s="2"/>
     </row>
-    <row r="474" spans="3:15">
+    <row r="474" spans="3:15" ht="12.75">
       <c r="C474" s="2"/>
       <c r="D474" s="2"/>
       <c r="E474" s="2"/>
@@ -8392,7 +8422,7 @@
       <c r="N474" s="2"/>
       <c r="O474" s="2"/>
     </row>
-    <row r="475" spans="3:15">
+    <row r="475" spans="3:15" ht="12.75">
       <c r="C475" s="2"/>
       <c r="D475" s="2"/>
       <c r="E475" s="2"/>
@@ -8407,7 +8437,7 @@
       <c r="N475" s="2"/>
       <c r="O475" s="2"/>
     </row>
-    <row r="476" spans="3:15">
+    <row r="476" spans="3:15" ht="12.75">
       <c r="C476" s="2"/>
       <c r="D476" s="2"/>
       <c r="E476" s="2"/>
@@ -8422,7 +8452,7 @@
       <c r="N476" s="2"/>
       <c r="O476" s="2"/>
     </row>
-    <row r="477" spans="3:15">
+    <row r="477" spans="3:15" ht="12.75">
       <c r="C477" s="2"/>
       <c r="D477" s="2"/>
       <c r="E477" s="2"/>
@@ -8437,7 +8467,7 @@
       <c r="N477" s="2"/>
       <c r="O477" s="2"/>
     </row>
-    <row r="478" spans="3:15">
+    <row r="478" spans="3:15" ht="12.75">
       <c r="C478" s="2"/>
       <c r="D478" s="2"/>
       <c r="E478" s="2"/>
@@ -8452,7 +8482,7 @@
       <c r="N478" s="2"/>
       <c r="O478" s="2"/>
     </row>
-    <row r="479" spans="3:15">
+    <row r="479" spans="3:15" ht="12.75">
       <c r="C479" s="2"/>
       <c r="D479" s="2"/>
       <c r="E479" s="2"/>
@@ -8467,7 +8497,7 @@
       <c r="N479" s="2"/>
       <c r="O479" s="2"/>
     </row>
-    <row r="480" spans="3:15">
+    <row r="480" spans="3:15" ht="12.75">
       <c r="C480" s="2"/>
       <c r="D480" s="2"/>
       <c r="E480" s="2"/>
@@ -8482,7 +8512,7 @@
       <c r="N480" s="2"/>
       <c r="O480" s="2"/>
     </row>
-    <row r="481" spans="3:15">
+    <row r="481" spans="3:15" ht="12.75">
       <c r="C481" s="2"/>
       <c r="D481" s="2"/>
       <c r="E481" s="2"/>
@@ -8497,7 +8527,7 @@
       <c r="N481" s="2"/>
       <c r="O481" s="2"/>
     </row>
-    <row r="482" spans="3:15">
+    <row r="482" spans="3:15" ht="12.75">
       <c r="C482" s="2"/>
       <c r="D482" s="2"/>
       <c r="E482" s="2"/>
@@ -8512,7 +8542,7 @@
       <c r="N482" s="2"/>
       <c r="O482" s="2"/>
     </row>
-    <row r="483" spans="3:15">
+    <row r="483" spans="3:15" ht="12.75">
       <c r="C483" s="2"/>
       <c r="D483" s="2"/>
       <c r="E483" s="2"/>
@@ -8527,7 +8557,7 @@
       <c r="N483" s="2"/>
       <c r="O483" s="2"/>
     </row>
-    <row r="484" spans="3:15">
+    <row r="484" spans="3:15" ht="12.75">
       <c r="C484" s="2"/>
       <c r="D484" s="2"/>
       <c r="E484" s="2"/>
@@ -8542,7 +8572,7 @@
       <c r="N484" s="2"/>
       <c r="O484" s="2"/>
     </row>
-    <row r="485" spans="3:15">
+    <row r="485" spans="3:15" ht="12.75">
       <c r="C485" s="2"/>
       <c r="D485" s="2"/>
       <c r="E485" s="2"/>
@@ -8557,7 +8587,7 @@
       <c r="N485" s="2"/>
       <c r="O485" s="2"/>
     </row>
-    <row r="486" spans="3:15">
+    <row r="486" spans="3:15" ht="12.75">
       <c r="C486" s="2"/>
       <c r="D486" s="2"/>
       <c r="E486" s="2"/>
@@ -8572,7 +8602,7 @@
       <c r="N486" s="2"/>
       <c r="O486" s="2"/>
     </row>
-    <row r="487" spans="3:15">
+    <row r="487" spans="3:15" ht="12.75">
       <c r="C487" s="2"/>
       <c r="D487" s="2"/>
       <c r="E487" s="2"/>
@@ -8587,7 +8617,7 @@
       <c r="N487" s="2"/>
       <c r="O487" s="2"/>
     </row>
-    <row r="488" spans="3:15">
+    <row r="488" spans="3:15" ht="12.75">
       <c r="C488" s="2"/>
       <c r="D488" s="2"/>
       <c r="E488" s="2"/>
@@ -8602,7 +8632,7 @@
       <c r="N488" s="2"/>
       <c r="O488" s="2"/>
     </row>
-    <row r="489" spans="3:15">
+    <row r="489" spans="3:15" ht="12.75">
       <c r="C489" s="2"/>
       <c r="D489" s="2"/>
       <c r="E489" s="2"/>
@@ -8617,7 +8647,7 @@
       <c r="N489" s="2"/>
       <c r="O489" s="2"/>
     </row>
-    <row r="490" spans="3:15">
+    <row r="490" spans="3:15" ht="12.75">
       <c r="C490" s="2"/>
       <c r="D490" s="2"/>
       <c r="E490" s="2"/>
@@ -8632,7 +8662,7 @@
       <c r="N490" s="2"/>
       <c r="O490" s="2"/>
     </row>
-    <row r="491" spans="3:15">
+    <row r="491" spans="3:15" ht="12.75">
       <c r="C491" s="2"/>
       <c r="D491" s="2"/>
       <c r="E491" s="2"/>
@@ -8647,7 +8677,7 @@
       <c r="N491" s="2"/>
       <c r="O491" s="2"/>
     </row>
-    <row r="492" spans="3:15">
+    <row r="492" spans="3:15" ht="12.75">
       <c r="C492" s="2"/>
       <c r="D492" s="2"/>
       <c r="E492" s="2"/>
@@ -8662,7 +8692,7 @@
       <c r="N492" s="2"/>
       <c r="O492" s="2"/>
     </row>
-    <row r="493" spans="3:15">
+    <row r="493" spans="3:15" ht="12.75">
       <c r="C493" s="2"/>
       <c r="D493" s="2"/>
       <c r="E493" s="2"/>
@@ -8677,7 +8707,7 @@
       <c r="N493" s="2"/>
       <c r="O493" s="2"/>
     </row>
-    <row r="494" spans="3:15">
+    <row r="494" spans="3:15" ht="12.75">
       <c r="C494" s="2"/>
       <c r="D494" s="2"/>
       <c r="E494" s="2"/>
@@ -8692,7 +8722,7 @@
       <c r="N494" s="2"/>
       <c r="O494" s="2"/>
     </row>
-    <row r="495" spans="3:15">
+    <row r="495" spans="3:15" ht="12.75">
       <c r="C495" s="2"/>
       <c r="D495" s="2"/>
       <c r="E495" s="2"/>
@@ -8707,7 +8737,7 @@
       <c r="N495" s="2"/>
       <c r="O495" s="2"/>
     </row>
-    <row r="496" spans="3:15">
+    <row r="496" spans="3:15" ht="12.75">
       <c r="C496" s="2"/>
       <c r="D496" s="2"/>
       <c r="E496" s="2"/>
@@ -8722,7 +8752,7 @@
       <c r="N496" s="2"/>
       <c r="O496" s="2"/>
     </row>
-    <row r="497" spans="3:15">
+    <row r="497" spans="3:15" ht="12.75">
       <c r="C497" s="2"/>
       <c r="D497" s="2"/>
       <c r="E497" s="2"/>
@@ -8737,7 +8767,7 @@
       <c r="N497" s="2"/>
       <c r="O497" s="2"/>
     </row>
-    <row r="498" spans="3:15">
+    <row r="498" spans="3:15" ht="12.75">
       <c r="C498" s="2"/>
       <c r="D498" s="2"/>
       <c r="E498" s="2"/>
@@ -8752,7 +8782,7 @@
       <c r="N498" s="2"/>
       <c r="O498" s="2"/>
     </row>
-    <row r="499" spans="3:15">
+    <row r="499" spans="3:15" ht="12.75">
       <c r="C499" s="2"/>
       <c r="D499" s="2"/>
       <c r="E499" s="2"/>
@@ -8767,7 +8797,7 @@
       <c r="N499" s="2"/>
       <c r="O499" s="2"/>
     </row>
-    <row r="500" spans="3:15">
+    <row r="500" spans="3:15" ht="12.75">
       <c r="C500" s="2"/>
       <c r="D500" s="2"/>
       <c r="E500" s="2"/>
@@ -8782,7 +8812,7 @@
       <c r="N500" s="2"/>
       <c r="O500" s="2"/>
     </row>
-    <row r="501" spans="3:15">
+    <row r="501" spans="3:15" ht="12.75">
       <c r="C501" s="2"/>
       <c r="D501" s="2"/>
       <c r="E501" s="2"/>
@@ -8797,7 +8827,7 @@
       <c r="N501" s="2"/>
       <c r="O501" s="2"/>
     </row>
-    <row r="502" spans="3:15">
+    <row r="502" spans="3:15" ht="12.75">
       <c r="C502" s="2"/>
       <c r="D502" s="2"/>
       <c r="E502" s="2"/>
@@ -8812,7 +8842,7 @@
       <c r="N502" s="2"/>
       <c r="O502" s="2"/>
     </row>
-    <row r="503" spans="3:15">
+    <row r="503" spans="3:15" ht="12.75">
       <c r="C503" s="2"/>
       <c r="D503" s="2"/>
       <c r="E503" s="2"/>
@@ -8827,7 +8857,7 @@
       <c r="N503" s="2"/>
       <c r="O503" s="2"/>
     </row>
-    <row r="504" spans="3:15">
+    <row r="504" spans="3:15" ht="12.75">
       <c r="C504" s="2"/>
       <c r="D504" s="2"/>
       <c r="E504" s="2"/>
@@ -8842,7 +8872,7 @@
       <c r="N504" s="2"/>
       <c r="O504" s="2"/>
     </row>
-    <row r="505" spans="3:15">
+    <row r="505" spans="3:15" ht="12.75">
       <c r="C505" s="2"/>
       <c r="D505" s="2"/>
       <c r="E505" s="2"/>
@@ -8857,7 +8887,7 @@
       <c r="N505" s="2"/>
       <c r="O505" s="2"/>
     </row>
-    <row r="506" spans="3:15">
+    <row r="506" spans="3:15" ht="12.75">
       <c r="C506" s="2"/>
       <c r="D506" s="2"/>
       <c r="E506" s="2"/>
@@ -8872,7 +8902,7 @@
       <c r="N506" s="2"/>
       <c r="O506" s="2"/>
     </row>
-    <row r="507" spans="3:15">
+    <row r="507" spans="3:15" ht="12.75">
       <c r="C507" s="2"/>
       <c r="D507" s="2"/>
       <c r="E507" s="2"/>
@@ -8887,7 +8917,7 @@
       <c r="N507" s="2"/>
       <c r="O507" s="2"/>
     </row>
-    <row r="508" spans="3:15">
+    <row r="508" spans="3:15" ht="12.75">
       <c r="C508" s="2"/>
       <c r="D508" s="2"/>
       <c r="E508" s="2"/>
@@ -8902,7 +8932,7 @@
       <c r="N508" s="2"/>
       <c r="O508" s="2"/>
     </row>
-    <row r="509" spans="3:15">
+    <row r="509" spans="3:15" ht="12.75">
       <c r="C509" s="2"/>
       <c r="D509" s="2"/>
       <c r="E509" s="2"/>
@@ -8917,7 +8947,7 @@
       <c r="N509" s="2"/>
       <c r="O509" s="2"/>
     </row>
-    <row r="510" spans="3:15">
+    <row r="510" spans="3:15" ht="12.75">
       <c r="C510" s="2"/>
       <c r="D510" s="2"/>
       <c r="E510" s="2"/>
@@ -8932,7 +8962,7 @@
       <c r="N510" s="2"/>
       <c r="O510" s="2"/>
     </row>
-    <row r="511" spans="3:15">
+    <row r="511" spans="3:15" ht="12.75">
       <c r="C511" s="2"/>
       <c r="D511" s="2"/>
       <c r="E511" s="2"/>
@@ -8947,7 +8977,7 @@
       <c r="N511" s="2"/>
       <c r="O511" s="2"/>
     </row>
-    <row r="512" spans="3:15">
+    <row r="512" spans="3:15" ht="12.75">
       <c r="C512" s="2"/>
       <c r="D512" s="2"/>
       <c r="E512" s="2"/>
@@ -8962,7 +8992,7 @@
       <c r="N512" s="2"/>
       <c r="O512" s="2"/>
     </row>
-    <row r="513" spans="3:15">
+    <row r="513" spans="3:15" ht="12.75">
       <c r="C513" s="2"/>
       <c r="D513" s="2"/>
       <c r="E513" s="2"/>
@@ -8977,7 +9007,7 @@
       <c r="N513" s="2"/>
       <c r="O513" s="2"/>
     </row>
-    <row r="514" spans="3:15">
+    <row r="514" spans="3:15" ht="12.75">
       <c r="C514" s="2"/>
       <c r="D514" s="2"/>
       <c r="E514" s="2"/>
@@ -8992,7 +9022,7 @@
       <c r="N514" s="2"/>
       <c r="O514" s="2"/>
     </row>
-    <row r="515" spans="3:15">
+    <row r="515" spans="3:15" ht="12.75">
       <c r="C515" s="2"/>
       <c r="D515" s="2"/>
       <c r="E515" s="2"/>
@@ -9007,7 +9037,7 @@
       <c r="N515" s="2"/>
       <c r="O515" s="2"/>
     </row>
-    <row r="516" spans="3:15">
+    <row r="516" spans="3:15" ht="12.75">
       <c r="C516" s="2"/>
       <c r="D516" s="2"/>
       <c r="E516" s="2"/>
@@ -9022,7 +9052,7 @@
       <c r="N516" s="2"/>
       <c r="O516" s="2"/>
     </row>
-    <row r="517" spans="3:15">
+    <row r="517" spans="3:15" ht="12.75">
       <c r="C517" s="2"/>
       <c r="D517" s="2"/>
       <c r="E517" s="2"/>
@@ -9037,7 +9067,7 @@
       <c r="N517" s="2"/>
       <c r="O517" s="2"/>
     </row>
-    <row r="518" spans="3:15">
+    <row r="518" spans="3:15" ht="12.75">
       <c r="C518" s="2"/>
       <c r="D518" s="2"/>
       <c r="E518" s="2"/>
@@ -9052,7 +9082,7 @@
       <c r="N518" s="2"/>
       <c r="O518" s="2"/>
     </row>
-    <row r="519" spans="3:15">
+    <row r="519" spans="3:15" ht="12.75">
       <c r="C519" s="2"/>
       <c r="D519" s="2"/>
       <c r="E519" s="2"/>
@@ -9067,7 +9097,7 @@
       <c r="N519" s="2"/>
       <c r="O519" s="2"/>
     </row>
-    <row r="520" spans="3:15">
+    <row r="520" spans="3:15" ht="12.75">
       <c r="C520" s="2"/>
       <c r="D520" s="2"/>
       <c r="E520" s="2"/>
@@ -9082,7 +9112,7 @@
       <c r="N520" s="2"/>
       <c r="O520" s="2"/>
     </row>
-    <row r="521" spans="3:15">
+    <row r="521" spans="3:15" ht="12.75">
       <c r="C521" s="2"/>
       <c r="D521" s="2"/>
       <c r="E521" s="2"/>
@@ -9097,7 +9127,7 @@
       <c r="N521" s="2"/>
       <c r="O521" s="2"/>
     </row>
-    <row r="522" spans="3:15">
+    <row r="522" spans="3:15" ht="12.75">
       <c r="C522" s="2"/>
       <c r="D522" s="2"/>
       <c r="E522" s="2"/>
@@ -9112,7 +9142,7 @@
       <c r="N522" s="2"/>
       <c r="O522" s="2"/>
     </row>
-    <row r="523" spans="3:15">
+    <row r="523" spans="3:15" ht="12.75">
       <c r="C523" s="2"/>
       <c r="D523" s="2"/>
       <c r="E523" s="2"/>
@@ -9127,7 +9157,7 @@
       <c r="N523" s="2"/>
       <c r="O523" s="2"/>
     </row>
-    <row r="524" spans="3:15">
+    <row r="524" spans="3:15" ht="12.75">
       <c r="C524" s="2"/>
       <c r="D524" s="2"/>
       <c r="E524" s="2"/>
@@ -9142,7 +9172,7 @@
       <c r="N524" s="2"/>
       <c r="O524" s="2"/>
     </row>
-    <row r="525" spans="3:15">
+    <row r="525" spans="3:15" ht="12.75">
       <c r="C525" s="2"/>
       <c r="D525" s="2"/>
       <c r="E525" s="2"/>
@@ -9157,7 +9187,7 @@
       <c r="N525" s="2"/>
       <c r="O525" s="2"/>
     </row>
-    <row r="526" spans="3:15">
+    <row r="526" spans="3:15" ht="12.75">
       <c r="C526" s="2"/>
       <c r="D526" s="2"/>
       <c r="E526" s="2"/>
@@ -9172,7 +9202,7 @@
       <c r="N526" s="2"/>
       <c r="O526" s="2"/>
     </row>
-    <row r="527" spans="3:15">
+    <row r="527" spans="3:15" ht="12.75">
       <c r="C527" s="2"/>
       <c r="D527" s="2"/>
       <c r="E527" s="2"/>
@@ -9187,7 +9217,7 @@
       <c r="N527" s="2"/>
       <c r="O527" s="2"/>
     </row>
-    <row r="528" spans="3:15">
+    <row r="528" spans="3:15" ht="12.75">
       <c r="C528" s="2"/>
       <c r="D528" s="2"/>
       <c r="E528" s="2"/>
@@ -9202,7 +9232,7 @@
       <c r="N528" s="2"/>
       <c r="O528" s="2"/>
     </row>
-    <row r="529" spans="3:15">
+    <row r="529" spans="3:15" ht="12.75">
       <c r="C529" s="2"/>
       <c r="D529" s="2"/>
       <c r="E529" s="2"/>
@@ -9217,7 +9247,7 @@
       <c r="N529" s="2"/>
       <c r="O529" s="2"/>
     </row>
-    <row r="530" spans="3:15">
+    <row r="530" spans="3:15" ht="12.75">
       <c r="C530" s="2"/>
       <c r="D530" s="2"/>
       <c r="E530" s="2"/>
@@ -9232,7 +9262,7 @@
       <c r="N530" s="2"/>
       <c r="O530" s="2"/>
     </row>
-    <row r="531" spans="3:15">
+    <row r="531" spans="3:15" ht="12.75">
       <c r="C531" s="2"/>
       <c r="D531" s="2"/>
       <c r="E531" s="2"/>
@@ -9247,7 +9277,7 @@
       <c r="N531" s="2"/>
       <c r="O531" s="2"/>
     </row>
-    <row r="532" spans="3:15">
+    <row r="532" spans="3:15" ht="12.75">
       <c r="C532" s="2"/>
       <c r="D532" s="2"/>
       <c r="E532" s="2"/>
@@ -9262,7 +9292,7 @@
       <c r="N532" s="2"/>
       <c r="O532" s="2"/>
     </row>
-    <row r="533" spans="3:15">
+    <row r="533" spans="3:15" ht="12.75">
       <c r="C533" s="2"/>
       <c r="D533" s="2"/>
       <c r="E533" s="2"/>
@@ -9277,7 +9307,7 @@
       <c r="N533" s="2"/>
       <c r="O533" s="2"/>
     </row>
-    <row r="534" spans="3:15">
+    <row r="534" spans="3:15" ht="12.75">
       <c r="C534" s="2"/>
       <c r="D534" s="2"/>
       <c r="E534" s="2"/>
@@ -9292,7 +9322,7 @@
       <c r="N534" s="2"/>
       <c r="O534" s="2"/>
     </row>
-    <row r="535" spans="3:15">
+    <row r="535" spans="3:15" ht="12.75">
       <c r="C535" s="2"/>
       <c r="D535" s="2"/>
       <c r="E535" s="2"/>
@@ -9307,7 +9337,7 @@
       <c r="N535" s="2"/>
       <c r="O535" s="2"/>
     </row>
-    <row r="536" spans="3:15">
+    <row r="536" spans="3:15" ht="12.75">
       <c r="C536" s="2"/>
       <c r="D536" s="2"/>
       <c r="E536" s="2"/>
@@ -9322,7 +9352,7 @@
       <c r="N536" s="2"/>
       <c r="O536" s="2"/>
     </row>
-    <row r="537" spans="3:15">
+    <row r="537" spans="3:15" ht="12.75">
       <c r="C537" s="2"/>
       <c r="D537" s="2"/>
       <c r="E537" s="2"/>
@@ -9337,7 +9367,7 @@
       <c r="N537" s="2"/>
       <c r="O537" s="2"/>
     </row>
-    <row r="538" spans="3:15">
+    <row r="538" spans="3:15" ht="12.75">
       <c r="C538" s="2"/>
       <c r="D538" s="2"/>
       <c r="E538" s="2"/>
@@ -9352,7 +9382,7 @@
       <c r="N538" s="2"/>
       <c r="O538" s="2"/>
     </row>
-    <row r="539" spans="3:15">
+    <row r="539" spans="3:15" ht="12.75">
       <c r="C539" s="2"/>
       <c r="D539" s="2"/>
       <c r="E539" s="2"/>
@@ -9367,7 +9397,7 @@
       <c r="N539" s="2"/>
       <c r="O539" s="2"/>
     </row>
-    <row r="540" spans="3:15">
+    <row r="540" spans="3:15" ht="12.75">
       <c r="C540" s="2"/>
       <c r="D540" s="2"/>
       <c r="E540" s="2"/>
@@ -9382,7 +9412,7 @@
       <c r="N540" s="2"/>
       <c r="O540" s="2"/>
     </row>
-    <row r="541" spans="3:15">
+    <row r="541" spans="3:15" ht="12.75">
       <c r="C541" s="2"/>
       <c r="D541" s="2"/>
       <c r="E541" s="2"/>
@@ -9397,7 +9427,7 @@
       <c r="N541" s="2"/>
       <c r="O541" s="2"/>
     </row>
-    <row r="542" spans="3:15">
+    <row r="542" spans="3:15" ht="12.75">
       <c r="C542" s="2"/>
       <c r="D542" s="2"/>
       <c r="E542" s="2"/>
@@ -9412,7 +9442,7 @@
       <c r="N542" s="2"/>
       <c r="O542" s="2"/>
     </row>
-    <row r="543" spans="3:15">
+    <row r="543" spans="3:15" ht="12.75">
       <c r="C543" s="2"/>
       <c r="D543" s="2"/>
       <c r="E543" s="2"/>
@@ -9427,7 +9457,7 @@
       <c r="N543" s="2"/>
       <c r="O543" s="2"/>
     </row>
-    <row r="544" spans="3:15">
+    <row r="544" spans="3:15" ht="12.75">
       <c r="C544" s="2"/>
       <c r="D544" s="2"/>
       <c r="E544" s="2"/>
@@ -9442,7 +9472,7 @@
       <c r="N544" s="2"/>
       <c r="O544" s="2"/>
     </row>
-    <row r="545" spans="3:15">
+    <row r="545" spans="3:15" ht="12.75">
       <c r="C545" s="2"/>
       <c r="D545" s="2"/>
       <c r="E545" s="2"/>
@@ -9457,7 +9487,7 @@
       <c r="N545" s="2"/>
       <c r="O545" s="2"/>
     </row>
-    <row r="546" spans="3:15">
+    <row r="546" spans="3:15" ht="12.75">
       <c r="C546" s="2"/>
       <c r="D546" s="2"/>
       <c r="E546" s="2"/>
@@ -9472,7 +9502,7 @@
       <c r="N546" s="2"/>
       <c r="O546" s="2"/>
     </row>
-    <row r="547" spans="3:15">
+    <row r="547" spans="3:15" ht="12.75">
       <c r="C547" s="2"/>
       <c r="D547" s="2"/>
       <c r="E547" s="2"/>
@@ -9487,7 +9517,7 @@
       <c r="N547" s="2"/>
       <c r="O547" s="2"/>
     </row>
-    <row r="548" spans="3:15">
+    <row r="548" spans="3:15" ht="12.75">
       <c r="C548" s="2"/>
       <c r="D548" s="2"/>
       <c r="E548" s="2"/>
@@ -9502,7 +9532,7 @@
       <c r="N548" s="2"/>
       <c r="O548" s="2"/>
     </row>
-    <row r="549" spans="3:15">
+    <row r="549" spans="3:15" ht="12.75">
       <c r="C549" s="2"/>
       <c r="D549" s="2"/>
       <c r="E549" s="2"/>
@@ -9517,7 +9547,7 @@
       <c r="N549" s="2"/>
       <c r="O549" s="2"/>
     </row>
-    <row r="550" spans="3:15">
+    <row r="550" spans="3:15" ht="12.75">
       <c r="C550" s="2"/>
       <c r="D550" s="2"/>
       <c r="E550" s="2"/>
@@ -9532,7 +9562,7 @@
       <c r="N550" s="2"/>
       <c r="O550" s="2"/>
     </row>
-    <row r="551" spans="3:15">
+    <row r="551" spans="3:15" ht="12.75">
       <c r="C551" s="2"/>
       <c r="D551" s="2"/>
       <c r="E551" s="2"/>
@@ -9547,7 +9577,7 @@
       <c r="N551" s="2"/>
       <c r="O551" s="2"/>
     </row>
-    <row r="552" spans="3:15">
+    <row r="552" spans="3:15" ht="12.75">
       <c r="C552" s="2"/>
       <c r="D552" s="2"/>
       <c r="E552" s="2"/>
@@ -9562,7 +9592,7 @@
       <c r="N552" s="2"/>
       <c r="O552" s="2"/>
     </row>
-    <row r="553" spans="3:15">
+    <row r="553" spans="3:15" ht="12.75">
       <c r="C553" s="2"/>
       <c r="D553" s="2"/>
       <c r="E553" s="2"/>
@@ -9577,7 +9607,7 @@
       <c r="N553" s="2"/>
       <c r="O553" s="2"/>
     </row>
-    <row r="554" spans="3:15">
+    <row r="554" spans="3:15" ht="12.75">
       <c r="C554" s="2"/>
       <c r="D554" s="2"/>
       <c r="E554" s="2"/>
@@ -9592,7 +9622,7 @@
       <c r="N554" s="2"/>
       <c r="O554" s="2"/>
     </row>
-    <row r="555" spans="3:15">
+    <row r="555" spans="3:15" ht="12.75">
       <c r="C555" s="2"/>
       <c r="D555" s="2"/>
       <c r="E555" s="2"/>
@@ -9607,7 +9637,7 @@
       <c r="N555" s="2"/>
       <c r="O555" s="2"/>
     </row>
-    <row r="556" spans="3:15">
+    <row r="556" spans="3:15" ht="12.75">
       <c r="C556" s="2"/>
       <c r="D556" s="2"/>
       <c r="E556" s="2"/>
@@ -9622,7 +9652,7 @@
       <c r="N556" s="2"/>
       <c r="O556" s="2"/>
     </row>
-    <row r="557" spans="3:15">
+    <row r="557" spans="3:15" ht="12.75">
       <c r="C557" s="2"/>
       <c r="D557" s="2"/>
       <c r="E557" s="2"/>
@@ -9637,7 +9667,7 @@
       <c r="N557" s="2"/>
       <c r="O557" s="2"/>
     </row>
-    <row r="558" spans="3:15">
+    <row r="558" spans="3:15" ht="12.75">
       <c r="C558" s="2"/>
       <c r="D558" s="2"/>
       <c r="E558" s="2"/>
@@ -9652,7 +9682,7 @@
       <c r="N558" s="2"/>
       <c r="O558" s="2"/>
     </row>
-    <row r="559" spans="3:15">
+    <row r="559" spans="3:15" ht="12.75">
       <c r="C559" s="2"/>
       <c r="D559" s="2"/>
       <c r="E559" s="2"/>
@@ -9667,7 +9697,7 @@
       <c r="N559" s="2"/>
       <c r="O559" s="2"/>
     </row>
-    <row r="560" spans="3:15">
+    <row r="560" spans="3:15" ht="12.75">
       <c r="C560" s="2"/>
       <c r="D560" s="2"/>
       <c r="E560" s="2"/>
@@ -9682,7 +9712,7 @@
       <c r="N560" s="2"/>
       <c r="O560" s="2"/>
     </row>
-    <row r="561" spans="3:15">
+    <row r="561" spans="3:15" ht="12.75">
       <c r="C561" s="2"/>
       <c r="D561" s="2"/>
       <c r="E561" s="2"/>
@@ -9697,7 +9727,7 @@
       <c r="N561" s="2"/>
       <c r="O561" s="2"/>
     </row>
-    <row r="562" spans="3:15">
+    <row r="562" spans="3:15" ht="12.75">
       <c r="C562" s="2"/>
       <c r="D562" s="2"/>
       <c r="E562" s="2"/>
@@ -9712,7 +9742,7 @@
       <c r="N562" s="2"/>
       <c r="O562" s="2"/>
     </row>
-    <row r="563" spans="3:15">
+    <row r="563" spans="3:15" ht="12.75">
       <c r="C563" s="2"/>
       <c r="D563" s="2"/>
       <c r="E563" s="2"/>
@@ -9727,7 +9757,7 @@
       <c r="N563" s="2"/>
       <c r="O563" s="2"/>
     </row>
-    <row r="564" spans="3:15">
+    <row r="564" spans="3:15" ht="12.75">
       <c r="C564" s="2"/>
       <c r="D564" s="2"/>
       <c r="E564" s="2"/>
@@ -9742,7 +9772,7 @@
       <c r="N564" s="2"/>
       <c r="O564" s="2"/>
     </row>
-    <row r="565" spans="3:15">
+    <row r="565" spans="3:15" ht="12.75">
       <c r="C565" s="2"/>
       <c r="D565" s="2"/>
       <c r="E565" s="2"/>
@@ -9757,7 +9787,7 @@
       <c r="N565" s="2"/>
       <c r="O565" s="2"/>
     </row>
-    <row r="566" spans="3:15">
+    <row r="566" spans="3:15" ht="12.75">
       <c r="C566" s="2"/>
       <c r="D566" s="2"/>
       <c r="E566" s="2"/>
@@ -9772,7 +9802,7 @@
       <c r="N566" s="2"/>
       <c r="O566" s="2"/>
     </row>
-    <row r="567" spans="3:15">
+    <row r="567" spans="3:15" ht="12.75">
       <c r="C567" s="2"/>
       <c r="D567" s="2"/>
       <c r="E567" s="2"/>
@@ -9787,7 +9817,7 @@
       <c r="N567" s="2"/>
       <c r="O567" s="2"/>
     </row>
-    <row r="568" spans="3:15">
+    <row r="568" spans="3:15" ht="12.75">
       <c r="C568" s="2"/>
       <c r="D568" s="2"/>
       <c r="E568" s="2"/>
@@ -9802,7 +9832,7 @@
       <c r="N568" s="2"/>
       <c r="O568" s="2"/>
     </row>
-    <row r="569" spans="3:15">
+    <row r="569" spans="3:15" ht="12.75">
       <c r="C569" s="2"/>
       <c r="D569" s="2"/>
       <c r="E569" s="2"/>
@@ -9817,7 +9847,7 @@
       <c r="N569" s="2"/>
       <c r="O569" s="2"/>
     </row>
-    <row r="570" spans="3:15">
+    <row r="570" spans="3:15" ht="12.75">
       <c r="C570" s="2"/>
       <c r="D570" s="2"/>
       <c r="E570" s="2"/>
@@ -9832,7 +9862,7 @@
       <c r="N570" s="2"/>
       <c r="O570" s="2"/>
     </row>
-    <row r="571" spans="3:15">
+    <row r="571" spans="3:15" ht="12.75">
       <c r="C571" s="2"/>
       <c r="D571" s="2"/>
       <c r="E571" s="2"/>
@@ -9847,7 +9877,7 @@
       <c r="N571" s="2"/>
       <c r="O571" s="2"/>
     </row>
-    <row r="572" spans="3:15">
+    <row r="572" spans="3:15" ht="12.75">
       <c r="C572" s="2"/>
       <c r="D572" s="2"/>
       <c r="E572" s="2"/>
@@ -9862,7 +9892,7 @@
       <c r="N572" s="2"/>
       <c r="O572" s="2"/>
     </row>
-    <row r="573" spans="3:15">
+    <row r="573" spans="3:15" ht="12.75">
       <c r="C573" s="2"/>
       <c r="D573" s="2"/>
       <c r="E573" s="2"/>
@@ -9877,7 +9907,7 @@
       <c r="N573" s="2"/>
       <c r="O573" s="2"/>
     </row>
-    <row r="574" spans="3:15">
+    <row r="574" spans="3:15" ht="12.75">
       <c r="C574" s="2"/>
       <c r="D574" s="2"/>
       <c r="E574" s="2"/>
@@ -9892,7 +9922,7 @@
       <c r="N574" s="2"/>
       <c r="O574" s="2"/>
     </row>
-    <row r="575" spans="3:15">
+    <row r="575" spans="3:15" ht="12.75">
       <c r="C575" s="2"/>
       <c r="D575" s="2"/>
       <c r="E575" s="2"/>
@@ -9907,7 +9937,7 @@
       <c r="N575" s="2"/>
       <c r="O575" s="2"/>
     </row>
-    <row r="576" spans="3:15">
+    <row r="576" spans="3:15" ht="12.75">
       <c r="C576" s="2"/>
       <c r="D576" s="2"/>
       <c r="E576" s="2"/>
@@ -9922,7 +9952,7 @@
       <c r="N576" s="2"/>
       <c r="O576" s="2"/>
     </row>
-    <row r="577" spans="3:15">
+    <row r="577" spans="3:15" ht="12.75">
       <c r="C577" s="2"/>
       <c r="D577" s="2"/>
       <c r="E577" s="2"/>
@@ -9937,7 +9967,7 @@
       <c r="N577" s="2"/>
       <c r="O577" s="2"/>
     </row>
-    <row r="578" spans="3:15">
+    <row r="578" spans="3:15" ht="12.75">
       <c r="C578" s="2"/>
       <c r="D578" s="2"/>
       <c r="E578" s="2"/>
@@ -9952,7 +9982,7 @@
       <c r="N578" s="2"/>
       <c r="O578" s="2"/>
     </row>
-    <row r="579" spans="3:15">
+    <row r="579" spans="3:15" ht="12.75">
       <c r="C579" s="2"/>
       <c r="D579" s="2"/>
       <c r="E579" s="2"/>
@@ -9967,7 +9997,7 @@
       <c r="N579" s="2"/>
       <c r="O579" s="2"/>
     </row>
-    <row r="580" spans="3:15">
+    <row r="580" spans="3:15" ht="12.75">
       <c r="C580" s="2"/>
       <c r="D580" s="2"/>
       <c r="E580" s="2"/>
@@ -9982,7 +10012,7 @@
       <c r="N580" s="2"/>
       <c r="O580" s="2"/>
     </row>
-    <row r="581" spans="3:15">
+    <row r="581" spans="3:15" ht="12.75">
       <c r="C581" s="2"/>
       <c r="D581" s="2"/>
       <c r="E581" s="2"/>
@@ -9997,7 +10027,7 @@
       <c r="N581" s="2"/>
       <c r="O581" s="2"/>
     </row>
-    <row r="582" spans="3:15">
+    <row r="582" spans="3:15" ht="12.75">
       <c r="C582" s="2"/>
       <c r="D582" s="2"/>
       <c r="E582" s="2"/>
@@ -10012,7 +10042,7 @@
       <c r="N582" s="2"/>
       <c r="O582" s="2"/>
     </row>
-    <row r="583" spans="3:15">
+    <row r="583" spans="3:15" ht="12.75">
       <c r="C583" s="2"/>
       <c r="D583" s="2"/>
       <c r="E583" s="2"/>
@@ -10027,7 +10057,7 @@
       <c r="N583" s="2"/>
       <c r="O583" s="2"/>
     </row>
-    <row r="584" spans="3:15">
+    <row r="584" spans="3:15" ht="12.75">
       <c r="C584" s="2"/>
       <c r="D584" s="2"/>
       <c r="E584" s="2"/>
@@ -10042,7 +10072,7 @@
       <c r="N584" s="2"/>
       <c r="O584" s="2"/>
     </row>
-    <row r="585" spans="3:15">
+    <row r="585" spans="3:15" ht="12.75">
       <c r="C585" s="2"/>
       <c r="D585" s="2"/>
       <c r="E585" s="2"/>
@@ -10057,7 +10087,7 @@
       <c r="N585" s="2"/>
       <c r="O585" s="2"/>
     </row>
-    <row r="586" spans="3:15">
+    <row r="586" spans="3:15" ht="12.75">
       <c r="C586" s="2"/>
       <c r="D586" s="2"/>
       <c r="E586" s="2"/>
@@ -10072,7 +10102,7 @@
       <c r="N586" s="2"/>
       <c r="O586" s="2"/>
     </row>
-    <row r="587" spans="3:15">
+    <row r="587" spans="3:15" ht="12.75">
       <c r="C587" s="2"/>
       <c r="D587" s="2"/>
       <c r="E587" s="2"/>
@@ -10087,7 +10117,7 @@
       <c r="N587" s="2"/>
       <c r="O587" s="2"/>
     </row>
-    <row r="588" spans="3:15">
+    <row r="588" spans="3:15" ht="12.75">
       <c r="C588" s="2"/>
       <c r="D588" s="2"/>
       <c r="E588" s="2"/>
@@ -10102,7 +10132,7 @@
       <c r="N588" s="2"/>
       <c r="O588" s="2"/>
     </row>
-    <row r="589" spans="3:15">
+    <row r="589" spans="3:15" ht="12.75">
       <c r="C589" s="2"/>
       <c r="D589" s="2"/>
       <c r="E589" s="2"/>
@@ -10117,7 +10147,7 @@
       <c r="N589" s="2"/>
       <c r="O589" s="2"/>
     </row>
-    <row r="590" spans="3:15">
+    <row r="590" spans="3:15" ht="12.75">
       <c r="C590" s="2"/>
       <c r="D590" s="2"/>
       <c r="E590" s="2"/>
@@ -10132,7 +10162,7 @@
       <c r="N590" s="2"/>
       <c r="O590" s="2"/>
     </row>
-    <row r="591" spans="3:15">
+    <row r="591" spans="3:15" ht="12.75">
       <c r="C591" s="2"/>
       <c r="D591" s="2"/>
       <c r="E591" s="2"/>
@@ -10147,7 +10177,7 @@
       <c r="N591" s="2"/>
       <c r="O591" s="2"/>
     </row>
-    <row r="592" spans="3:15">
+    <row r="592" spans="3:15" ht="12.75">
       <c r="C592" s="2"/>
       <c r="D592" s="2"/>
       <c r="E592" s="2"/>
@@ -10162,7 +10192,7 @@
       <c r="N592" s="2"/>
       <c r="O592" s="2"/>
     </row>
-    <row r="593" spans="3:15">
+    <row r="593" spans="3:15" ht="12.75">
       <c r="C593" s="2"/>
       <c r="D593" s="2"/>
       <c r="E593" s="2"/>
@@ -10177,7 +10207,7 @@
       <c r="N593" s="2"/>
       <c r="O593" s="2"/>
     </row>
-    <row r="594" spans="3:15">
+    <row r="594" spans="3:15" ht="12.75">
       <c r="C594" s="2"/>
       <c r="D594" s="2"/>
       <c r="E594" s="2"/>
@@ -10192,7 +10222,7 @@
       <c r="N594" s="2"/>
       <c r="O594" s="2"/>
     </row>
-    <row r="595" spans="3:15">
+    <row r="595" spans="3:15" ht="12.75">
       <c r="C595" s="2"/>
       <c r="D595" s="2"/>
       <c r="E595" s="2"/>
@@ -10207,7 +10237,7 @@
       <c r="N595" s="2"/>
       <c r="O595" s="2"/>
     </row>
-    <row r="596" spans="3:15">
+    <row r="596" spans="3:15" ht="12.75">
       <c r="C596" s="2"/>
       <c r="D596" s="2"/>
       <c r="E596" s="2"/>
@@ -10222,7 +10252,7 @@
       <c r="N596" s="2"/>
       <c r="O596" s="2"/>
     </row>
-    <row r="597" spans="3:15">
+    <row r="597" spans="3:15" ht="12.75">
       <c r="C597" s="2"/>
       <c r="D597" s="2"/>
       <c r="E597" s="2"/>
@@ -10237,7 +10267,7 @@
       <c r="N597" s="2"/>
       <c r="O597" s="2"/>
     </row>
-    <row r="598" spans="3:15">
+    <row r="598" spans="3:15" ht="12.75">
       <c r="C598" s="2"/>
       <c r="D598" s="2"/>
       <c r="E598" s="2"/>
@@ -10252,7 +10282,7 @@
       <c r="N598" s="2"/>
       <c r="O598" s="2"/>
     </row>
-    <row r="599" spans="3:15">
+    <row r="599" spans="3:15" ht="12.75">
       <c r="C599" s="2"/>
       <c r="D599" s="2"/>
       <c r="E599" s="2"/>
@@ -10267,7 +10297,7 @@
       <c r="N599" s="2"/>
       <c r="O599" s="2"/>
     </row>
-    <row r="600" spans="3:15">
+    <row r="600" spans="3:15" ht="12.75">
       <c r="C600" s="2"/>
       <c r="D600" s="2"/>
       <c r="E600" s="2"/>
@@ -10282,7 +10312,7 @@
       <c r="N600" s="2"/>
       <c r="O600" s="2"/>
     </row>
-    <row r="601" spans="3:15">
+    <row r="601" spans="3:15" ht="12.75">
       <c r="C601" s="2"/>
       <c r="D601" s="2"/>
       <c r="E601" s="2"/>
@@ -10297,7 +10327,7 @@
       <c r="N601" s="2"/>
       <c r="O601" s="2"/>
     </row>
-    <row r="602" spans="3:15">
+    <row r="602" spans="3:15" ht="12.75">
       <c r="C602" s="2"/>
       <c r="D602" s="2"/>
       <c r="E602" s="2"/>
@@ -10312,7 +10342,7 @@
       <c r="N602" s="2"/>
       <c r="O602" s="2"/>
     </row>
-    <row r="603" spans="3:15">
+    <row r="603" spans="3:15" ht="12.75">
       <c r="C603" s="2"/>
       <c r="D603" s="2"/>
       <c r="E603" s="2"/>
@@ -10327,7 +10357,7 @@
       <c r="N603" s="2"/>
       <c r="O603" s="2"/>
     </row>
-    <row r="604" spans="3:15">
+    <row r="604" spans="3:15" ht="12.75">
       <c r="C604" s="2"/>
       <c r="D604" s="2"/>
       <c r="E604" s="2"/>
@@ -10342,7 +10372,7 @@
       <c r="N604" s="2"/>
       <c r="O604" s="2"/>
     </row>
-    <row r="605" spans="3:15">
+    <row r="605" spans="3:15" ht="12.75">
       <c r="C605" s="2"/>
       <c r="D605" s="2"/>
       <c r="E605" s="2"/>
@@ -10357,7 +10387,7 @@
       <c r="N605" s="2"/>
       <c r="O605" s="2"/>
     </row>
-    <row r="606" spans="3:15">
+    <row r="606" spans="3:15" ht="12.75">
       <c r="C606" s="2"/>
       <c r="D606" s="2"/>
       <c r="E606" s="2"/>
@@ -10372,7 +10402,7 @@
       <c r="N606" s="2"/>
       <c r="O606" s="2"/>
     </row>
-    <row r="607" spans="3:15">
+    <row r="607" spans="3:15" ht="12.75">
       <c r="C607" s="2"/>
       <c r="D607" s="2"/>
       <c r="E607" s="2"/>
@@ -10387,7 +10417,7 @@
       <c r="N607" s="2"/>
       <c r="O607" s="2"/>
     </row>
-    <row r="608" spans="3:15">
+    <row r="608" spans="3:15" ht="12.75">
       <c r="C608" s="2"/>
       <c r="D608" s="2"/>
       <c r="E608" s="2"/>
@@ -10402,7 +10432,7 @@
       <c r="N608" s="2"/>
       <c r="O608" s="2"/>
     </row>
-    <row r="609" spans="3:15">
+    <row r="609" spans="3:15" ht="12.75">
       <c r="C609" s="2"/>
       <c r="D609" s="2"/>
       <c r="E609" s="2"/>
@@ -10417,7 +10447,7 @@
       <c r="N609" s="2"/>
       <c r="O609" s="2"/>
     </row>
-    <row r="610" spans="3:15">
+    <row r="610" spans="3:15" ht="12.75">
       <c r="C610" s="2"/>
       <c r="D610" s="2"/>
       <c r="E610" s="2"/>
@@ -10432,7 +10462,7 @@
       <c r="N610" s="2"/>
       <c r="O610" s="2"/>
     </row>
-    <row r="611" spans="3:15">
+    <row r="611" spans="3:15" ht="12.75">
       <c r="C611" s="2"/>
       <c r="D611" s="2"/>
       <c r="E611" s="2"/>
@@ -10447,7 +10477,7 @@
       <c r="N611" s="2"/>
       <c r="O611" s="2"/>
     </row>
-    <row r="612" spans="3:15">
+    <row r="612" spans="3:15" ht="12.75">
       <c r="C612" s="2"/>
       <c r="D612" s="2"/>
       <c r="E612" s="2"/>
@@ -10462,7 +10492,7 @@
       <c r="N612" s="2"/>
       <c r="O612" s="2"/>
     </row>
-    <row r="613" spans="3:15">
+    <row r="613" spans="3:15" ht="12.75">
       <c r="C613" s="2"/>
       <c r="D613" s="2"/>
       <c r="E613" s="2"/>
@@ -10477,7 +10507,7 @@
       <c r="N613" s="2"/>
       <c r="O613" s="2"/>
     </row>
-    <row r="614" spans="3:15">
+    <row r="614" spans="3:15" ht="12.75">
       <c r="C614" s="2"/>
       <c r="D614" s="2"/>
       <c r="E614" s="2"/>
@@ -10492,7 +10522,7 @@
       <c r="N614" s="2"/>
       <c r="O614" s="2"/>
     </row>
-    <row r="615" spans="3:15">
+    <row r="615" spans="3:15" ht="12.75">
       <c r="C615" s="2"/>
       <c r="D615" s="2"/>
       <c r="E615" s="2"/>
@@ -10507,7 +10537,7 @@
       <c r="N615" s="2"/>
       <c r="O615" s="2"/>
     </row>
-    <row r="616" spans="3:15">
+    <row r="616" spans="3:15" ht="12.75">
       <c r="C616" s="2"/>
       <c r="D616" s="2"/>
       <c r="E616" s="2"/>
@@ -10522,7 +10552,7 @@
       <c r="N616" s="2"/>
       <c r="O616" s="2"/>
     </row>
-    <row r="617" spans="3:15">
+    <row r="617" spans="3:15" ht="12.75">
       <c r="C617" s="2"/>
       <c r="D617" s="2"/>
       <c r="E617" s="2"/>
@@ -10537,7 +10567,7 @@
       <c r="N617" s="2"/>
       <c r="O617" s="2"/>
     </row>
-    <row r="618" spans="3:15">
+    <row r="618" spans="3:15" ht="12.75">
       <c r="C618" s="2"/>
       <c r="D618" s="2"/>
       <c r="E618" s="2"/>
@@ -10552,7 +10582,7 @@
       <c r="N618" s="2"/>
       <c r="O618" s="2"/>
     </row>
-    <row r="619" spans="3:15">
+    <row r="619" spans="3:15" ht="12.75">
       <c r="C619" s="2"/>
       <c r="D619" s="2"/>
       <c r="E619" s="2"/>
@@ -10567,7 +10597,7 @@
       <c r="N619" s="2"/>
       <c r="O619" s="2"/>
     </row>
-    <row r="620" spans="3:15">
+    <row r="620" spans="3:15" ht="12.75">
       <c r="C620" s="2"/>
       <c r="D620" s="2"/>
       <c r="E620" s="2"/>
@@ -10582,7 +10612,7 @@
       <c r="N620" s="2"/>
       <c r="O620" s="2"/>
     </row>
-    <row r="621" spans="3:15">
+    <row r="621" spans="3:15" ht="12.75">
       <c r="C621" s="2"/>
       <c r="D621" s="2"/>
       <c r="E621" s="2"/>
@@ -10597,7 +10627,7 @@
       <c r="N621" s="2"/>
       <c r="O621" s="2"/>
     </row>
-    <row r="622" spans="3:15">
+    <row r="622" spans="3:15" ht="12.75">
       <c r="C622" s="2"/>
       <c r="D622" s="2"/>
       <c r="E622" s="2"/>
@@ -10612,7 +10642,7 @@
       <c r="N622" s="2"/>
       <c r="O622" s="2"/>
     </row>
-    <row r="623" spans="3:15">
+    <row r="623" spans="3:15" ht="12.75">
       <c r="C623" s="2"/>
       <c r="D623" s="2"/>
       <c r="E623" s="2"/>
@@ -10627,7 +10657,7 @@
       <c r="N623" s="2"/>
       <c r="O623" s="2"/>
     </row>
-    <row r="624" spans="3:15">
+    <row r="624" spans="3:15" ht="12.75">
       <c r="C624" s="2"/>
       <c r="D624" s="2"/>
       <c r="E624" s="2"/>
@@ -10642,7 +10672,7 @@
       <c r="N624" s="2"/>
       <c r="O624" s="2"/>
     </row>
-    <row r="625" spans="3:15">
+    <row r="625" spans="3:15" ht="12.75">
       <c r="C625" s="2"/>
       <c r="D625" s="2"/>
       <c r="E625" s="2"/>
@@ -10657,7 +10687,7 @@
       <c r="N625" s="2"/>
       <c r="O625" s="2"/>
     </row>
-    <row r="626" spans="3:15">
+    <row r="626" spans="3:15" ht="12.75">
       <c r="C626" s="2"/>
       <c r="D626" s="2"/>
       <c r="E626" s="2"/>
@@ -10672,7 +10702,7 @@
       <c r="N626" s="2"/>
       <c r="O626" s="2"/>
     </row>
-    <row r="627" spans="3:15">
+    <row r="627" spans="3:15" ht="12.75">
       <c r="C627" s="2"/>
       <c r="D627" s="2"/>
       <c r="E627" s="2"/>
@@ -10687,7 +10717,7 @@
       <c r="N627" s="2"/>
       <c r="O627" s="2"/>
     </row>
-    <row r="628" spans="3:15">
+    <row r="628" spans="3:15" ht="12.75">
       <c r="C628" s="2"/>
       <c r="D628" s="2"/>
       <c r="E628" s="2"/>
@@ -10702,7 +10732,7 @@
       <c r="N628" s="2"/>
       <c r="O628" s="2"/>
     </row>
-    <row r="629" spans="3:15">
+    <row r="629" spans="3:15" ht="12.75">
       <c r="C629" s="2"/>
       <c r="D629" s="2"/>
       <c r="E629" s="2"/>
@@ -10717,7 +10747,7 @@
       <c r="N629" s="2"/>
       <c r="O629" s="2"/>
     </row>
-    <row r="630" spans="3:15">
+    <row r="630" spans="3:15" ht="12.75">
       <c r="C630" s="2"/>
       <c r="D630" s="2"/>
       <c r="E630" s="2"/>
@@ -10732,7 +10762,7 @@
       <c r="N630" s="2"/>
       <c r="O630" s="2"/>
     </row>
-    <row r="631" spans="3:15">
+    <row r="631" spans="3:15" ht="12.75">
       <c r="C631" s="2"/>
       <c r="D631" s="2"/>
       <c r="E631" s="2"/>
@@ -10747,7 +10777,7 @@
       <c r="N631" s="2"/>
       <c r="O631" s="2"/>
     </row>
-    <row r="632" spans="3:15">
+    <row r="632" spans="3:15" ht="12.75">
       <c r="C632" s="2"/>
       <c r="D632" s="2"/>
       <c r="E632" s="2"/>
@@ -10762,7 +10792,7 @@
       <c r="N632" s="2"/>
       <c r="O632" s="2"/>
     </row>
-    <row r="633" spans="3:15">
+    <row r="633" spans="3:15" ht="12.75">
       <c r="C633" s="2"/>
       <c r="D633" s="2"/>
       <c r="E633" s="2"/>
@@ -10777,7 +10807,7 @@
       <c r="N633" s="2"/>
       <c r="O633" s="2"/>
     </row>
-    <row r="634" spans="3:15">
+    <row r="634" spans="3:15" ht="12.75">
       <c r="C634" s="2"/>
       <c r="D634" s="2"/>
       <c r="E634" s="2"/>
@@ -10792,7 +10822,7 @@
       <c r="N634" s="2"/>
       <c r="O634" s="2"/>
     </row>
-    <row r="635" spans="3:15">
+    <row r="635" spans="3:15" ht="12.75">
       <c r="C635" s="2"/>
       <c r="D635" s="2"/>
       <c r="E635" s="2"/>
@@ -10807,7 +10837,7 @@
       <c r="N635" s="2"/>
       <c r="O635" s="2"/>
     </row>
-    <row r="636" spans="3:15">
+    <row r="636" spans="3:15" ht="12.75">
       <c r="C636" s="2"/>
       <c r="D636" s="2"/>
       <c r="E636" s="2"/>
@@ -10822,7 +10852,7 @@
       <c r="N636" s="2"/>
       <c r="O636" s="2"/>
     </row>
-    <row r="637" spans="3:15">
+    <row r="637" spans="3:15" ht="12.75">
       <c r="C637" s="2"/>
       <c r="D637" s="2"/>
       <c r="E637" s="2"/>
@@ -10837,7 +10867,7 @@
       <c r="N637" s="2"/>
       <c r="O637" s="2"/>
     </row>
-    <row r="638" spans="3:15">
+    <row r="638" spans="3:15" ht="12.75">
       <c r="C638" s="2"/>
       <c r="D638" s="2"/>
       <c r="E638" s="2"/>
@@ -10852,7 +10882,7 @@
       <c r="N638" s="2"/>
       <c r="O638" s="2"/>
     </row>
-    <row r="639" spans="3:15">
+    <row r="639" spans="3:15" ht="12.75">
       <c r="C639" s="2"/>
       <c r="D639" s="2"/>
       <c r="E639" s="2"/>
@@ -10867,7 +10897,7 @@
       <c r="N639" s="2"/>
       <c r="O639" s="2"/>
     </row>
-    <row r="640" spans="3:15">
+    <row r="640" spans="3:15" ht="12.75">
       <c r="C640" s="2"/>
       <c r="D640" s="2"/>
       <c r="E640" s="2"/>
@@ -10882,7 +10912,7 @@
       <c r="N640" s="2"/>
       <c r="O640" s="2"/>
     </row>
-    <row r="641" spans="3:15">
+    <row r="641" spans="3:15" ht="12.75">
       <c r="C641" s="2"/>
       <c r="D641" s="2"/>
       <c r="E641" s="2"/>
@@ -10897,7 +10927,7 @@
       <c r="N641" s="2"/>
       <c r="O641" s="2"/>
     </row>
-    <row r="642" spans="3:15">
+    <row r="642" spans="3:15" ht="12.75">
       <c r="C642" s="2"/>
       <c r="D642" s="2"/>
       <c r="E642" s="2"/>
@@ -10912,7 +10942,7 @@
       <c r="N642" s="2"/>
       <c r="O642" s="2"/>
     </row>
-    <row r="643" spans="3:15">
+    <row r="643" spans="3:15" ht="12.75">
       <c r="C643" s="2"/>
       <c r="D643" s="2"/>
       <c r="E643" s="2"/>
@@ -10927,7 +10957,7 @@
       <c r="N643" s="2"/>
       <c r="O643" s="2"/>
     </row>
-    <row r="644" spans="3:15">
+    <row r="644" spans="3:15" ht="12.75">
       <c r="C644" s="2"/>
       <c r="D644" s="2"/>
       <c r="E644" s="2"/>
@@ -10942,7 +10972,7 @@
       <c r="N644" s="2"/>
       <c r="O644" s="2"/>
     </row>
-    <row r="645" spans="3:15">
+    <row r="645" spans="3:15" ht="12.75">
       <c r="C645" s="2"/>
       <c r="D645" s="2"/>
       <c r="E645" s="2"/>
@@ -10957,7 +10987,7 @@
       <c r="N645" s="2"/>
       <c r="O645" s="2"/>
     </row>
-    <row r="646" spans="3:15">
+    <row r="646" spans="3:15" ht="12.75">
       <c r="C646" s="2"/>
       <c r="D646" s="2"/>
       <c r="E646" s="2"/>
@@ -10972,7 +11002,7 @@
       <c r="N646" s="2"/>
       <c r="O646" s="2"/>
     </row>
-    <row r="647" spans="3:15">
+    <row r="647" spans="3:15" ht="12.75">
       <c r="C647" s="2"/>
       <c r="D647" s="2"/>
       <c r="E647" s="2"/>
@@ -10987,7 +11017,7 @@
       <c r="N647" s="2"/>
       <c r="O647" s="2"/>
     </row>
-    <row r="648" spans="3:15">
+    <row r="648" spans="3:15" ht="12.75">
       <c r="C648" s="2"/>
       <c r="D648" s="2"/>
       <c r="E648" s="2"/>
@@ -11002,7 +11032,7 @@
       <c r="N648" s="2"/>
       <c r="O648" s="2"/>
     </row>
-    <row r="649" spans="3:15">
+    <row r="649" spans="3:15" ht="12.75">
       <c r="C649" s="2"/>
       <c r="D649" s="2"/>
       <c r="E649" s="2"/>
@@ -11017,7 +11047,7 @@
       <c r="N649" s="2"/>
       <c r="O649" s="2"/>
     </row>
-    <row r="650" spans="3:15">
+    <row r="650" spans="3:15" ht="12.75">
       <c r="C650" s="2"/>
       <c r="D650" s="2"/>
       <c r="E650" s="2"/>
@@ -11032,7 +11062,7 @@
       <c r="N650" s="2"/>
       <c r="O650" s="2"/>
     </row>
-    <row r="651" spans="3:15">
+    <row r="651" spans="3:15" ht="12.75">
       <c r="C651" s="2"/>
       <c r="D651" s="2"/>
       <c r="E651" s="2"/>
@@ -11047,7 +11077,7 @@
       <c r="N651" s="2"/>
       <c r="O651" s="2"/>
     </row>
-    <row r="652" spans="3:15">
+    <row r="652" spans="3:15" ht="12.75">
       <c r="C652" s="2"/>
       <c r="D652" s="2"/>
       <c r="E652" s="2"/>
@@ -11062,7 +11092,7 @@
       <c r="N652" s="2"/>
       <c r="O652" s="2"/>
     </row>
-    <row r="653" spans="3:15">
+    <row r="653" spans="3:15" ht="12.75">
       <c r="C653" s="2"/>
       <c r="D653" s="2"/>
       <c r="E653" s="2"/>
@@ -11077,7 +11107,7 @@
       <c r="N653" s="2"/>
       <c r="O653" s="2"/>
     </row>
-    <row r="654" spans="3:15">
+    <row r="654" spans="3:15" ht="12.75">
       <c r="C654" s="2"/>
       <c r="D654" s="2"/>
       <c r="E654" s="2"/>
@@ -11092,7 +11122,7 @@
       <c r="N654" s="2"/>
       <c r="O654" s="2"/>
     </row>
-    <row r="655" spans="3:15">
+    <row r="655" spans="3:15" ht="12.75">
       <c r="C655" s="2"/>
       <c r="D655" s="2"/>
       <c r="E655" s="2"/>
@@ -11107,7 +11137,7 @@
       <c r="N655" s="2"/>
       <c r="O655" s="2"/>
     </row>
-    <row r="656" spans="3:15">
+    <row r="656" spans="3:15" ht="12.75">
       <c r="C656" s="2"/>
       <c r="D656" s="2"/>
       <c r="E656" s="2"/>
@@ -11122,7 +11152,7 @@
       <c r="N656" s="2"/>
       <c r="O656" s="2"/>
     </row>
-    <row r="657" spans="3:15">
+    <row r="657" spans="3:15" ht="12.75">
       <c r="C657" s="2"/>
       <c r="D657" s="2"/>
       <c r="E657" s="2"/>
@@ -11137,7 +11167,7 @@
       <c r="N657" s="2"/>
       <c r="O657" s="2"/>
     </row>
-    <row r="658" spans="3:15">
+    <row r="658" spans="3:15" ht="12.75">
       <c r="C658" s="2"/>
       <c r="D658" s="2"/>
       <c r="E658" s="2"/>
@@ -11152,7 +11182,7 @@
       <c r="N658" s="2"/>
       <c r="O658" s="2"/>
     </row>
-    <row r="659" spans="3:15">
+    <row r="659" spans="3:15" ht="12.75">
       <c r="C659" s="2"/>
       <c r="D659" s="2"/>
       <c r="E659" s="2"/>
@@ -11167,7 +11197,7 @@
       <c r="N659" s="2"/>
       <c r="O659" s="2"/>
     </row>
-    <row r="660" spans="3:15">
+    <row r="660" spans="3:15" ht="12.75">
       <c r="C660" s="2"/>
       <c r="D660" s="2"/>
       <c r="E660" s="2"/>
@@ -11182,7 +11212,7 @@
       <c r="N660" s="2"/>
       <c r="O660" s="2"/>
     </row>
-    <row r="661" spans="3:15">
+    <row r="661" spans="3:15" ht="12.75">
       <c r="C661" s="2"/>
       <c r="D661" s="2"/>
       <c r="E661" s="2"/>
@@ -11197,7 +11227,7 @@
       <c r="N661" s="2"/>
       <c r="O661" s="2"/>
     </row>
-    <row r="662" spans="3:15">
+    <row r="662" spans="3:15" ht="12.75">
       <c r="C662" s="2"/>
       <c r="D662" s="2"/>
       <c r="E662" s="2"/>
@@ -11212,7 +11242,7 @@
       <c r="N662" s="2"/>
       <c r="O662" s="2"/>
     </row>
-    <row r="663" spans="3:15">
+    <row r="663" spans="3:15" ht="12.75">
       <c r="C663" s="2"/>
       <c r="D663" s="2"/>
       <c r="E663" s="2"/>
@@ -11227,7 +11257,7 @@
       <c r="N663" s="2"/>
       <c r="O663" s="2"/>
     </row>
-    <row r="664" spans="3:15">
+    <row r="664" spans="3:15" ht="12.75">
       <c r="C664" s="2"/>
       <c r="D664" s="2"/>
       <c r="E664" s="2"/>
@@ -11242,7 +11272,7 @@
       <c r="N664" s="2"/>
       <c r="O664" s="2"/>
     </row>
-    <row r="665" spans="3:15">
+    <row r="665" spans="3:15" ht="12.75">
       <c r="C665" s="2"/>
       <c r="D665" s="2"/>
       <c r="E665" s="2"/>
@@ -11257,7 +11287,7 @@
       <c r="N665" s="2"/>
       <c r="O665" s="2"/>
     </row>
-    <row r="666" spans="3:15">
+    <row r="666" spans="3:15" ht="12.75">
       <c r="C666" s="2"/>
       <c r="D666" s="2"/>
       <c r="E666" s="2"/>
@@ -11272,7 +11302,7 @@
       <c r="N666" s="2"/>
       <c r="O666" s="2"/>
     </row>
-    <row r="667" spans="3:15">
+    <row r="667" spans="3:15" ht="12.75">
       <c r="C667" s="2"/>
       <c r="D667" s="2"/>
       <c r="E667" s="2"/>
@@ -11287,7 +11317,7 @@
       <c r="N667" s="2"/>
       <c r="O667" s="2"/>
     </row>
-    <row r="668" spans="3:15">
+    <row r="668" spans="3:15" ht="12.75">
       <c r="C668" s="2"/>
       <c r="D668" s="2"/>
       <c r="E668" s="2"/>
@@ -11302,7 +11332,7 @@
       <c r="N668" s="2"/>
       <c r="O668" s="2"/>
     </row>
-    <row r="669" spans="3:15">
+    <row r="669" spans="3:15" ht="12.75">
       <c r="C669" s="2"/>
       <c r="D669" s="2"/>
       <c r="E669" s="2"/>
@@ -11317,7 +11347,7 @@
       <c r="N669" s="2"/>
       <c r="O669" s="2"/>
     </row>
-    <row r="670" spans="3:15">
+    <row r="670" spans="3:15" ht="12.75">
       <c r="C670" s="2"/>
       <c r="D670" s="2"/>
       <c r="E670" s="2"/>
@@ -11332,7 +11362,7 @@
       <c r="N670" s="2"/>
       <c r="O670" s="2"/>
     </row>
-    <row r="671" spans="3:15">
+    <row r="671" spans="3:15" ht="12.75">
       <c r="C671" s="2"/>
       <c r="D671" s="2"/>
       <c r="E671" s="2"/>
@@ -11347,7 +11377,7 @@
       <c r="N671" s="2"/>
       <c r="O671" s="2"/>
     </row>
-    <row r="672" spans="3:15">
+    <row r="672" spans="3:15" ht="12.75">
       <c r="C672" s="2"/>
       <c r="D672" s="2"/>
       <c r="E672" s="2"/>
@@ -11362,7 +11392,7 @@
       <c r="N672" s="2"/>
       <c r="O672" s="2"/>
     </row>
-    <row r="673" spans="3:15">
+    <row r="673" spans="3:15" ht="12.75">
       <c r="C673" s="2"/>
       <c r="D673" s="2"/>
       <c r="E673" s="2"/>
@@ -11377,7 +11407,7 @@
       <c r="N673" s="2"/>
       <c r="O673" s="2"/>
     </row>
-    <row r="674" spans="3:15">
+    <row r="674" spans="3:15" ht="12.75">
       <c r="C674" s="2"/>
       <c r="D674" s="2"/>
       <c r="E674" s="2"/>
@@ -11392,7 +11422,7 @@
       <c r="N674" s="2"/>
       <c r="O674" s="2"/>
     </row>
-    <row r="675" spans="3:15">
+    <row r="675" spans="3:15" ht="12.75">
       <c r="C675" s="2"/>
       <c r="D675" s="2"/>
       <c r="E675" s="2"/>
@@ -11407,7 +11437,7 @@
       <c r="N675" s="2"/>
       <c r="O675" s="2"/>
     </row>
-    <row r="676" spans="3:15">
+    <row r="676" spans="3:15" ht="12.75">
       <c r="C676" s="2"/>
       <c r="D676" s="2"/>
       <c r="E676" s="2"/>
@@ -11422,7 +11452,7 @@
       <c r="N676" s="2"/>
       <c r="O676" s="2"/>
     </row>
-    <row r="677" spans="3:15">
+    <row r="677" spans="3:15" ht="12.75">
       <c r="C677" s="2"/>
       <c r="D677" s="2"/>
       <c r="E677" s="2"/>
@@ -11437,7 +11467,7 @@
       <c r="N677" s="2"/>
       <c r="O677" s="2"/>
     </row>
-    <row r="678" spans="3:15">
+    <row r="678" spans="3:15" ht="12.75">
       <c r="C678" s="2"/>
       <c r="D678" s="2"/>
       <c r="E678" s="2"/>
@@ -11452,7 +11482,7 @@
       <c r="N678" s="2"/>
       <c r="O678" s="2"/>
     </row>
-    <row r="679" spans="3:15">
+    <row r="679" spans="3:15" ht="12.75">
       <c r="C679" s="2"/>
       <c r="D679" s="2"/>
       <c r="E679" s="2"/>
@@ -11467,7 +11497,7 @@
       <c r="N679" s="2"/>
       <c r="O679" s="2"/>
     </row>
-    <row r="680" spans="3:15">
+    <row r="680" spans="3:15" ht="12.75">
       <c r="C680" s="2"/>
       <c r="D680" s="2"/>
       <c r="E680" s="2"/>
@@ -11482,7 +11512,7 @@
       <c r="N680" s="2"/>
       <c r="O680" s="2"/>
     </row>
-    <row r="681" spans="3:15">
+    <row r="681" spans="3:15" ht="12.75">
       <c r="C681" s="2"/>
       <c r="D681" s="2"/>
       <c r="E681" s="2"/>
@@ -11497,7 +11527,7 @@
       <c r="N681" s="2"/>
       <c r="O681" s="2"/>
     </row>
-    <row r="682" spans="3:15">
+    <row r="682" spans="3:15" ht="12.75">
       <c r="C682" s="2"/>
       <c r="D682" s="2"/>
       <c r="E682" s="2"/>
@@ -11512,7 +11542,7 @@
       <c r="N682" s="2"/>
       <c r="O682" s="2"/>
     </row>
-    <row r="683" spans="3:15">
+    <row r="683" spans="3:15" ht="12.75">
       <c r="C683" s="2"/>
       <c r="D683" s="2"/>
       <c r="E683" s="2"/>
@@ -11527,7 +11557,7 @@
       <c r="N683" s="2"/>
       <c r="O683" s="2"/>
     </row>
-    <row r="684" spans="3:15">
+    <row r="684" spans="3:15" ht="12.75">
       <c r="C684" s="2"/>
       <c r="D684" s="2"/>
       <c r="E684" s="2"/>
@@ -11542,7 +11572,7 @@
       <c r="N684" s="2"/>
       <c r="O684" s="2"/>
     </row>
-    <row r="685" spans="3:15">
+    <row r="685" spans="3:15" ht="12.75">
       <c r="C685" s="2"/>
       <c r="D685" s="2"/>
       <c r="E685" s="2"/>
@@ -11557,7 +11587,7 @@
       <c r="N685" s="2"/>
       <c r="O685" s="2"/>
     </row>
-    <row r="686" spans="3:15">
+    <row r="686" spans="3:15" ht="12.75">
       <c r="C686" s="2"/>
       <c r="D686" s="2"/>
       <c r="E686" s="2"/>
@@ -11572,7 +11602,7 @@
       <c r="N686" s="2"/>
       <c r="O686" s="2"/>
     </row>
-    <row r="687" spans="3:15">
+    <row r="687" spans="3:15" ht="12.75">
       <c r="C687" s="2"/>
       <c r="D687" s="2"/>
       <c r="E687" s="2"/>
@@ -11587,7 +11617,7 @@
       <c r="N687" s="2"/>
       <c r="O687" s="2"/>
     </row>
-    <row r="688" spans="3:15">
+    <row r="688" spans="3:15" ht="12.75">
       <c r="C688" s="2"/>
       <c r="D688" s="2"/>
       <c r="E688" s="2"/>
@@ -11602,7 +11632,7 @@
       <c r="N688" s="2"/>
       <c r="O688" s="2"/>
     </row>
-    <row r="689" spans="3:15">
+    <row r="689" spans="3:15" ht="12.75">
       <c r="C689" s="2"/>
       <c r="D689" s="2"/>
       <c r="E689" s="2"/>
@@ -11617,7 +11647,7 @@
       <c r="N689" s="2"/>
       <c r="O689" s="2"/>
     </row>
-    <row r="690" spans="3:15">
+    <row r="690" spans="3:15" ht="12.75">
       <c r="C690" s="2"/>
       <c r="D690" s="2"/>
       <c r="E690" s="2"/>
@@ -11632,7 +11662,7 @@
       <c r="N690" s="2"/>
       <c r="O690" s="2"/>
     </row>
-    <row r="691" spans="3:15">
+    <row r="691" spans="3:15" ht="12.75">
       <c r="C691" s="2"/>
       <c r="D691" s="2"/>
       <c r="E691" s="2"/>
@@ -11647,7 +11677,7 @@
       <c r="N691" s="2"/>
       <c r="O691" s="2"/>
     </row>
-    <row r="692" spans="3:15">
+    <row r="692" spans="3:15" ht="12.75">
       <c r="C692" s="2"/>
       <c r="D692" s="2"/>
       <c r="E692" s="2"/>
@@ -11662,7 +11692,7 @@
       <c r="N692" s="2"/>
       <c r="O692" s="2"/>
     </row>
-    <row r="693" spans="3:15">
+    <row r="693" spans="3:15" ht="12.75">
       <c r="C693" s="2"/>
       <c r="D693" s="2"/>
       <c r="E693" s="2"/>
@@ -11677,7 +11707,7 @@
       <c r="N693" s="2"/>
       <c r="O693" s="2"/>
     </row>
-    <row r="694" spans="3:15">
+    <row r="694" spans="3:15" ht="12.75">
       <c r="C694" s="2"/>
       <c r="D694" s="2"/>
       <c r="E694" s="2"/>
@@ -11692,7 +11722,7 @@
       <c r="N694" s="2"/>
       <c r="O694" s="2"/>
     </row>
-    <row r="695" spans="3:15">
+    <row r="695" spans="3:15" ht="12.75">
       <c r="C695" s="2"/>
       <c r="D695" s="2"/>
       <c r="E695" s="2"/>
@@ -11707,7 +11737,7 @@
       <c r="N695" s="2"/>
       <c r="O695" s="2"/>
     </row>
-    <row r="696" spans="3:15">
+    <row r="696" spans="3:15" ht="12.75">
       <c r="C696" s="2"/>
       <c r="D696" s="2"/>
       <c r="E696" s="2"/>
@@ -11722,7 +11752,7 @@
       <c r="N696" s="2"/>
       <c r="O696" s="2"/>
     </row>
-    <row r="697" spans="3:15">
+    <row r="697" spans="3:15" ht="12.75">
       <c r="C697" s="2"/>
       <c r="D697" s="2"/>
       <c r="E697" s="2"/>
@@ -11737,7 +11767,7 @@
       <c r="N697" s="2"/>
       <c r="O697" s="2"/>
     </row>
-    <row r="698" spans="3:15">
+    <row r="698" spans="3:15" ht="12.75">
       <c r="C698" s="2"/>
       <c r="D698" s="2"/>
       <c r="E698" s="2"/>
@@ -11752,7 +11782,7 @@
       <c r="N698" s="2"/>
       <c r="O698" s="2"/>
     </row>
-    <row r="699" spans="3:15">
+    <row r="699" spans="3:15" ht="12.75">
       <c r="C699" s="2"/>
       <c r="D699" s="2"/>
       <c r="E699" s="2"/>
@@ -11767,7 +11797,7 @@
       <c r="N699" s="2"/>
       <c r="O699" s="2"/>
     </row>
-    <row r="700" spans="3:15">
+    <row r="700" spans="3:15" ht="12.75">
       <c r="C700" s="2"/>
       <c r="D700" s="2"/>
       <c r="E700" s="2"/>
@@ -11782,7 +11812,7 @@
       <c r="N700" s="2"/>
       <c r="O700" s="2"/>
     </row>
-    <row r="701" spans="3:15">
+    <row r="701" spans="3:15" ht="12.75">
       <c r="C701" s="2"/>
       <c r="D701" s="2"/>
       <c r="E701" s="2"/>
@@ -11797,7 +11827,7 @@
       <c r="N701" s="2"/>
       <c r="O701" s="2"/>
     </row>
-    <row r="702" spans="3:15">
+    <row r="702" spans="3:15" ht="12.75">
       <c r="C702" s="2"/>
       <c r="D702" s="2"/>
       <c r="E702" s="2"/>
@@ -11812,7 +11842,7 @@
       <c r="N702" s="2"/>
       <c r="O702" s="2"/>
     </row>
-    <row r="703" spans="3:15">
+    <row r="703" spans="3:15" ht="12.75">
       <c r="C703" s="2"/>
       <c r="D703" s="2"/>
       <c r="E703" s="2"/>
@@ -11827,7 +11857,7 @@
       <c r="N703" s="2"/>
       <c r="O703" s="2"/>
     </row>
-    <row r="704" spans="3:15">
+    <row r="704" spans="3:15" ht="12.75">
       <c r="C704" s="2"/>
       <c r="D704" s="2"/>
       <c r="E704" s="2"/>
@@ -11842,7 +11872,7 @@
       <c r="N704" s="2"/>
       <c r="O704" s="2"/>
     </row>
-    <row r="705" spans="3:15">
+    <row r="705" spans="3:15" ht="12.75">
       <c r="C705" s="2"/>
       <c r="D705" s="2"/>
       <c r="E705" s="2"/>
@@ -11857,7 +11887,7 @@
       <c r="N705" s="2"/>
       <c r="O705" s="2"/>
     </row>
-    <row r="706" spans="3:15">
+    <row r="706" spans="3:15" ht="12.75">
       <c r="C706" s="2"/>
       <c r="D706" s="2"/>
       <c r="E706" s="2"/>
@@ -11872,7 +11902,7 @@
       <c r="N706" s="2"/>
       <c r="O706" s="2"/>
     </row>
-    <row r="707" spans="3:15">
+    <row r="707" spans="3:15" ht="12.75">
       <c r="C707" s="2"/>
       <c r="D707" s="2"/>
       <c r="E707" s="2"/>
@@ -11887,7 +11917,7 @@
       <c r="N707" s="2"/>
       <c r="O707" s="2"/>
     </row>
-    <row r="708" spans="3:15">
+    <row r="708" spans="3:15" ht="12.75">
       <c r="C708" s="2"/>
       <c r="D708" s="2"/>
       <c r="E708" s="2"/>
@@ -11902,7 +11932,7 @@
       <c r="N708" s="2"/>
       <c r="O708" s="2"/>
     </row>
-    <row r="709" spans="3:15">
+    <row r="709" spans="3:15" ht="12.75">
       <c r="C709" s="2"/>
       <c r="D709" s="2"/>
       <c r="E709" s="2"/>
@@ -11917,7 +11947,7 @@
       <c r="N709" s="2"/>
       <c r="O709" s="2"/>
     </row>
-    <row r="710" spans="3:15">
+    <row r="710" spans="3:15" ht="12.75">
       <c r="C710" s="2"/>
       <c r="D710" s="2"/>
       <c r="E710" s="2"/>
@@ -11932,7 +11962,7 @@
       <c r="N710" s="2"/>
       <c r="O710" s="2"/>
     </row>
-    <row r="711" spans="3:15">
+    <row r="711" spans="3:15" ht="12.75">
       <c r="C711" s="2"/>
       <c r="D711" s="2"/>
       <c r="E711" s="2"/>
@@ -11947,7 +11977,7 @@
       <c r="N711" s="2"/>
       <c r="O711" s="2"/>
     </row>
-    <row r="712" spans="3:15">
+    <row r="712" spans="3:15" ht="12.75">
       <c r="C712" s="2"/>
       <c r="D712" s="2"/>
       <c r="E712" s="2"/>
@@ -11962,7 +11992,7 @@
       <c r="N712" s="2"/>
       <c r="O712" s="2"/>
     </row>
-    <row r="713" spans="3:15">
+    <row r="713" spans="3:15" ht="12.75">
       <c r="C713" s="2"/>
       <c r="D713" s="2"/>
       <c r="E713" s="2"/>
@@ -11977,7 +12007,7 @@
       <c r="N713" s="2"/>
       <c r="O713" s="2"/>
     </row>
-    <row r="714" spans="3:15">
+    <row r="714" spans="3:15" ht="12.75">
       <c r="C714" s="2"/>
       <c r="D714" s="2"/>
       <c r="E714" s="2"/>
@@ -11992,7 +12022,7 @@
       <c r="N714" s="2"/>
       <c r="O714" s="2"/>
     </row>
-    <row r="715" spans="3:15">
+    <row r="715" spans="3:15" ht="12.75">
       <c r="C715" s="2"/>
       <c r="D715" s="2"/>
       <c r="E715" s="2"/>
@@ -12007,7 +12037,7 @@
       <c r="N715" s="2"/>
       <c r="O715" s="2"/>
     </row>
-    <row r="716" spans="3:15">
+    <row r="716" spans="3:15" ht="12.75">
       <c r="C716" s="2"/>
       <c r="D716" s="2"/>
       <c r="E716" s="2"/>
@@ -12022,7 +12052,7 @@
       <c r="N716" s="2"/>
       <c r="O716" s="2"/>
     </row>
-    <row r="717" spans="3:15">
+    <row r="717" spans="3:15" ht="12.75">
       <c r="C717" s="2"/>
       <c r="D717" s="2"/>
       <c r="E717" s="2"/>
@@ -12037,7 +12067,7 @@
       <c r="N717" s="2"/>
       <c r="O717" s="2"/>
     </row>
-    <row r="718" spans="3:15">
+    <row r="718" spans="3:15" ht="12.75">
       <c r="C718" s="2"/>
       <c r="D718" s="2"/>
       <c r="E718" s="2"/>
@@ -12052,7 +12082,7 @@
       <c r="N718" s="2"/>
       <c r="O718" s="2"/>
     </row>
-    <row r="719" spans="3:15">
+    <row r="719" spans="3:15" ht="12.75">
       <c r="C719" s="2"/>
       <c r="D719" s="2"/>
       <c r="E719" s="2"/>
@@ -12067,7 +12097,7 @@
       <c r="N719" s="2"/>
       <c r="O719" s="2"/>
     </row>
-    <row r="720" spans="3:15">
+    <row r="720" spans="3:15" ht="12.75">
       <c r="C720" s="2"/>
       <c r="D720" s="2"/>
       <c r="E720" s="2"/>
@@ -12082,7 +12112,7 @@
       <c r="N720" s="2"/>
       <c r="O720" s="2"/>
     </row>
-    <row r="721" spans="3:15">
+    <row r="721" spans="3:15" ht="12.75">
       <c r="C721" s="2"/>
       <c r="D721" s="2"/>
       <c r="E721" s="2"/>
@@ -12097,7 +12127,7 @@
       <c r="N721" s="2"/>
       <c r="O721" s="2"/>
     </row>
-    <row r="722" spans="3:15">
+    <row r="722" spans="3:15" ht="12.75">
       <c r="C722" s="2"/>
       <c r="D722" s="2"/>
       <c r="E722" s="2"/>
@@ -12112,7 +12142,7 @@
       <c r="N722" s="2"/>
       <c r="O722" s="2"/>
     </row>
-    <row r="723" spans="3:15">
+    <row r="723" spans="3:15" ht="12.75">
       <c r="C723" s="2"/>
       <c r="D723" s="2"/>
       <c r="E723" s="2"/>
@@ -12127,7 +12157,7 @@
       <c r="N723" s="2"/>
       <c r="O723" s="2"/>
     </row>
-    <row r="724" spans="3:15">
+    <row r="724" spans="3:15" ht="12.75">
       <c r="C724" s="2"/>
       <c r="D724" s="2"/>
       <c r="E724" s="2"/>
@@ -12142,7 +12172,7 @@
       <c r="N724" s="2"/>
       <c r="O724" s="2"/>
     </row>
-    <row r="725" spans="3:15">
+    <row r="725" spans="3:15" ht="12.75">
       <c r="C725" s="2"/>
       <c r="D725" s="2"/>
       <c r="E725" s="2"/>
@@ -12157,7 +12187,7 @@
       <c r="N725" s="2"/>
       <c r="O725" s="2"/>
     </row>
-    <row r="726" spans="3:15">
+    <row r="726" spans="3:15" ht="12.75">
       <c r="C726" s="2"/>
       <c r="D726" s="2"/>
       <c r="E726" s="2"/>
@@ -12172,7 +12202,7 @@
       <c r="N726" s="2"/>
       <c r="O726" s="2"/>
     </row>
-    <row r="727" spans="3:15">
+    <row r="727" spans="3:15" ht="12.75">
       <c r="C727" s="2"/>
       <c r="D727" s="2"/>
       <c r="E727" s="2"/>
@@ -12187,7 +12217,7 @@
       <c r="N727" s="2"/>
       <c r="O727" s="2"/>
     </row>
-    <row r="728" spans="3:15">
+    <row r="728" spans="3:15" ht="12.75">
       <c r="C728" s="2"/>
       <c r="D728" s="2"/>
       <c r="E728" s="2"/>
@@ -12202,7 +12232,7 @@
       <c r="N728" s="2"/>
       <c r="O728" s="2"/>
     </row>
-    <row r="729" spans="3:15">
+    <row r="729" spans="3:15" ht="12.75">
       <c r="C729" s="2"/>
       <c r="D729" s="2"/>
       <c r="E729" s="2"/>
@@ -12217,7 +12247,7 @@
       <c r="N729" s="2"/>
       <c r="O729" s="2"/>
     </row>
-    <row r="730" spans="3:15">
+    <row r="730" spans="3:15" ht="12.75">
       <c r="C730" s="2"/>
       <c r="D730" s="2"/>
       <c r="E730" s="2"/>
@@ -12232,7 +12262,7 @@
       <c r="N730" s="2"/>
       <c r="O730" s="2"/>
     </row>
-    <row r="731" spans="3:15">
+    <row r="731" spans="3:15" ht="12.75">
       <c r="C731" s="2"/>
       <c r="D731" s="2"/>
       <c r="E731" s="2"/>
@@ -12247,7 +12277,7 @@
       <c r="N731" s="2"/>
       <c r="O731" s="2"/>
     </row>
-    <row r="732" spans="3:15">
+    <row r="732" spans="3:15" ht="12.75">
       <c r="C732" s="2"/>
       <c r="D732" s="2"/>
       <c r="E732" s="2"/>
@@ -12262,7 +12292,7 @@
       <c r="N732" s="2"/>
       <c r="O732" s="2"/>
     </row>
-    <row r="733" spans="3:15">
+    <row r="733" spans="3:15" ht="12.75">
       <c r="C733" s="2"/>
       <c r="D733" s="2"/>
       <c r="E733" s="2"/>
@@ -12277,7 +12307,7 @@
       <c r="N733" s="2"/>
       <c r="O733" s="2"/>
     </row>
-    <row r="734" spans="3:15">
+    <row r="734" spans="3:15" ht="12.75">
       <c r="C734" s="2"/>
       <c r="D734" s="2"/>
       <c r="E734" s="2"/>
@@ -12292,7 +12322,7 @@
       <c r="N734" s="2"/>
       <c r="O734" s="2"/>
     </row>
-    <row r="735" spans="3:15">
+    <row r="735" spans="3:15" ht="12.75">
       <c r="C735" s="2"/>
       <c r="D735" s="2"/>
       <c r="E735" s="2"/>
@@ -12307,7 +12337,7 @@
       <c r="N735" s="2"/>
       <c r="O735" s="2"/>
     </row>
-    <row r="736" spans="3:15">
+    <row r="736" spans="3:15" ht="12.75">
       <c r="C736" s="2"/>
       <c r="D736" s="2"/>
       <c r="E736" s="2"/>
@@ -12322,7 +12352,7 @@
       <c r="N736" s="2"/>
       <c r="O736" s="2"/>
     </row>
-    <row r="737" spans="3:15">
+    <row r="737" spans="3:15" ht="12.75">
       <c r="C737" s="2"/>
       <c r="D737" s="2"/>
       <c r="E737" s="2"/>
@@ -12337,7 +12367,7 @@
       <c r="N737" s="2"/>
       <c r="O737" s="2"/>
     </row>
-    <row r="738" spans="3:15">
+    <row r="738" spans="3:15" ht="12.75">
       <c r="C738" s="2"/>
       <c r="D738" s="2"/>
       <c r="E738" s="2"/>
@@ -12352,7 +12382,7 @@
       <c r="N738" s="2"/>
       <c r="O738" s="2"/>
     </row>
-    <row r="739" spans="3:15">
+    <row r="739" spans="3:15" ht="12.75">
       <c r="C739" s="2"/>
       <c r="D739" s="2"/>
       <c r="E739" s="2"/>
@@ -12367,7 +12397,7 @@
       <c r="N739" s="2"/>
       <c r="O739" s="2"/>
     </row>
-    <row r="740" spans="3:15">
+    <row r="740" spans="3:15" ht="12.75">
       <c r="C740" s="2"/>
       <c r="D740" s="2"/>
       <c r="E740" s="2"/>
@@ -12382,7 +12412,7 @@
       <c r="N740" s="2"/>
       <c r="O740" s="2"/>
     </row>
-    <row r="741" spans="3:15">
+    <row r="741" spans="3:15" ht="12.75">
       <c r="C741" s="2"/>
       <c r="D741" s="2"/>
       <c r="E741" s="2"/>
@@ -12397,7 +12427,7 @@
       <c r="N741" s="2"/>
       <c r="O741" s="2"/>
     </row>
-    <row r="742" spans="3:15">
+    <row r="742" spans="3:15" ht="12.75">
       <c r="C742" s="2"/>
       <c r="D742" s="2"/>
       <c r="E742" s="2"/>
@@ -12412,7 +12442,7 @@
       <c r="N742" s="2"/>
       <c r="O742" s="2"/>
     </row>
-    <row r="743" spans="3:15">
+    <row r="743" spans="3:15" ht="12.75">
       <c r="C743" s="2"/>
       <c r="D743" s="2"/>
       <c r="E743" s="2"/>
@@ -12427,7 +12457,7 @@
       <c r="N743" s="2"/>
       <c r="O743" s="2"/>
     </row>
-    <row r="744" spans="3:15">
+    <row r="744" spans="3:15" ht="12.75">
       <c r="C744" s="2"/>
       <c r="D744" s="2"/>
       <c r="E744" s="2"/>
@@ -12442,7 +12472,7 @@
       <c r="N744" s="2"/>
       <c r="O744" s="2"/>
     </row>
-    <row r="745" spans="3:15">
+    <row r="745" spans="3:15" ht="12.75">
       <c r="C745" s="2"/>
       <c r="D745" s="2"/>
       <c r="E745" s="2"/>
@@ -12457,7 +12487,7 @@
       <c r="N745" s="2"/>
       <c r="O745" s="2"/>
     </row>
-    <row r="746" spans="3:15">
+    <row r="746" spans="3:15" ht="12.75">
       <c r="C746" s="2"/>
       <c r="D746" s="2"/>
       <c r="E746" s="2"/>
@@ -12472,7 +12502,7 @@
       <c r="N746" s="2"/>
       <c r="O746" s="2"/>
     </row>
-    <row r="747" spans="3:15">
+    <row r="747" spans="3:15" ht="12.75">
       <c r="C747" s="2"/>
       <c r="D747" s="2"/>
       <c r="E747" s="2"/>
@@ -12487,7 +12517,7 @@
       <c r="N747" s="2"/>
       <c r="O747" s="2"/>
     </row>
-    <row r="748" spans="3:15">
+    <row r="748" spans="3:15" ht="12.75">
       <c r="C748" s="2"/>
       <c r="D748" s="2"/>
       <c r="E748" s="2"/>
@@ -12502,7 +12532,7 @@
       <c r="N748" s="2"/>
       <c r="O748" s="2"/>
     </row>
-    <row r="749" spans="3:15">
+    <row r="749" spans="3:15" ht="12.75">
       <c r="C749" s="2"/>
       <c r="D749" s="2"/>
       <c r="E749" s="2"/>
@@ -12517,7 +12547,7 @@
       <c r="N749" s="2"/>
       <c r="O749" s="2"/>
     </row>
-    <row r="750" spans="3:15">
+    <row r="750" spans="3:15" ht="12.75">
       <c r="C750" s="2"/>
       <c r="D750" s="2"/>
       <c r="E750" s="2"/>
@@ -12532,7 +12562,7 @@
       <c r="N750" s="2"/>
       <c r="O750" s="2"/>
     </row>
-    <row r="751" spans="3:15">
+    <row r="751" spans="3:15" ht="12.75">
       <c r="C751" s="2"/>
       <c r="D751" s="2"/>
       <c r="E751" s="2"/>
@@ -12547,7 +12577,7 @@
       <c r="N751" s="2"/>
       <c r="O751" s="2"/>
     </row>
-    <row r="752" spans="3:15">
+    <row r="752" spans="3:15" ht="12.75">
       <c r="C752" s="2"/>
       <c r="D752" s="2"/>
       <c r="E752" s="2"/>
@@ -12562,7 +12592,7 @@
       <c r="N752" s="2"/>
       <c r="O752" s="2"/>
     </row>
-    <row r="753" spans="3:15">
+    <row r="753" spans="3:15" ht="12.75">
       <c r="C753" s="2"/>
       <c r="D753" s="2"/>
       <c r="E753" s="2"/>
@@ -12577,7 +12607,7 @@
       <c r="N753" s="2"/>
       <c r="O753" s="2"/>
     </row>
-    <row r="754" spans="3:15">
+    <row r="754" spans="3:15" ht="12.75">
       <c r="C754" s="2"/>
       <c r="D754" s="2"/>
       <c r="E754" s="2"/>
@@ -12592,7 +12622,7 @@
       <c r="N754" s="2"/>
       <c r="O754" s="2"/>
     </row>
-    <row r="755" spans="3:15">
+    <row r="755" spans="3:15" ht="12.75">
       <c r="C755" s="2"/>
       <c r="D755" s="2"/>
       <c r="E755" s="2"/>
@@ -12607,7 +12637,7 @@
       <c r="N755" s="2"/>
       <c r="O755" s="2"/>
     </row>
-    <row r="756" spans="3:15">
+    <row r="756" spans="3:15" ht="12.75">
       <c r="C756" s="2"/>
       <c r="D756" s="2"/>
       <c r="E756" s="2"/>
@@ -12622,7 +12652,7 @@
       <c r="N756" s="2"/>
       <c r="O756" s="2"/>
     </row>
-    <row r="757" spans="3:15">
+    <row r="757" spans="3:15" ht="12.75">
       <c r="C757" s="2"/>
       <c r="D757" s="2"/>
       <c r="E757" s="2"/>
@@ -12637,7 +12667,7 @@
       <c r="N757" s="2"/>
       <c r="O757" s="2"/>
     </row>
-    <row r="758" spans="3:15">
+    <row r="758" spans="3:15" ht="12.75">
       <c r="C758" s="2"/>
       <c r="D758" s="2"/>
       <c r="E758" s="2"/>
@@ -12652,7 +12682,7 @@
       <c r="N758" s="2"/>
       <c r="O758" s="2"/>
     </row>
-    <row r="759" spans="3:15">
+    <row r="759" spans="3:15" ht="12.75">
       <c r="C759" s="2"/>
       <c r="D759" s="2"/>
       <c r="E759" s="2"/>
@@ -12667,7 +12697,7 @@
       <c r="N759" s="2"/>
       <c r="O759" s="2"/>
     </row>
-    <row r="760" spans="3:15">
+    <row r="760" spans="3:15" ht="12.75">
       <c r="C760" s="2"/>
       <c r="D760" s="2"/>
       <c r="E760" s="2"/>
@@ -12682,7 +12712,7 @@
       <c r="N760" s="2"/>
       <c r="O760" s="2"/>
     </row>
-    <row r="761" spans="3:15">
+    <row r="761" spans="3:15" ht="12.75">
       <c r="C761" s="2"/>
       <c r="D761" s="2"/>
       <c r="E761" s="2"/>
@@ -12697,7 +12727,7 @@
       <c r="N761" s="2"/>
       <c r="O761" s="2"/>
     </row>
-    <row r="762" spans="3:15">
+    <row r="762" spans="3:15" ht="12.75">
       <c r="C762" s="2"/>
       <c r="D762" s="2"/>
       <c r="E762" s="2"/>
@@ -12712,7 +12742,7 @@
       <c r="N762" s="2"/>
       <c r="O762" s="2"/>
     </row>
-    <row r="763" spans="3:15">
+    <row r="763" spans="3:15" ht="12.75">
       <c r="C763" s="2"/>
       <c r="D763" s="2"/>
       <c r="E763" s="2"/>
@@ -12727,7 +12757,7 @@
       <c r="N763" s="2"/>
       <c r="O763" s="2"/>
     </row>
-    <row r="764" spans="3:15">
+    <row r="764" spans="3:15" ht="12.75">
       <c r="C764" s="2"/>
       <c r="D764" s="2"/>
       <c r="E764" s="2"/>
@@ -12742,7 +12772,7 @@
       <c r="N764" s="2"/>
       <c r="O764" s="2"/>
     </row>
-    <row r="765" spans="3:15">
+    <row r="765" spans="3:15" ht="12.75">
       <c r="C765" s="2"/>
       <c r="D765" s="2"/>
       <c r="E765" s="2"/>
@@ -12757,7 +12787,7 @@
       <c r="N765" s="2"/>
       <c r="O765" s="2"/>
     </row>
-    <row r="766" spans="3:15">
+    <row r="766" spans="3:15" ht="12.75">
       <c r="C766" s="2"/>
       <c r="D766" s="2"/>
       <c r="E766" s="2"/>
@@ -12772,7 +12802,7 @@
       <c r="N766" s="2"/>
       <c r="O766" s="2"/>
     </row>
-    <row r="767" spans="3:15">
+    <row r="767" spans="3:15" ht="12.75">
       <c r="C767" s="2"/>
       <c r="D767" s="2"/>
       <c r="E767" s="2"/>
@@ -12787,7 +12817,7 @@
       <c r="N767" s="2"/>
       <c r="O767" s="2"/>
     </row>
-    <row r="768" spans="3:15">
+    <row r="768" spans="3:15" ht="12.75">
       <c r="C768" s="2"/>
       <c r="D768" s="2"/>
       <c r="E768" s="2"/>
@@ -12802,7 +12832,7 @@
       <c r="N768" s="2"/>
       <c r="O768" s="2"/>
     </row>
-    <row r="769" spans="3:15">
+    <row r="769" spans="3:15" ht="12.75">
       <c r="C769" s="2"/>
       <c r="D769" s="2"/>
       <c r="E769" s="2"/>
@@ -12817,7 +12847,7 @@
       <c r="N769" s="2"/>
       <c r="O769" s="2"/>
     </row>
-    <row r="770" spans="3:15">
+    <row r="770" spans="3:15" ht="12.75">
       <c r="C770" s="2"/>
       <c r="D770" s="2"/>
       <c r="E770" s="2"/>
@@ -12832,7 +12862,7 @@
       <c r="N770" s="2"/>
       <c r="O770" s="2"/>
     </row>
-    <row r="771" spans="3:15">
+    <row r="771" spans="3:15" ht="12.75">
       <c r="C771" s="2"/>
       <c r="D771" s="2"/>
       <c r="E771" s="2"/>
@@ -12847,7 +12877,7 @@
       <c r="N771" s="2"/>
       <c r="O771" s="2"/>
     </row>
-    <row r="772" spans="3:15">
+    <row r="772" spans="3:15" ht="12.75">
       <c r="C772" s="2"/>
       <c r="D772" s="2"/>
       <c r="E772" s="2"/>
@@ -12862,7 +12892,7 @@
       <c r="N772" s="2"/>
       <c r="O772" s="2"/>
     </row>
-    <row r="773" spans="3:15">
+    <row r="773" spans="3:15" ht="12.75">
       <c r="C773" s="2"/>
       <c r="D773" s="2"/>
       <c r="E773" s="2"/>
@@ -12877,7 +12907,7 @@
       <c r="N773" s="2"/>
       <c r="O773" s="2"/>
     </row>
-    <row r="774" spans="3:15">
+    <row r="774" spans="3:15" ht="12.75">
       <c r="C774" s="2"/>
       <c r="D774" s="2"/>
       <c r="E774" s="2"/>
@@ -12892,7 +12922,7 @@
       <c r="N774" s="2"/>
       <c r="O774" s="2"/>
     </row>
-    <row r="775" spans="3:15">
+    <row r="775" spans="3:15" ht="12.75">
       <c r="C775" s="2"/>
       <c r="D775" s="2"/>
       <c r="E775" s="2"/>
@@ -12907,7 +12937,7 @@
       <c r="N775" s="2"/>
       <c r="O775" s="2"/>
     </row>
-    <row r="776" spans="3:15">
+    <row r="776" spans="3:15" ht="12.75">
       <c r="C776" s="2"/>
       <c r="D776" s="2"/>
       <c r="E776" s="2"/>
@@ -12922,7 +12952,7 @@
       <c r="N776" s="2"/>
       <c r="O776" s="2"/>
     </row>
-    <row r="777" spans="3:15">
+    <row r="777" spans="3:15" ht="12.75">
       <c r="C777" s="2"/>
       <c r="D777" s="2"/>
       <c r="E777" s="2"/>
@@ -12937,7 +12967,7 @@
       <c r="N777" s="2"/>
       <c r="O777" s="2"/>
     </row>
-    <row r="778" spans="3:15">
+    <row r="778" spans="3:15" ht="12.75">
       <c r="C778" s="2"/>
       <c r="D778" s="2"/>
       <c r="E778" s="2"/>
@@ -12952,7 +12982,7 @@
       <c r="N778" s="2"/>
       <c r="O778" s="2"/>
     </row>
-    <row r="779" spans="3:15">
+    <row r="779" spans="3:15" ht="12.75">
       <c r="C779" s="2"/>
       <c r="D779" s="2"/>
       <c r="E779" s="2"/>
@@ -12967,7 +12997,7 @@
       <c r="N779" s="2"/>
       <c r="O779" s="2"/>
     </row>
-    <row r="780" spans="3:15">
+    <row r="780" spans="3:15" ht="12.75">
       <c r="C780" s="2"/>
       <c r="D780" s="2"/>
       <c r="E780" s="2"/>
@@ -12982,7 +13012,7 @@
       <c r="N780" s="2"/>
       <c r="O780" s="2"/>
     </row>
-    <row r="781" spans="3:15">
+    <row r="781" spans="3:15" ht="12.75">
       <c r="C781" s="2"/>
       <c r="D781" s="2"/>
       <c r="E781" s="2"/>
@@ -12997,7 +13027,7 @@
       <c r="N781" s="2"/>
       <c r="O781" s="2"/>
     </row>
-    <row r="782" spans="3:15">
+    <row r="782" spans="3:15" ht="12.75">
       <c r="C782" s="2"/>
       <c r="D782" s="2"/>
       <c r="E782" s="2"/>
@@ -13012,7 +13042,7 @@
       <c r="N782" s="2"/>
       <c r="O782" s="2"/>
     </row>
-    <row r="783" spans="3:15">
+    <row r="783" spans="3:15" ht="12.75">
       <c r="C783" s="2"/>
       <c r="D783" s="2"/>
       <c r="E783" s="2"/>
@@ -13027,7 +13057,7 @@
       <c r="N783" s="2"/>
       <c r="O783" s="2"/>
     </row>
-    <row r="784" spans="3:15">
+    <row r="784" spans="3:15" ht="12.75">
       <c r="C784" s="2"/>
       <c r="D784" s="2"/>
       <c r="E784" s="2"/>
@@ -13042,7 +13072,7 @@
       <c r="N784" s="2"/>
       <c r="O784" s="2"/>
     </row>
-    <row r="785" spans="3:15">
+    <row r="785" spans="3:15" ht="12.75">
       <c r="C785" s="2"/>
       <c r="D785" s="2"/>
       <c r="E785" s="2"/>
@@ -13057,7 +13087,7 @@
       <c r="N785" s="2"/>
       <c r="O785" s="2"/>
     </row>
-    <row r="786" spans="3:15">
+    <row r="786" spans="3:15" ht="12.75">
       <c r="C786" s="2"/>
       <c r="D786" s="2"/>
       <c r="E786" s="2"/>
@@ -13072,7 +13102,7 @@
       <c r="N786" s="2"/>
       <c r="O786" s="2"/>
     </row>
-    <row r="787" spans="3:15">
+    <row r="787" spans="3:15" ht="12.75">
       <c r="C787" s="2"/>
       <c r="D787" s="2"/>
       <c r="E787" s="2"/>
@@ -13087,7 +13117,7 @@
       <c r="N787" s="2"/>
       <c r="O787" s="2"/>
     </row>
-    <row r="788" spans="3:15">
+    <row r="788" spans="3:15" ht="12.75">
       <c r="C788" s="2"/>
       <c r="D788" s="2"/>
       <c r="E788" s="2"/>
@@ -13102,7 +13132,7 @@
       <c r="N788" s="2"/>
       <c r="O788" s="2"/>
     </row>
-    <row r="789" spans="3:15">
+    <row r="789" spans="3:15" ht="12.75">
       <c r="C789" s="2"/>
       <c r="D789" s="2"/>
       <c r="E789" s="2"/>
@@ -13117,7 +13147,7 @@
       <c r="N789" s="2"/>
       <c r="O789" s="2"/>
     </row>
-    <row r="790" spans="3:15">
+    <row r="790" spans="3:15" ht="12.75">
       <c r="C790" s="2"/>
       <c r="D790" s="2"/>
       <c r="E790" s="2"/>
@@ -13132,7 +13162,7 @@
       <c r="N790" s="2"/>
       <c r="O790" s="2"/>
     </row>
-    <row r="791" spans="3:15">
+    <row r="791" spans="3:15" ht="12.75">
       <c r="C791" s="2"/>
       <c r="D791" s="2"/>
       <c r="E791" s="2"/>
@@ -13147,7 +13177,7 @@
       <c r="N791" s="2"/>
       <c r="O791" s="2"/>
     </row>
-    <row r="792" spans="3:15">
+    <row r="792" spans="3:15" ht="12.75">
       <c r="C792" s="2"/>
       <c r="D792" s="2"/>
       <c r="E792" s="2"/>
@@ -13162,7 +13192,7 @@
       <c r="N792" s="2"/>
       <c r="O792" s="2"/>
     </row>
-    <row r="793" spans="3:15">
+    <row r="793" spans="3:15" ht="12.75">
       <c r="C793" s="2"/>
       <c r="D793" s="2"/>
       <c r="E793" s="2"/>
@@ -13177,7 +13207,7 @@
       <c r="N793" s="2"/>
       <c r="O793" s="2"/>
     </row>
-    <row r="794" spans="3:15">
+    <row r="794" spans="3:15" ht="12.75">
       <c r="C794" s="2"/>
       <c r="D794" s="2"/>
       <c r="E794" s="2"/>
@@ -13192,7 +13222,7 @@
       <c r="N794" s="2"/>
       <c r="O794" s="2"/>
     </row>
-    <row r="795" spans="3:15">
+    <row r="795" spans="3:15" ht="12.75">
       <c r="C795" s="2"/>
       <c r="D795" s="2"/>
       <c r="E795" s="2"/>
@@ -13207,7 +13237,7 @@
       <c r="N795" s="2"/>
       <c r="O795" s="2"/>
     </row>
-    <row r="796" spans="3:15">
+    <row r="796" spans="3:15" ht="12.75">
       <c r="C796" s="2"/>
       <c r="D796" s="2"/>
       <c r="E796" s="2"/>
@@ -13222,7 +13252,7 @@
       <c r="N796" s="2"/>
       <c r="O796" s="2"/>
     </row>
-    <row r="797" spans="3:15">
+    <row r="797" spans="3:15" ht="12.75">
       <c r="C797" s="2"/>
       <c r="D797" s="2"/>
       <c r="E797" s="2"/>
@@ -13237,7 +13267,7 @@
       <c r="N797" s="2"/>
       <c r="O797" s="2"/>
     </row>
-    <row r="798" spans="3:15">
+    <row r="798" spans="3:15" ht="12.75">
       <c r="C798" s="2"/>
       <c r="D798" s="2"/>
       <c r="E798" s="2"/>
@@ -13252,7 +13282,7 @@
       <c r="N798" s="2"/>
       <c r="O798" s="2"/>
     </row>
-    <row r="799" spans="3:15">
+    <row r="799" spans="3:15" ht="12.75">
       <c r="C799" s="2"/>
       <c r="D799" s="2"/>
       <c r="E799" s="2"/>
@@ -13267,7 +13297,7 @@
       <c r="N799" s="2"/>
       <c r="O799" s="2"/>
     </row>
-    <row r="800" spans="3:15">
+    <row r="800" spans="3:15" ht="12.75">
       <c r="C800" s="2"/>
       <c r="D800" s="2"/>
       <c r="E800" s="2"/>
@@ -13282,7 +13312,7 @@
       <c r="N800" s="2"/>
       <c r="O800" s="2"/>
     </row>
-    <row r="801" spans="3:15">
+    <row r="801" spans="3:15" ht="12.75">
       <c r="C801" s="2"/>
       <c r="D801" s="2"/>
       <c r="E801" s="2"/>
@@ -13297,7 +13327,7 @@
       <c r="N801" s="2"/>
       <c r="O801" s="2"/>
     </row>
-    <row r="802" spans="3:15">
+    <row r="802" spans="3:15" ht="12.75">
       <c r="C802" s="2"/>
       <c r="D802" s="2"/>
       <c r="E802" s="2"/>
@@ -13312,7 +13342,7 @@
       <c r="N802" s="2"/>
       <c r="O802" s="2"/>
     </row>
-    <row r="803" spans="3:15">
+    <row r="803" spans="3:15" ht="12.75">
       <c r="C803" s="2"/>
       <c r="D803" s="2"/>
       <c r="E803" s="2"/>
@@ -13327,7 +13357,7 @@
       <c r="N803" s="2"/>
       <c r="O803" s="2"/>
     </row>
-    <row r="804" spans="3:15">
+    <row r="804" spans="3:15" ht="12.75">
       <c r="C804" s="2"/>
       <c r="D804" s="2"/>
       <c r="E804" s="2"/>
@@ -13342,7 +13372,7 @@
       <c r="N804" s="2"/>
       <c r="O804" s="2"/>
     </row>
-    <row r="805" spans="3:15">
+    <row r="805" spans="3:15" ht="12.75">
       <c r="C805" s="2"/>
       <c r="D805" s="2"/>
       <c r="E805" s="2"/>
@@ -13357,7 +13387,7 @@
       <c r="N805" s="2"/>
       <c r="O805" s="2"/>
     </row>
-    <row r="806" spans="3:15">
+    <row r="806" spans="3:15" ht="12.75">
       <c r="C806" s="2"/>
       <c r="D806" s="2"/>
       <c r="E806" s="2"/>
@@ -13372,7 +13402,7 @@
       <c r="N806" s="2"/>
       <c r="O806" s="2"/>
     </row>
-    <row r="807" spans="3:15">
+    <row r="807" spans="3:15" ht="12.75">
       <c r="C807" s="2"/>
       <c r="D807" s="2"/>
       <c r="E807" s="2"/>
@@ -13387,7 +13417,7 @@
       <c r="N807" s="2"/>
       <c r="O807" s="2"/>
     </row>
-    <row r="808" spans="3:15">
+    <row r="808" spans="3:15" ht="12.75">
       <c r="C808" s="2"/>
       <c r="D808" s="2"/>
       <c r="E808" s="2"/>
@@ -13402,7 +13432,7 @@
       <c r="N808" s="2"/>
       <c r="O808" s="2"/>
     </row>
-    <row r="809" spans="3:15">
+    <row r="809" spans="3:15" ht="12.75">
       <c r="C809" s="2"/>
       <c r="D809" s="2"/>
       <c r="E809" s="2"/>
@@ -13417,7 +13447,7 @@
       <c r="N809" s="2"/>
       <c r="O809" s="2"/>
     </row>
-    <row r="810" spans="3:15">
+    <row r="810" spans="3:15" ht="12.75">
       <c r="C810" s="2"/>
       <c r="D810" s="2"/>
       <c r="E810" s="2"/>
@@ -13432,7 +13462,7 @@
       <c r="N810" s="2"/>
       <c r="O810" s="2"/>
     </row>
-    <row r="811" spans="3:15">
+    <row r="811" spans="3:15" ht="12.75">
       <c r="C811" s="2"/>
       <c r="D811" s="2"/>
       <c r="E811" s="2"/>
@@ -13447,7 +13477,7 @@
       <c r="N811" s="2"/>
       <c r="O811" s="2"/>
     </row>
-    <row r="812" spans="3:15">
+    <row r="812" spans="3:15" ht="12.75">
       <c r="C812" s="2"/>
       <c r="D812" s="2"/>
       <c r="E812" s="2"/>
@@ -13462,7 +13492,7 @@
       <c r="N812" s="2"/>
       <c r="O812" s="2"/>
     </row>
-    <row r="813" spans="3:15">
+    <row r="813" spans="3:15" ht="12.75">
       <c r="C813" s="2"/>
       <c r="D813" s="2"/>
       <c r="E813" s="2"/>
@@ -13477,7 +13507,7 @@
       <c r="N813" s="2"/>
       <c r="O813" s="2"/>
     </row>
-    <row r="814" spans="3:15">
+    <row r="814" spans="3:15" ht="12.75">
       <c r="C814" s="2"/>
       <c r="D814" s="2"/>
       <c r="E814" s="2"/>
@@ -13492,7 +13522,7 @@
       <c r="N814" s="2"/>
       <c r="O814" s="2"/>
     </row>
-    <row r="815" spans="3:15">
+    <row r="815" spans="3:15" ht="12.75">
       <c r="C815" s="2"/>
       <c r="D815" s="2"/>
       <c r="E815" s="2"/>
@@ -13507,7 +13537,7 @@
       <c r="N815" s="2"/>
       <c r="O815" s="2"/>
     </row>
-    <row r="816" spans="3:15">
+    <row r="816" spans="3:15" ht="12.75">
       <c r="C816" s="2"/>
       <c r="D816" s="2"/>
       <c r="E816" s="2"/>
@@ -13522,7 +13552,7 @@
       <c r="N816" s="2"/>
       <c r="O816" s="2"/>
     </row>
-    <row r="817" spans="3:15">
+    <row r="817" spans="3:15" ht="12.75">
       <c r="C817" s="2"/>
       <c r="D817" s="2"/>
       <c r="E817" s="2"/>
@@ -13537,7 +13567,7 @@
       <c r="N817" s="2"/>
       <c r="O817" s="2"/>
     </row>
-    <row r="818" spans="3:15">
+    <row r="818" spans="3:15" ht="12.75">
       <c r="C818" s="2"/>
       <c r="D818" s="2"/>
       <c r="E818" s="2"/>
@@ -13552,7 +13582,7 @@
       <c r="N818" s="2"/>
       <c r="O818" s="2"/>
     </row>
-    <row r="819" spans="3:15">
+    <row r="819" spans="3:15" ht="12.75">
       <c r="C819" s="2"/>
       <c r="D819" s="2"/>
       <c r="E819" s="2"/>
@@ -13567,7 +13597,7 @@
       <c r="N819" s="2"/>
       <c r="O819" s="2"/>
     </row>
-    <row r="820" spans="3:15">
+    <row r="820" spans="3:15" ht="12.75">
       <c r="C820" s="2"/>
       <c r="D820" s="2"/>
       <c r="E820" s="2"/>
@@ -13582,7 +13612,7 @@
       <c r="N820" s="2"/>
       <c r="O820" s="2"/>
     </row>
-    <row r="821" spans="3:15">
+    <row r="821" spans="3:15" ht="12.75">
       <c r="C821" s="2"/>
       <c r="D821" s="2"/>
       <c r="E821" s="2"/>
@@ -13597,7 +13627,7 @@
       <c r="N821" s="2"/>
       <c r="O821" s="2"/>
     </row>
-    <row r="822" spans="3:15">
+    <row r="822" spans="3:15" ht="12.75">
       <c r="C822" s="2"/>
       <c r="D822" s="2"/>
       <c r="E822" s="2"/>
@@ -13612,7 +13642,7 @@
       <c r="N822" s="2"/>
       <c r="O822" s="2"/>
     </row>
-    <row r="823" spans="3:15">
+    <row r="823" spans="3:15" ht="12.75">
       <c r="C823" s="2"/>
       <c r="D823" s="2"/>
       <c r="E823" s="2"/>
@@ -13627,7 +13657,7 @@
       <c r="N823" s="2"/>
       <c r="O823" s="2"/>
     </row>
-    <row r="824" spans="3:15">
+    <row r="824" spans="3:15" ht="12.75">
       <c r="C824" s="2"/>
       <c r="D824" s="2"/>
       <c r="E824" s="2"/>
@@ -13642,7 +13672,7 @@
       <c r="N824" s="2"/>
       <c r="O824" s="2"/>
     </row>
-    <row r="825" spans="3:15">
+    <row r="825" spans="3:15" ht="12.75">
       <c r="C825" s="2"/>
       <c r="D825" s="2"/>
       <c r="E825" s="2"/>
@@ -13657,7 +13687,7 @@
       <c r="N825" s="2"/>
       <c r="O825" s="2"/>
     </row>
-    <row r="826" spans="3:15">
+    <row r="826" spans="3:15" ht="12.75">
       <c r="C826" s="2"/>
       <c r="D826" s="2"/>
       <c r="E826" s="2"/>
@@ -13672,7 +13702,7 @@
       <c r="N826" s="2"/>
       <c r="O826" s="2"/>
     </row>
-    <row r="827" spans="3:15">
+    <row r="827" spans="3:15" ht="12.75">
       <c r="C827" s="2"/>
       <c r="D827" s="2"/>
       <c r="E827" s="2"/>
@@ -13687,7 +13717,7 @@
       <c r="N827" s="2"/>
       <c r="O827" s="2"/>
     </row>
-    <row r="828" spans="3:15">
+    <row r="828" spans="3:15" ht="12.75">
       <c r="C828" s="2"/>
       <c r="D828" s="2"/>
       <c r="E828" s="2"/>
@@ -13702,7 +13732,7 @@
       <c r="N828" s="2"/>
       <c r="O828" s="2"/>
     </row>
-    <row r="829" spans="3:15">
+    <row r="829" spans="3:15" ht="12.75">
       <c r="C829" s="2"/>
       <c r="D829" s="2"/>
       <c r="E829" s="2"/>
@@ -13717,7 +13747,7 @@
       <c r="N829" s="2"/>
       <c r="O829" s="2"/>
     </row>
-    <row r="830" spans="3:15">
+    <row r="830" spans="3:15" ht="12.75">
       <c r="C830" s="2"/>
       <c r="D830" s="2"/>
       <c r="E830" s="2"/>
@@ -13732,7 +13762,7 @@
       <c r="N830" s="2"/>
       <c r="O830" s="2"/>
     </row>
-    <row r="831" spans="3:15">
+    <row r="831" spans="3:15" ht="12.75">
       <c r="C831" s="2"/>
       <c r="D831" s="2"/>
       <c r="E831" s="2"/>
@@ -13747,7 +13777,7 @@
       <c r="N831" s="2"/>
       <c r="O831" s="2"/>
     </row>
-    <row r="832" spans="3:15">
+    <row r="832" spans="3:15" ht="12.75">
       <c r="C832" s="2"/>
       <c r="D832" s="2"/>
       <c r="E832" s="2"/>
@@ -13762,7 +13792,7 @@
       <c r="N832" s="2"/>
       <c r="O832" s="2"/>
     </row>
-    <row r="833" spans="3:15">
+    <row r="833" spans="3:15" ht="12.75">
       <c r="C833" s="2"/>
       <c r="D833" s="2"/>
       <c r="E833" s="2"/>
@@ -13777,7 +13807,7 @@
       <c r="N833" s="2"/>
       <c r="O833" s="2"/>
     </row>
-    <row r="834" spans="3:15">
+    <row r="834" spans="3:15" ht="12.75">
       <c r="C834" s="2"/>
       <c r="D834" s="2"/>
       <c r="E834" s="2"/>
@@ -13792,7 +13822,7 @@
       <c r="N834" s="2"/>
       <c r="O834" s="2"/>
     </row>
-    <row r="835" spans="3:15">
+    <row r="835" spans="3:15" ht="12.75">
       <c r="C835" s="2"/>
       <c r="D835" s="2"/>
       <c r="E835" s="2"/>
@@ -13807,7 +13837,7 @@
       <c r="N835" s="2"/>
       <c r="O835" s="2"/>
     </row>
-    <row r="836" spans="3:15">
+    <row r="836" spans="3:15" ht="12.75">
       <c r="C836" s="2"/>
       <c r="D836" s="2"/>
       <c r="E836" s="2"/>
@@ -13822,7 +13852,7 @@
       <c r="N836" s="2"/>
       <c r="O836" s="2"/>
     </row>
-    <row r="837" spans="3:15">
+    <row r="837" spans="3:15" ht="12.75">
       <c r="C837" s="2"/>
       <c r="D837" s="2"/>
       <c r="E837" s="2"/>
@@ -13837,7 +13867,7 @@
       <c r="N837" s="2"/>
       <c r="O837" s="2"/>
     </row>
-    <row r="838" spans="3:15">
+    <row r="838" spans="3:15" ht="12.75">
       <c r="C838" s="2"/>
       <c r="D838" s="2"/>
       <c r="E838" s="2"/>
@@ -13852,7 +13882,7 @@
       <c r="N838" s="2"/>
       <c r="O838" s="2"/>
     </row>
-    <row r="839" spans="3:15">
+    <row r="839" spans="3:15" ht="12.75">
       <c r="C839" s="2"/>
       <c r="D839" s="2"/>
       <c r="E839" s="2"/>
@@ -13867,7 +13897,7 @@
       <c r="N839" s="2"/>
       <c r="O839" s="2"/>
     </row>
-    <row r="840" spans="3:15">
+    <row r="840" spans="3:15" ht="12.75">
       <c r="C840" s="2"/>
       <c r="D840" s="2"/>
       <c r="E840" s="2"/>
@@ -13882,7 +13912,7 @@
       <c r="N840" s="2"/>
       <c r="O840" s="2"/>
     </row>
-    <row r="841" spans="3:15">
+    <row r="841" spans="3:15" ht="12.75">
       <c r="C841" s="2"/>
       <c r="D841" s="2"/>
       <c r="E841" s="2"/>
@@ -13897,7 +13927,7 @@
       <c r="N841" s="2"/>
       <c r="O841" s="2"/>
     </row>
-    <row r="842" spans="3:15">
+    <row r="842" spans="3:15" ht="12.75">
       <c r="C842" s="2"/>
       <c r="D842" s="2"/>
       <c r="E842" s="2"/>
@@ -13912,7 +13942,7 @@
       <c r="N842" s="2"/>
       <c r="O842" s="2"/>
     </row>
-    <row r="843" spans="3:15">
+    <row r="843" spans="3:15" ht="12.75">
       <c r="C843" s="2"/>
       <c r="D843" s="2"/>
       <c r="E843" s="2"/>
@@ -13927,7 +13957,7 @@
       <c r="N843" s="2"/>
       <c r="O843" s="2"/>
     </row>
-    <row r="844" spans="3:15">
+    <row r="844" spans="3:15" ht="12.75">
       <c r="C844" s="2"/>
       <c r="D844" s="2"/>
       <c r="E844" s="2"/>
@@ -13942,7 +13972,7 @@
       <c r="N844" s="2"/>
       <c r="O844" s="2"/>
     </row>
-    <row r="845" spans="3:15">
+    <row r="845" spans="3:15" ht="12.75">
       <c r="C845" s="2"/>
       <c r="D845" s="2"/>
       <c r="E845" s="2"/>
@@ -13957,7 +13987,7 @@
       <c r="N845" s="2"/>
       <c r="O845" s="2"/>
     </row>
-    <row r="846" spans="3:15">
+    <row r="846" spans="3:15" ht="12.75">
       <c r="C846" s="2"/>
       <c r="D846" s="2"/>
       <c r="E846" s="2"/>
@@ -13972,7 +14002,7 @@
       <c r="N846" s="2"/>
       <c r="O846" s="2"/>
     </row>
-    <row r="847" spans="3:15">
+    <row r="847" spans="3:15" ht="12.75">
       <c r="C847" s="2"/>
       <c r="D847" s="2"/>
       <c r="E847" s="2"/>
@@ -13987,7 +14017,7 @@
       <c r="N847" s="2"/>
       <c r="O847" s="2"/>
     </row>
-    <row r="848" spans="3:15">
+    <row r="848" spans="3:15" ht="12.75">
       <c r="C848" s="2"/>
       <c r="D848" s="2"/>
       <c r="E848" s="2"/>
@@ -14002,7 +14032,7 @@
       <c r="N848" s="2"/>
       <c r="O848" s="2"/>
     </row>
-    <row r="849" spans="3:15">
+    <row r="849" spans="3:15" ht="12.75">
       <c r="C849" s="2"/>
       <c r="D849" s="2"/>
       <c r="E849" s="2"/>
@@ -14017,7 +14047,7 @@
       <c r="N849" s="2"/>
       <c r="O849" s="2"/>
     </row>
-    <row r="850" spans="3:15">
+    <row r="850" spans="3:15" ht="12.75">
       <c r="C850" s="2"/>
       <c r="D850" s="2"/>
       <c r="E850" s="2"/>
@@ -14032,7 +14062,7 @@
       <c r="N850" s="2"/>
       <c r="O850" s="2"/>
     </row>
-    <row r="851" spans="3:15">
+    <row r="851" spans="3:15" ht="12.75">
       <c r="C851" s="2"/>
       <c r="D851" s="2"/>
       <c r="E851" s="2"/>
@@ -14047,7 +14077,7 @@
       <c r="N851" s="2"/>
       <c r="O851" s="2"/>
     </row>
-    <row r="852" spans="3:15">
+    <row r="852" spans="3:15" ht="12.75">
       <c r="C852" s="2"/>
       <c r="D852" s="2"/>
       <c r="E852" s="2"/>
@@ -14062,7 +14092,7 @@
       <c r="N852" s="2"/>
       <c r="O852" s="2"/>
     </row>
-    <row r="853" spans="3:15">
+    <row r="853" spans="3:15" ht="12.75">
       <c r="C853" s="2"/>
       <c r="D853" s="2"/>
       <c r="E853" s="2"/>
@@ -14077,7 +14107,7 @@
       <c r="N853" s="2"/>
       <c r="O853" s="2"/>
     </row>
-    <row r="854" spans="3:15">
+    <row r="854" spans="3:15" ht="12.75">
       <c r="C854" s="2"/>
       <c r="D854" s="2"/>
       <c r="E854" s="2"/>
@@ -14092,7 +14122,7 @@
       <c r="N854" s="2"/>
       <c r="O854" s="2"/>
     </row>
-    <row r="855" spans="3:15">
+    <row r="855" spans="3:15" ht="12.75">
       <c r="C855" s="2"/>
       <c r="D855" s="2"/>
       <c r="E855" s="2"/>
@@ -14107,7 +14137,7 @@
       <c r="N855" s="2"/>
       <c r="O855" s="2"/>
     </row>
-    <row r="856" spans="3:15">
+    <row r="856" spans="3:15" ht="12.75">
       <c r="C856" s="2"/>
       <c r="D856" s="2"/>
       <c r="E856" s="2"/>
@@ -14122,7 +14152,7 @@
       <c r="N856" s="2"/>
       <c r="O856" s="2"/>
     </row>
-    <row r="857" spans="3:15">
+    <row r="857" spans="3:15" ht="12.75">
       <c r="C857" s="2"/>
       <c r="D857" s="2"/>
       <c r="E857" s="2"/>
@@ -14137,7 +14167,7 @@
       <c r="N857" s="2"/>
       <c r="O857" s="2"/>
     </row>
-    <row r="858" spans="3:15">
+    <row r="858" spans="3:15" ht="12.75">
       <c r="C858" s="2"/>
       <c r="D858" s="2"/>
       <c r="E858" s="2"/>
@@ -14152,7 +14182,7 @@
       <c r="N858" s="2"/>
       <c r="O858" s="2"/>
     </row>
-    <row r="859" spans="3:15">
+    <row r="859" spans="3:15" ht="12.75">
       <c r="C859" s="2"/>
       <c r="D859" s="2"/>
       <c r="E859" s="2"/>
@@ -14167,7 +14197,7 @@
       <c r="N859" s="2"/>
       <c r="O859" s="2"/>
     </row>
-    <row r="860" spans="3:15">
+    <row r="860" spans="3:15" ht="12.75">
       <c r="C860" s="2"/>
       <c r="D860" s="2"/>
       <c r="E860" s="2"/>
@@ -14182,7 +14212,7 @@
       <c r="N860" s="2"/>
       <c r="O860" s="2"/>
     </row>
-    <row r="861" spans="3:15">
+    <row r="861" spans="3:15" ht="12.75">
       <c r="C861" s="2"/>
       <c r="D861" s="2"/>
       <c r="E861" s="2"/>
@@ -14197,7 +14227,7 @@
       <c r="N861" s="2"/>
       <c r="O861" s="2"/>
     </row>
-    <row r="862" spans="3:15">
+    <row r="862" spans="3:15" ht="12.75">
       <c r="C862" s="2"/>
       <c r="D862" s="2"/>
       <c r="E862" s="2"/>
@@ -14212,7 +14242,7 @@
       <c r="N862" s="2"/>
       <c r="O862" s="2"/>
     </row>
-    <row r="863" spans="3:15">
+    <row r="863" spans="3:15" ht="12.75">
       <c r="C863" s="2"/>
       <c r="D863" s="2"/>
       <c r="E863" s="2"/>
@@ -14227,7 +14257,7 @@
       <c r="N863" s="2"/>
       <c r="O863" s="2"/>
     </row>
-    <row r="864" spans="3:15">
+    <row r="864" spans="3:15" ht="12.75">
       <c r="C864" s="2"/>
       <c r="D864" s="2"/>
       <c r="E864" s="2"/>
@@ -14242,7 +14272,7 @@
       <c r="N864" s="2"/>
       <c r="O864" s="2"/>
     </row>
-    <row r="865" spans="3:15">
+    <row r="865" spans="3:15" ht="12.75">
       <c r="C865" s="2"/>
       <c r="D865" s="2"/>
       <c r="E865" s="2"/>
@@ -14257,7 +14287,7 @@
       <c r="N865" s="2"/>
       <c r="O865" s="2"/>
     </row>
-    <row r="866" spans="3:15">
+    <row r="866" spans="3:15" ht="12.75">
       <c r="C866" s="2"/>
       <c r="D866" s="2"/>
       <c r="E866" s="2"/>
@@ -14272,7 +14302,7 @@
       <c r="N866" s="2"/>
       <c r="O866" s="2"/>
     </row>
-    <row r="867" spans="3:15">
+    <row r="867" spans="3:15" ht="12.75">
       <c r="C867" s="2"/>
       <c r="D867" s="2"/>
       <c r="E867" s="2"/>
@@ -14287,7 +14317,7 @@
       <c r="N867" s="2"/>
       <c r="O867" s="2"/>
     </row>
-    <row r="868" spans="3:15">
+    <row r="868" spans="3:15" ht="12.75">
       <c r="C868" s="2"/>
       <c r="D868" s="2"/>
       <c r="E868" s="2"/>
@@ -14302,7 +14332,7 @@
       <c r="N868" s="2"/>
       <c r="O868" s="2"/>
     </row>
-    <row r="869" spans="3:15">
+    <row r="869" spans="3:15" ht="12.75">
       <c r="C869" s="2"/>
       <c r="D869" s="2"/>
       <c r="E869" s="2"/>
@@ -14317,7 +14347,7 @@
       <c r="N869" s="2"/>
       <c r="O869" s="2"/>
     </row>
-    <row r="870" spans="3:15">
+    <row r="870" spans="3:15" ht="12.75">
       <c r="C870" s="2"/>
       <c r="D870" s="2"/>
       <c r="E870" s="2"/>
@@ -14332,7 +14362,7 @@
       <c r="N870" s="2"/>
       <c r="O870" s="2"/>
     </row>
-    <row r="871" spans="3:15">
+    <row r="871" spans="3:15" ht="12.75">
       <c r="C871" s="2"/>
       <c r="D871" s="2"/>
       <c r="E871" s="2"/>
@@ -14347,7 +14377,7 @@
       <c r="N871" s="2"/>
       <c r="O871" s="2"/>
     </row>
-    <row r="872" spans="3:15">
+    <row r="872" spans="3:15" ht="12.75">
       <c r="C872" s="2"/>
       <c r="D872" s="2"/>
       <c r="E872" s="2"/>
@@ -14362,7 +14392,7 @@
       <c r="N872" s="2"/>
       <c r="O872" s="2"/>
     </row>
-    <row r="873" spans="3:15">
+    <row r="873" spans="3:15" ht="12.75">
       <c r="C873" s="2"/>
       <c r="D873" s="2"/>
       <c r="E873" s="2"/>
@@ -14377,7 +14407,7 @@
       <c r="N873" s="2"/>
       <c r="O873" s="2"/>
     </row>
-    <row r="874" spans="3:15">
+    <row r="874" spans="3:15" ht="12.75">
       <c r="C874" s="2"/>
       <c r="D874" s="2"/>
       <c r="E874" s="2"/>
@@ -14392,7 +14422,7 @@
       <c r="N874" s="2"/>
       <c r="O874" s="2"/>
     </row>
-    <row r="875" spans="3:15">
+    <row r="875" spans="3:15" ht="12.75">
       <c r="C875" s="2"/>
       <c r="D875" s="2"/>
       <c r="E875" s="2"/>
@@ -14407,7 +14437,7 @@
       <c r="N875" s="2"/>
       <c r="O875" s="2"/>
     </row>
-    <row r="876" spans="3:15">
+    <row r="876" spans="3:15" ht="12.75">
       <c r="C876" s="2"/>
       <c r="D876" s="2"/>
       <c r="E876" s="2"/>
@@ -14422,7 +14452,7 @@
       <c r="N876" s="2"/>
       <c r="O876" s="2"/>
     </row>
-    <row r="877" spans="3:15">
+    <row r="877" spans="3:15" ht="12.75">
       <c r="C877" s="2"/>
       <c r="D877" s="2"/>
       <c r="E877" s="2"/>
@@ -14437,7 +14467,7 @@
       <c r="N877" s="2"/>
       <c r="O877" s="2"/>
     </row>
-    <row r="878" spans="3:15">
+    <row r="878" spans="3:15" ht="12.75">
       <c r="C878" s="2"/>
       <c r="D878" s="2"/>
       <c r="E878" s="2"/>
@@ -14452,7 +14482,7 @@
       <c r="N878" s="2"/>
       <c r="O878" s="2"/>
     </row>
-    <row r="879" spans="3:15">
+    <row r="879" spans="3:15" ht="12.75">
       <c r="C879" s="2"/>
       <c r="D879" s="2"/>
       <c r="E879" s="2"/>
@@ -14467,7 +14497,7 @@
       <c r="N879" s="2"/>
       <c r="O879" s="2"/>
     </row>
-    <row r="880" spans="3:15">
+    <row r="880" spans="3:15" ht="12.75">
       <c r="C880" s="2"/>
       <c r="D880" s="2"/>
       <c r="E880" s="2"/>
@@ -14482,7 +14512,7 @@
       <c r="N880" s="2"/>
       <c r="O880" s="2"/>
     </row>
-    <row r="881" spans="3:15">
+    <row r="881" spans="3:15" ht="12.75">
       <c r="C881" s="2"/>
       <c r="D881" s="2"/>
       <c r="E881" s="2"/>
@@ -14497,7 +14527,7 @@
       <c r="N881" s="2"/>
       <c r="O881" s="2"/>
     </row>
-    <row r="882" spans="3:15">
+    <row r="882" spans="3:15" ht="12.75">
       <c r="C882" s="2"/>
       <c r="D882" s="2"/>
       <c r="E882" s="2"/>
@@ -14512,7 +14542,7 @@
       <c r="N882" s="2"/>
       <c r="O882" s="2"/>
     </row>
-    <row r="883" spans="3:15">
+    <row r="883" spans="3:15" ht="12.75">
       <c r="C883" s="2"/>
       <c r="D883" s="2"/>
       <c r="E883" s="2"/>
@@ -14527,7 +14557,7 @@
       <c r="N883" s="2"/>
       <c r="O883" s="2"/>
     </row>
-    <row r="884" spans="3:15">
+    <row r="884" spans="3:15" ht="12.75">
       <c r="C884" s="2"/>
       <c r="D884" s="2"/>
       <c r="E884" s="2"/>
@@ -14542,7 +14572,7 @@
       <c r="N884" s="2"/>
       <c r="O884" s="2"/>
     </row>
-    <row r="885" spans="3:15">
+    <row r="885" spans="3:15" ht="12.75">
       <c r="C885" s="2"/>
       <c r="D885" s="2"/>
       <c r="E885" s="2"/>
@@ -14557,7 +14587,7 @@
       <c r="N885" s="2"/>
       <c r="O885" s="2"/>
     </row>
-    <row r="886" spans="3:15">
+    <row r="886" spans="3:15" ht="12.75">
       <c r="C886" s="2"/>
       <c r="D886" s="2"/>
       <c r="E886" s="2"/>
@@ -14572,7 +14602,7 @@
       <c r="N886" s="2"/>
       <c r="O886" s="2"/>
     </row>
-    <row r="887" spans="3:15">
+    <row r="887" spans="3:15" ht="12.75">
       <c r="C887" s="2"/>
       <c r="D887" s="2"/>
       <c r="E887" s="2"/>
@@ -14587,7 +14617,7 @@
       <c r="N887" s="2"/>
       <c r="O887" s="2"/>
     </row>
-    <row r="888" spans="3:15">
+    <row r="888" spans="3:15" ht="12.75">
       <c r="C888" s="2"/>
       <c r="D888" s="2"/>
       <c r="E888" s="2"/>
@@ -14602,7 +14632,7 @@
       <c r="N888" s="2"/>
       <c r="O888" s="2"/>
     </row>
-    <row r="889" spans="3:15">
+    <row r="889" spans="3:15" ht="12.75">
       <c r="C889" s="2"/>
       <c r="D889" s="2"/>
       <c r="E889" s="2"/>
@@ -14617,7 +14647,7 @@
       <c r="N889" s="2"/>
       <c r="O889" s="2"/>
     </row>
-    <row r="890" spans="3:15">
+    <row r="890" spans="3:15" ht="12.75">
       <c r="C890" s="2"/>
       <c r="D890" s="2"/>
       <c r="E890" s="2"/>
@@ -14632,7 +14662,7 @@
       <c r="N890" s="2"/>
       <c r="O890" s="2"/>
     </row>
-    <row r="891" spans="3:15">
+    <row r="891" spans="3:15" ht="12.75">
       <c r="C891" s="2"/>
       <c r="D891" s="2"/>
       <c r="E891" s="2"/>
@@ -14647,7 +14677,7 @@
       <c r="N891" s="2"/>
       <c r="O891" s="2"/>
     </row>
-    <row r="892" spans="3:15">
+    <row r="892" spans="3:15" ht="12.75">
       <c r="C892" s="2"/>
       <c r="D892" s="2"/>
       <c r="E892" s="2"/>
@@ -14662,7 +14692,7 @@
       <c r="N892" s="2"/>
       <c r="O892" s="2"/>
     </row>
-    <row r="893" spans="3:15">
+    <row r="893" spans="3:15" ht="12.75">
       <c r="C893" s="2"/>
       <c r="D893" s="2"/>
       <c r="E893" s="2"/>
@@ -14677,7 +14707,7 @@
       <c r="N893" s="2"/>
       <c r="O893" s="2"/>
     </row>
-    <row r="894" spans="3:15">
+    <row r="894" spans="3:15" ht="12.75">
       <c r="C894" s="2"/>
       <c r="D894" s="2"/>
       <c r="E894" s="2"/>
@@ -14692,7 +14722,7 @@
       <c r="N894" s="2"/>
       <c r="O894" s="2"/>
     </row>
-    <row r="895" spans="3:15">
+    <row r="895" spans="3:15" ht="12.75">
       <c r="C895" s="2"/>
       <c r="D895" s="2"/>
       <c r="E895" s="2"/>
@@ -14707,7 +14737,7 @@
       <c r="N895" s="2"/>
       <c r="O895" s="2"/>
     </row>
-    <row r="896" spans="3:15">
+    <row r="896" spans="3:15" ht="12.75">
       <c r="C896" s="2"/>
       <c r="D896" s="2"/>
       <c r="E896" s="2"/>
@@ -14722,7 +14752,7 @@
       <c r="N896" s="2"/>
       <c r="O896" s="2"/>
     </row>
-    <row r="897" spans="3:15">
+    <row r="897" spans="3:15" ht="12.75">
       <c r="C897" s="2"/>
       <c r="D897" s="2"/>
       <c r="E897" s="2"/>
@@ -14737,7 +14767,7 @@
       <c r="N897" s="2"/>
       <c r="O897" s="2"/>
     </row>
-    <row r="898" spans="3:15">
+    <row r="898" spans="3:15" ht="12.75">
       <c r="C898" s="2"/>
       <c r="D898" s="2"/>
       <c r="E898" s="2"/>
@@ -14752,7 +14782,7 @@
       <c r="N898" s="2"/>
       <c r="O898" s="2"/>
     </row>
-    <row r="899" spans="3:15">
+    <row r="899" spans="3:15" ht="12.75">
       <c r="C899" s="2"/>
       <c r="D899" s="2"/>
       <c r="E899" s="2"/>
@@ -14767,7 +14797,7 @@
       <c r="N899" s="2"/>
       <c r="O899" s="2"/>
     </row>
-    <row r="900" spans="3:15">
+    <row r="900" spans="3:15" ht="12.75">
       <c r="C900" s="2"/>
       <c r="D900" s="2"/>
       <c r="E900" s="2"/>
@@ -14782,7 +14812,7 @@
       <c r="N900" s="2"/>
       <c r="O900" s="2"/>
     </row>
-    <row r="901" spans="3:15">
+    <row r="901" spans="3:15" ht="12.75">
       <c r="C901" s="2"/>
       <c r="D901" s="2"/>
       <c r="E901" s="2"/>
@@ -14797,7 +14827,7 @@
       <c r="N901" s="2"/>
       <c r="O901" s="2"/>
     </row>
-    <row r="902" spans="3:15">
+    <row r="902" spans="3:15" ht="12.75">
       <c r="C902" s="2"/>
       <c r="D902" s="2"/>
       <c r="E902" s="2"/>
@@ -14812,7 +14842,7 @@
       <c r="N902" s="2"/>
       <c r="O902" s="2"/>
     </row>
-    <row r="903" spans="3:15">
+    <row r="903" spans="3:15" ht="12.75">
       <c r="C903" s="2"/>
       <c r="D903" s="2"/>
       <c r="E903" s="2"/>
@@ -14827,7 +14857,7 @@
       <c r="N903" s="2"/>
       <c r="O903" s="2"/>
     </row>
-    <row r="904" spans="3:15">
+    <row r="904" spans="3:15" ht="12.75">
       <c r="C904" s="2"/>
       <c r="D904" s="2"/>
       <c r="E904" s="2"/>
@@ -14842,7 +14872,7 @@
       <c r="N904" s="2"/>
       <c r="O904" s="2"/>
     </row>
-    <row r="905" spans="3:15">
+    <row r="905" spans="3:15" ht="12.75">
       <c r="C905" s="2"/>
       <c r="D905" s="2"/>
       <c r="E905" s="2"/>
@@ -14857,7 +14887,7 @@
       <c r="N905" s="2"/>
       <c r="O905" s="2"/>
     </row>
-    <row r="906" spans="3:15">
+    <row r="906" spans="3:15" ht="12.75">
       <c r="C906" s="2"/>
       <c r="D906" s="2"/>
       <c r="E906" s="2"/>
@@ -14872,7 +14902,7 @@
       <c r="N906" s="2"/>
       <c r="O906" s="2"/>
     </row>
-    <row r="907" spans="3:15">
+    <row r="907" spans="3:15" ht="12.75">
       <c r="C907" s="2"/>
       <c r="D907" s="2"/>
       <c r="E907" s="2"/>
@@ -14887,7 +14917,7 @@
       <c r="N907" s="2"/>
       <c r="O907" s="2"/>
     </row>
-    <row r="908" spans="3:15">
+    <row r="908" spans="3:15" ht="12.75">
       <c r="C908" s="2"/>
       <c r="D908" s="2"/>
       <c r="E908" s="2"/>
@@ -14902,7 +14932,7 @@
       <c r="N908" s="2"/>
       <c r="O908" s="2"/>
     </row>
-    <row r="909" spans="3:15">
+    <row r="909" spans="3:15" ht="12.75">
       <c r="C909" s="2"/>
       <c r="D909" s="2"/>
       <c r="E909" s="2"/>
@@ -14917,7 +14947,7 @@
       <c r="N909" s="2"/>
       <c r="O909" s="2"/>
     </row>
-    <row r="910" spans="3:15">
+    <row r="910" spans="3:15" ht="12.75">
       <c r="C910" s="2"/>
       <c r="D910" s="2"/>
       <c r="E910" s="2"/>
@@ -14932,7 +14962,7 @@
       <c r="N910" s="2"/>
       <c r="O910" s="2"/>
     </row>
-    <row r="911" spans="3:15">
+    <row r="911" spans="3:15" ht="12.75">
       <c r="C911" s="2"/>
       <c r="D911" s="2"/>
       <c r="E911" s="2"/>
@@ -14947,7 +14977,7 @@
       <c r="N911" s="2"/>
       <c r="O911" s="2"/>
     </row>
-    <row r="912" spans="3:15">
+    <row r="912" spans="3:15" ht="12.75">
       <c r="C912" s="2"/>
       <c r="D912" s="2"/>
       <c r="E912" s="2"/>
@@ -14962,7 +14992,7 @@
       <c r="N912" s="2"/>
       <c r="O912" s="2"/>
     </row>
-    <row r="913" spans="3:15">
+    <row r="913" spans="3:15" ht="12.75">
       <c r="C913" s="2"/>
       <c r="D913" s="2"/>
       <c r="E913" s="2"/>
@@ -14977,7 +15007,7 @@
       <c r="N913" s="2"/>
       <c r="O913" s="2"/>
     </row>
-    <row r="914" spans="3:15">
+    <row r="914" spans="3:15" ht="12.75">
       <c r="C914" s="2"/>
       <c r="D914" s="2"/>
       <c r="E914" s="2"/>
@@ -14992,7 +15022,7 @@
       <c r="N914" s="2"/>
       <c r="O914" s="2"/>
     </row>
-    <row r="915" spans="3:15">
+    <row r="915" spans="3:15" ht="12.75">
       <c r="C915" s="2"/>
       <c r="D915" s="2"/>
       <c r="E915" s="2"/>
@@ -15007,7 +15037,7 @@
       <c r="N915" s="2"/>
       <c r="O915" s="2"/>
     </row>
-    <row r="916" spans="3:15">
+    <row r="916" spans="3:15" ht="12.75">
       <c r="C916" s="2"/>
       <c r="D916" s="2"/>
       <c r="E916" s="2"/>
@@ -15022,7 +15052,7 @@
       <c r="N916" s="2"/>
       <c r="O916" s="2"/>
     </row>
-    <row r="917" spans="3:15">
+    <row r="917" spans="3:15" ht="12.75">
       <c r="C917" s="2"/>
       <c r="D917" s="2"/>
       <c r="E917" s="2"/>
@@ -15037,7 +15067,7 @@
       <c r="N917" s="2"/>
       <c r="O917" s="2"/>
     </row>
-    <row r="918" spans="3:15">
+    <row r="918" spans="3:15" ht="12.75">
       <c r="C918" s="2"/>
       <c r="D918" s="2"/>
       <c r="E918" s="2"/>
@@ -15052,7 +15082,7 @@
       <c r="N918" s="2"/>
       <c r="O918" s="2"/>
     </row>
-    <row r="919" spans="3:15">
+    <row r="919" spans="3:15" ht="12.75">
       <c r="C919" s="2"/>
       <c r="D919" s="2"/>
       <c r="E919" s="2"/>
@@ -15067,7 +15097,7 @@
       <c r="N919" s="2"/>
       <c r="O919" s="2"/>
     </row>
-    <row r="920" spans="3:15">
+    <row r="920" spans="3:15" ht="12.75">
       <c r="C920" s="2"/>
       <c r="D920" s="2"/>
       <c r="E920" s="2"/>
@@ -15082,7 +15112,7 @@
       <c r="N920" s="2"/>
       <c r="O920" s="2"/>
     </row>
-    <row r="921" spans="3:15">
+    <row r="921" spans="3:15" ht="12.75">
       <c r="C921" s="2"/>
       <c r="D921" s="2"/>
       <c r="E921" s="2"/>
@@ -15097,7 +15127,7 @@
       <c r="N921" s="2"/>
       <c r="O921" s="2"/>
     </row>
-    <row r="922" spans="3:15">
+    <row r="922" spans="3:15" ht="12.75">
       <c r="C922" s="2"/>
       <c r="D922" s="2"/>
       <c r="E922" s="2"/>
@@ -15112,7 +15142,7 @@
       <c r="N922" s="2"/>
       <c r="O922" s="2"/>
     </row>
-    <row r="923" spans="3:15">
+    <row r="923" spans="3:15" ht="12.75">
       <c r="C923" s="2"/>
       <c r="D923" s="2"/>
       <c r="E923" s="2"/>
@@ -15127,7 +15157,7 @@
       <c r="N923" s="2"/>
       <c r="O923" s="2"/>
     </row>
-    <row r="924" spans="3:15">
+    <row r="924" spans="3:15" ht="12.75">
       <c r="C924" s="2"/>
       <c r="D924" s="2"/>
       <c r="E924" s="2"/>
@@ -15142,7 +15172,7 @@
       <c r="N924" s="2"/>
       <c r="O924" s="2"/>
     </row>
-    <row r="925" spans="3:15">
+    <row r="925" spans="3:15" ht="12.75">
       <c r="C925" s="2"/>
       <c r="D925" s="2"/>
       <c r="E925" s="2"/>
@@ -15157,7 +15187,7 @@
       <c r="N925" s="2"/>
       <c r="O925" s="2"/>
     </row>
-    <row r="926" spans="3:15">
+    <row r="926" spans="3:15" ht="12.75">
       <c r="C926" s="2"/>
       <c r="D926" s="2"/>
       <c r="E926" s="2"/>
@@ -15172,7 +15202,7 @@
       <c r="N926" s="2"/>
       <c r="O926" s="2"/>
     </row>
-    <row r="927" spans="3:15">
+    <row r="927" spans="3:15" ht="12.75">
       <c r="C927" s="2"/>
       <c r="D927" s="2"/>
       <c r="E927" s="2"/>
@@ -15187,7 +15217,7 @@
       <c r="N927" s="2"/>
       <c r="O927" s="2"/>
     </row>
-    <row r="928" spans="3:15">
+    <row r="928" spans="3:15" ht="12.75">
       <c r="C928" s="2"/>
       <c r="D928" s="2"/>
       <c r="E928" s="2"/>
@@ -15202,7 +15232,7 @@
       <c r="N928" s="2"/>
       <c r="O928" s="2"/>
     </row>
-    <row r="929" spans="3:15">
+    <row r="929" spans="3:15" ht="12.75">
       <c r="C929" s="2"/>
       <c r="D929" s="2"/>
       <c r="E929" s="2"/>
@@ -15217,7 +15247,7 @@
       <c r="N929" s="2"/>
       <c r="O929" s="2"/>
     </row>
-    <row r="930" spans="3:15">
+    <row r="930" spans="3:15" ht="12.75">
       <c r="C930" s="2"/>
       <c r="D930" s="2"/>
       <c r="E930" s="2"/>
@@ -15232,7 +15262,7 @@
       <c r="N930" s="2"/>
       <c r="O930" s="2"/>
     </row>
-    <row r="931" spans="3:15">
+    <row r="931" spans="3:15" ht="12.75">
       <c r="C931" s="2"/>
       <c r="D931" s="2"/>
       <c r="E931" s="2"/>
@@ -15247,7 +15277,7 @@
       <c r="N931" s="2"/>
       <c r="O931" s="2"/>
     </row>
-    <row r="932" spans="3:15">
+    <row r="932" spans="3:15" ht="12.75">
       <c r="C932" s="2"/>
       <c r="D932" s="2"/>
       <c r="E932" s="2"/>
@@ -15262,7 +15292,7 @@
       <c r="N932" s="2"/>
       <c r="O932" s="2"/>
     </row>
-    <row r="933" spans="3:15">
+    <row r="933" spans="3:15" ht="12.75">
       <c r="C933" s="2"/>
       <c r="D933" s="2"/>
       <c r="E933" s="2"/>
@@ -15277,7 +15307,7 @@
       <c r="N933" s="2"/>
       <c r="O933" s="2"/>
     </row>
-    <row r="934" spans="3:15">
+    <row r="934" spans="3:15" ht="12.75">
       <c r="C934" s="2"/>
       <c r="D934" s="2"/>
       <c r="E934" s="2"/>
@@ -15292,7 +15322,7 @@
       <c r="N934" s="2"/>
       <c r="O934" s="2"/>
     </row>
-    <row r="935" spans="3:15">
+    <row r="935" spans="3:15" ht="12.75">
       <c r="C935" s="2"/>
       <c r="D935" s="2"/>
       <c r="E935" s="2"/>
@@ -15307,7 +15337,7 @@
       <c r="N935" s="2"/>
       <c r="O935" s="2"/>
     </row>
-    <row r="936" spans="3:15">
+    <row r="936" spans="3:15" ht="12.75">
       <c r="C936" s="2"/>
       <c r="D936" s="2"/>
       <c r="E936" s="2"/>
@@ -15322,7 +15352,7 @@
       <c r="N936" s="2"/>
       <c r="O936" s="2"/>
     </row>
-    <row r="937" spans="3:15">
+    <row r="937" spans="3:15" ht="12.75">
       <c r="C937" s="2"/>
       <c r="D937" s="2"/>
       <c r="E937" s="2"/>
@@ -15337,7 +15367,7 @@
       <c r="N937" s="2"/>
       <c r="O937" s="2"/>
     </row>
-    <row r="938" spans="3:15">
+    <row r="938" spans="3:15" ht="12.75">
       <c r="C938" s="2"/>
       <c r="D938" s="2"/>
       <c r="E938" s="2"/>
@@ -15352,7 +15382,7 @@
       <c r="N938" s="2"/>
       <c r="O938" s="2"/>
     </row>
-    <row r="939" spans="3:15">
+    <row r="939" spans="3:15" ht="12.75">
       <c r="C939" s="2"/>
       <c r="D939" s="2"/>
       <c r="E939" s="2"/>
@@ -15367,7 +15397,7 @@
       <c r="N939" s="2"/>
       <c r="O939" s="2"/>
     </row>
-    <row r="940" spans="3:15">
+    <row r="940" spans="3:15" ht="12.75">
       <c r="C940" s="2"/>
       <c r="D940" s="2"/>
       <c r="E940" s="2"/>
@@ -15382,7 +15412,7 @@
       <c r="N940" s="2"/>
       <c r="O940" s="2"/>
     </row>
-    <row r="941" spans="3:15">
+    <row r="941" spans="3:15" ht="12.75">
       <c r="C941" s="2"/>
       <c r="D941" s="2"/>
       <c r="E941" s="2"/>
@@ -15397,7 +15427,7 @@
       <c r="N941" s="2"/>
       <c r="O941" s="2"/>
     </row>
-    <row r="942" spans="3:15">
+    <row r="942" spans="3:15" ht="12.75">
       <c r="C942" s="2"/>
       <c r="D942" s="2"/>
       <c r="E942" s="2"/>
@@ -15412,7 +15442,7 @@
       <c r="N942" s="2"/>
       <c r="O942" s="2"/>
     </row>
-    <row r="943" spans="3:15">
+    <row r="943" spans="3:15" ht="12.75">
       <c r="C943" s="2"/>
       <c r="D943" s="2"/>
       <c r="E943" s="2"/>
@@ -15427,7 +15457,7 @@
       <c r="N943" s="2"/>
       <c r="O943" s="2"/>
     </row>
-    <row r="944" spans="3:15">
+    <row r="944" spans="3:15" ht="12.75">
       <c r="C944" s="2"/>
       <c r="D944" s="2"/>
       <c r="E944" s="2"/>
@@ -15442,7 +15472,7 @@
       <c r="N944" s="2"/>
       <c r="O944" s="2"/>
     </row>
-    <row r="945" spans="3:15">
+    <row r="945" spans="3:15" ht="12.75">
       <c r="C945" s="2"/>
       <c r="D945" s="2"/>
       <c r="E945" s="2"/>
@@ -15457,7 +15487,7 @@
       <c r="N945" s="2"/>
       <c r="O945" s="2"/>
     </row>
-    <row r="946" spans="3:15">
+    <row r="946" spans="3:15" ht="12.75">
       <c r="C946" s="2"/>
       <c r="D946" s="2"/>
       <c r="E946" s="2"/>
@@ -15472,7 +15502,7 @@
       <c r="N946" s="2"/>
       <c r="O946" s="2"/>
     </row>
-    <row r="947" spans="3:15">
+    <row r="947" spans="3:15" ht="12.75">
       <c r="C947" s="2"/>
       <c r="D947" s="2"/>
       <c r="E947" s="2"/>
@@ -15487,7 +15517,7 @@
       <c r="N947" s="2"/>
       <c r="O947" s="2"/>
     </row>
-    <row r="948" spans="3:15">
+    <row r="948" spans="3:15" ht="12.75">
       <c r="C948" s="2"/>
       <c r="D948" s="2"/>
       <c r="E948" s="2"/>
@@ -15502,7 +15532,7 @@
       <c r="N948" s="2"/>
       <c r="O948" s="2"/>
     </row>
-    <row r="949" spans="3:15">
+    <row r="949" spans="3:15" ht="12.75">
       <c r="C949" s="2"/>
       <c r="D949" s="2"/>
       <c r="E949" s="2"/>
@@ -15517,7 +15547,7 @@
       <c r="N949" s="2"/>
       <c r="O949" s="2"/>
     </row>
-    <row r="950" spans="3:15">
+    <row r="950" spans="3:15" ht="12.75">
       <c r="C950" s="2"/>
       <c r="D950" s="2"/>
       <c r="E950" s="2"/>
@@ -15532,7 +15562,7 @@
       <c r="N950" s="2"/>
       <c r="O950" s="2"/>
     </row>
-    <row r="951" spans="3:15">
+    <row r="951" spans="3:15" ht="12.75">
       <c r="C951" s="2"/>
       <c r="D951" s="2"/>
       <c r="E951" s="2"/>
@@ -15547,7 +15577,7 @@
       <c r="N951" s="2"/>
       <c r="O951" s="2"/>
     </row>
-    <row r="952" spans="3:15">
+    <row r="952" spans="3:15" ht="12.75">
       <c r="C952" s="2"/>
       <c r="D952" s="2"/>
       <c r="E952" s="2"/>
@@ -15562,7 +15592,7 @@
       <c r="N952" s="2"/>
       <c r="O952" s="2"/>
     </row>
-    <row r="953" spans="3:15">
+    <row r="953" spans="3:15" ht="12.75">
       <c r="C953" s="2"/>
       <c r="D953" s="2"/>
       <c r="E953" s="2"/>
@@ -15577,7 +15607,7 @@
       <c r="N953" s="2"/>
       <c r="O953" s="2"/>
     </row>
-    <row r="954" spans="3:15">
+    <row r="954" spans="3:15" ht="12.75">
       <c r="C954" s="2"/>
       <c r="D954" s="2"/>
       <c r="E954" s="2"/>
@@ -15592,7 +15622,7 @@
       <c r="N954" s="2"/>
       <c r="O954" s="2"/>
     </row>
-    <row r="955" spans="3:15">
+    <row r="955" spans="3:15" ht="12.75">
       <c r="C955" s="2"/>
       <c r="D955" s="2"/>
       <c r="E955" s="2"/>
@@ -15607,7 +15637,7 @@
       <c r="N955" s="2"/>
       <c r="O955" s="2"/>
     </row>
-    <row r="956" spans="3:15">
+    <row r="956" spans="3:15" ht="12.75">
       <c r="C956" s="2"/>
       <c r="D956" s="2"/>
       <c r="E956" s="2"/>
@@ -15622,7 +15652,7 @@
       <c r="N956" s="2"/>
       <c r="O956" s="2"/>
     </row>
-    <row r="957" spans="3:15">
+    <row r="957" spans="3:15" ht="12.75">
       <c r="C957" s="2"/>
       <c r="D957" s="2"/>
       <c r="E957" s="2"/>
@@ -15637,7 +15667,7 @@
       <c r="N957" s="2"/>
       <c r="O957" s="2"/>
     </row>
-    <row r="958" spans="3:15">
+    <row r="958" spans="3:15" ht="12.75">
       <c r="C958" s="2"/>
       <c r="D958" s="2"/>
       <c r="E958" s="2"/>
@@ -15652,7 +15682,7 @@
       <c r="N958" s="2"/>
       <c r="O958" s="2"/>
     </row>
-    <row r="959" spans="3:15">
+    <row r="959" spans="3:15" ht="12.75">
       <c r="C959" s="2"/>
       <c r="D959" s="2"/>
       <c r="E959" s="2"/>
@@ -15667,7 +15697,7 @@
       <c r="N959" s="2"/>
       <c r="O959" s="2"/>
     </row>
-    <row r="960" spans="3:15">
+    <row r="960" spans="3:15" ht="12.75">
       <c r="C960" s="2"/>
       <c r="D960" s="2"/>
       <c r="E960" s="2"/>
@@ -15682,7 +15712,7 @@
       <c r="N960" s="2"/>
       <c r="O960" s="2"/>
     </row>
-    <row r="961" spans="3:15">
+    <row r="961" spans="3:15" ht="12.75">
       <c r="C961" s="2"/>
       <c r="D961" s="2"/>
       <c r="E961" s="2"/>
@@ -15697,7 +15727,7 @@
       <c r="N961" s="2"/>
       <c r="O961" s="2"/>
     </row>
-    <row r="962" spans="3:15">
+    <row r="962" spans="3:15" ht="12.75">
       <c r="C962" s="2"/>
       <c r="D962" s="2"/>
       <c r="E962" s="2"/>
@@ -15712,7 +15742,7 @@
       <c r="N962" s="2"/>
       <c r="O962" s="2"/>
     </row>
-    <row r="963" spans="3:15">
+    <row r="963" spans="3:15" ht="12.75">
       <c r="C963" s="2"/>
       <c r="D963" s="2"/>
       <c r="E963" s="2"/>
@@ -15727,7 +15757,7 @@
       <c r="N963" s="2"/>
       <c r="O963" s="2"/>
     </row>
-    <row r="964" spans="3:15">
+    <row r="964" spans="3:15" ht="12.75">
       <c r="C964" s="2"/>
       <c r="D964" s="2"/>
       <c r="E964" s="2"/>
@@ -15742,7 +15772,7 @@
       <c r="N964" s="2"/>
       <c r="O964" s="2"/>
     </row>
-    <row r="965" spans="3:15">
+    <row r="965" spans="3:15" ht="12.75">
       <c r="C965" s="2"/>
       <c r="D965" s="2"/>
       <c r="E965" s="2"/>
@@ -15757,7 +15787,7 @@
       <c r="N965" s="2"/>
       <c r="O965" s="2"/>
     </row>
-    <row r="966" spans="3:15">
+    <row r="966" spans="3:15" ht="12.75">
       <c r="C966" s="2"/>
       <c r="D966" s="2"/>
       <c r="E966" s="2"/>
@@ -15772,7 +15802,7 @@
       <c r="N966" s="2"/>
       <c r="O966" s="2"/>
     </row>
-    <row r="967" spans="3:15">
+    <row r="967" spans="3:15" ht="12.75">
       <c r="C967" s="2"/>
       <c r="D967" s="2"/>
       <c r="E967" s="2"/>
@@ -15787,7 +15817,7 @@
       <c r="N967" s="2"/>
       <c r="O967" s="2"/>
     </row>
-    <row r="968" spans="3:15">
+    <row r="968" spans="3:15" ht="12.75">
       <c r="C968" s="2"/>
       <c r="D968" s="2"/>
       <c r="E968" s="2"/>
@@ -15802,7 +15832,7 @@
       <c r="N968" s="2"/>
       <c r="O968" s="2"/>
     </row>
-    <row r="969" spans="3:15">
+    <row r="969" spans="3:15" ht="12.75">
       <c r="C969" s="2"/>
       <c r="D969" s="2"/>
       <c r="E969" s="2"/>
@@ -15817,7 +15847,7 @@
       <c r="N969" s="2"/>
       <c r="O969" s="2"/>
     </row>
-    <row r="970" spans="3:15">
+    <row r="970" spans="3:15" ht="12.75">
       <c r="C970" s="2"/>
       <c r="D970" s="2"/>
       <c r="E970" s="2"/>
@@ -15832,7 +15862,7 @@
       <c r="N970" s="2"/>
       <c r="O970" s="2"/>
     </row>
-    <row r="971" spans="3:15">
+    <row r="971" spans="3:15" ht="12.75">
       <c r="C971" s="2"/>
       <c r="D971" s="2"/>
       <c r="E971" s="2"/>
@@ -15847,7 +15877,7 @@
       <c r="N971" s="2"/>
       <c r="O971" s="2"/>
     </row>
-    <row r="972" spans="3:15">
+    <row r="972" spans="3:15" ht="12.75">
       <c r="C972" s="2"/>
       <c r="D972" s="2"/>
       <c r="E972" s="2"/>
@@ -15862,7 +15892,7 @@
       <c r="N972" s="2"/>
       <c r="O972" s="2"/>
     </row>
-    <row r="973" spans="3:15">
+    <row r="973" spans="3:15" ht="12.75">
       <c r="C973" s="2"/>
       <c r="D973" s="2"/>
       <c r="E973" s="2"/>
@@ -15877,7 +15907,7 @@
       <c r="N973" s="2"/>
       <c r="O973" s="2"/>
     </row>
-    <row r="974" spans="3:15">
+    <row r="974" spans="3:15" ht="12.75">
       <c r="C974" s="2"/>
       <c r="D974" s="2"/>
       <c r="E974" s="2"/>
@@ -15892,7 +15922,7 @@
       <c r="N974" s="2"/>
       <c r="O974" s="2"/>
     </row>
-    <row r="975" spans="3:15">
+    <row r="975" spans="3:15" ht="12.75">
       <c r="C975" s="2"/>
       <c r="D975" s="2"/>
       <c r="E975" s="2"/>
@@ -15907,7 +15937,7 @@
       <c r="N975" s="2"/>
       <c r="O975" s="2"/>
     </row>
-    <row r="976" spans="3:15">
+    <row r="976" spans="3:15" ht="12.75">
       <c r="C976" s="2"/>
       <c r="D976" s="2"/>
       <c r="E976" s="2"/>
@@ -15922,7 +15952,7 @@
       <c r="N976" s="2"/>
       <c r="O976" s="2"/>
     </row>
-    <row r="977" spans="3:15">
+    <row r="977" spans="3:15" ht="12.75">
       <c r="C977" s="2"/>
       <c r="D977" s="2"/>
       <c r="E977" s="2"/>
@@ -15937,7 +15967,7 @@
       <c r="N977" s="2"/>
       <c r="O977" s="2"/>
     </row>
-    <row r="978" spans="3:15">
+    <row r="978" spans="3:15" ht="12.75">
       <c r="C978" s="2"/>
       <c r="D978" s="2"/>
       <c r="E978" s="2"/>
@@ -15952,7 +15982,7 @@
       <c r="N978" s="2"/>
       <c r="O978" s="2"/>
     </row>
-    <row r="979" spans="3:15">
+    <row r="979" spans="3:15" ht="12.75">
       <c r="C979" s="2"/>
       <c r="D979" s="2"/>
       <c r="E979" s="2"/>
@@ -15967,7 +15997,7 @@
       <c r="N979" s="2"/>
       <c r="O979" s="2"/>
     </row>
-    <row r="980" spans="3:15">
+    <row r="980" spans="3:15" ht="12.75">
       <c r="C980" s="2"/>
       <c r="D980" s="2"/>
       <c r="E980" s="2"/>
@@ -15982,7 +16012,7 @@
       <c r="N980" s="2"/>
       <c r="O980" s="2"/>
     </row>
-    <row r="981" spans="3:15">
+    <row r="981" spans="3:15" ht="12.75">
       <c r="C981" s="2"/>
       <c r="D981" s="2"/>
       <c r="E981" s="2"/>
@@ -15997,7 +16027,7 @@
       <c r="N981" s="2"/>
       <c r="O981" s="2"/>
     </row>
-    <row r="982" spans="3:15">
+    <row r="982" spans="3:15" ht="12.75">
       <c r="C982" s="2"/>
       <c r="D982" s="2"/>
       <c r="E982" s="2"/>
@@ -16012,7 +16042,7 @@
       <c r="N982" s="2"/>
       <c r="O982" s="2"/>
     </row>
-    <row r="983" spans="3:15">
+    <row r="983" spans="3:15" ht="12.75">
       <c r="C983" s="2"/>
       <c r="D983" s="2"/>
       <c r="E983" s="2"/>
@@ -16027,7 +16057,7 @@
       <c r="N983" s="2"/>
       <c r="O983" s="2"/>
     </row>
-    <row r="984" spans="3:15">
+    <row r="984" spans="3:15" ht="12.75">
       <c r="C984" s="2"/>
       <c r="D984" s="2"/>
       <c r="E984" s="2"/>
@@ -16042,7 +16072,7 @@
       <c r="N984" s="2"/>
       <c r="O984" s="2"/>
     </row>
-    <row r="985" spans="3:15">
+    <row r="985" spans="3:15" ht="12.75">
       <c r="C985" s="2"/>
       <c r="D985" s="2"/>
       <c r="E985" s="2"/>
@@ -16057,7 +16087,7 @@
       <c r="N985" s="2"/>
       <c r="O985" s="2"/>
     </row>
-    <row r="986" spans="3:15">
+    <row r="986" spans="3:15" ht="12.75">
       <c r="C986" s="2"/>
       <c r="D986" s="2"/>
       <c r="E986" s="2"/>
@@ -16072,7 +16102,7 @@
       <c r="N986" s="2"/>
       <c r="O986" s="2"/>
     </row>
-    <row r="987" spans="3:15">
+    <row r="987" spans="3:15" ht="12.75">
       <c r="C987" s="2"/>
       <c r="D987" s="2"/>
       <c r="E987" s="2"/>
@@ -16087,7 +16117,7 @@
       <c r="N987" s="2"/>
       <c r="O987" s="2"/>
     </row>
-    <row r="988" spans="3:15">
+    <row r="988" spans="3:15" ht="12.75">
       <c r="C988" s="2"/>
       <c r="D988" s="2"/>
       <c r="E988" s="2"/>
@@ -16102,7 +16132,7 @@
       <c r="N988" s="2"/>
       <c r="O988" s="2"/>
     </row>
-    <row r="989" spans="3:15">
+    <row r="989" spans="3:15" ht="12.75">
       <c r="C989" s="2"/>
       <c r="D989" s="2"/>
       <c r="E989" s="2"/>
@@ -16117,7 +16147,7 @@
       <c r="N989" s="2"/>
       <c r="O989" s="2"/>
     </row>
-    <row r="990" spans="3:15">
+    <row r="990" spans="3:15" ht="12.75">
       <c r="C990" s="2"/>
       <c r="D990" s="2"/>
       <c r="E990" s="2"/>
@@ -16132,7 +16162,7 @@
       <c r="N990" s="2"/>
       <c r="O990" s="2"/>
     </row>
-    <row r="991" spans="3:15">
+    <row r="991" spans="3:15" ht="12.75">
       <c r="C991" s="2"/>
       <c r="D991" s="2"/>
       <c r="E991" s="2"/>
@@ -16147,7 +16177,7 @@
       <c r="N991" s="2"/>
       <c r="O991" s="2"/>
     </row>
-    <row r="992" spans="3:15">
+    <row r="992" spans="3:15" ht="12.75">
       <c r="C992" s="2"/>
       <c r="D992" s="2"/>
       <c r="E992" s="2"/>
@@ -16162,7 +16192,7 @@
       <c r="N992" s="2"/>
       <c r="O992" s="2"/>
     </row>
-    <row r="993" spans="3:15">
+    <row r="993" spans="3:15" ht="12.75">
       <c r="C993" s="2"/>
       <c r="D993" s="2"/>
       <c r="E993" s="2"/>
@@ -16177,7 +16207,7 @@
       <c r="N993" s="2"/>
       <c r="O993" s="2"/>
     </row>
-    <row r="994" spans="3:15">
+    <row r="994" spans="3:15" ht="12.75">
       <c r="C994" s="2"/>
       <c r="D994" s="2"/>
       <c r="E994" s="2"/>
@@ -16192,7 +16222,7 @@
       <c r="N994" s="2"/>
       <c r="O994" s="2"/>
     </row>
-    <row r="995" spans="3:15">
+    <row r="995" spans="3:15" ht="12.75">
       <c r="C995" s="2"/>
       <c r="D995" s="2"/>
       <c r="E995" s="2"/>
@@ -16207,7 +16237,7 @@
       <c r="N995" s="2"/>
       <c r="O995" s="2"/>
     </row>
-    <row r="996" spans="3:15">
+    <row r="996" spans="3:15" ht="12.75">
       <c r="C996" s="2"/>
       <c r="D996" s="2"/>
       <c r="E996" s="2"/>
@@ -16222,7 +16252,7 @@
       <c r="N996" s="2"/>
       <c r="O996" s="2"/>
     </row>
-    <row r="997" spans="3:15">
+    <row r="997" spans="3:15" ht="12.75">
       <c r="C997" s="2"/>
       <c r="D997" s="2"/>
       <c r="E997" s="2"/>
@@ -16237,7 +16267,7 @@
       <c r="N997" s="2"/>
       <c r="O997" s="2"/>
     </row>
-    <row r="998" spans="3:15">
+    <row r="998" spans="3:15" ht="12.75">
       <c r="C998" s="2"/>
       <c r="D998" s="2"/>
       <c r="E998" s="2"/>
@@ -16252,7 +16282,7 @@
       <c r="N998" s="2"/>
       <c r="O998" s="2"/>
     </row>
-    <row r="999" spans="3:15">
+    <row r="999" spans="3:15" ht="12.75">
       <c r="C999" s="2"/>
       <c r="D999" s="2"/>
       <c r="E999" s="2"/>
@@ -16267,7 +16297,7 @@
       <c r="N999" s="2"/>
       <c r="O999" s="2"/>
     </row>
-    <row r="1000" spans="3:15">
+    <row r="1000" spans="3:15" ht="12.75">
       <c r="C1000" s="2"/>
       <c r="D1000" s="2"/>
       <c r="E1000" s="2"/>
